--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t xml:space="preserve">NIVEL/CANAL</t>
   </si>
@@ -140,109 +140,7 @@
     <t xml:space="preserve">ANALICE DA CONCEICAO</t>
   </si>
   <si>
-    <t xml:space="preserve">n.analice.conceicao@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDERSON MATHEUS BALBINO DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.anderson.bsilva@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREIA VIDAL DE NEGREIROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.andreia.negreiros@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREZA DOS SANTOS RAMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.andreza.ramos@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREZZA PEREIRA DE LUCENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.andrezza.lucena@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARETUZA NOGUEIRA DE LIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.aretuza.lima@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTHUR ITALO SILVA SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.arthur.ssantos@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTHUR WENDELL SOBREIRA DE BRITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.arthur.brito@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AYSLANIA COSTA E SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.ayslania.silva@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRENDA CRISTIAN SOARES DE SOUSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.brenda.sousa@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRUNA MICKAELLY ALVES DE BRITO MATEUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.bruna.mateus@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALLYSON EMANUEL BALBINO DINIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.callyson.diniz@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMILA LACERDA SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.camila.santos@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS ALBERTO FELIPE OLIMPIO COSME DE LIMA GUERRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.carlos.guerra@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATARINA COSTA BORJA RAMALHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.catarina.ramalho@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRISTIAN VIRGINIO ANDRADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.christian.andrade@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAMARES BATISTA DE SOUZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.damares.souza@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL GERMANO DE ARAUJO FILHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.daniel.filho@aec.com.br</t>
+    <t xml:space="preserve">n.analice.conceica.com.br</t>
   </si>
   <si>
     <t xml:space="preserve">AGENTE AUTORIZADO NACIONAL</t>
@@ -463,69 +361,27 @@
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -537,7 +393,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -568,7 +424,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -597,23 +453,23 @@
   </sheetPr>
   <dimension ref="1:44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.7295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="13" min="8" style="2" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="8" style="2" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2706,9 +2562,7 @@
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="n">
-        <v>6775206461</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
@@ -15187,7 +15041,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="11" t="n">
-        <v>5410434471</v>
+        <v>2131</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>36</v>
@@ -17257,27 +17111,13 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>10736815481</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="13" t="n">
-        <v>34898</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -18297,27 +18137,13 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="11" t="n">
-        <v>70141197455</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="13" t="n">
-        <v>35254</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
@@ -19337,27 +19163,13 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="11" t="n">
-        <v>12503486410</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="13" t="n">
-        <v>35205</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
@@ -20377,27 +20189,13 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="11" t="n">
-        <v>4280058458</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="13" t="n">
-        <v>29390</v>
-      </c>
-      <c r="G20" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
@@ -21417,27 +21215,13 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>6185133458</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="13" t="n">
-        <v>31124</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -22457,27 +22241,13 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="11" t="n">
-        <v>9270740447</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="13" t="n">
-        <v>33590</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -23497,27 +23267,13 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="11" t="n">
-        <v>10025796437</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="13" t="n">
-        <v>33716</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -24537,27 +24293,13 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="11" t="n">
-        <v>10683287460</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="13" t="n">
-        <v>34591</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -25577,27 +25319,13 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="11" t="n">
-        <v>10887160409</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="13" t="n">
-        <v>34176</v>
-      </c>
-      <c r="G25" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -26617,27 +26345,13 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="11" t="n">
-        <v>70033392420</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="13" t="n">
-        <v>34627</v>
-      </c>
-      <c r="G26" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -27657,27 +27371,13 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>13117909770</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="13" t="n">
-        <v>35067</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -28697,27 +28397,13 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="11" t="n">
-        <v>11645863433</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="13" t="n">
-        <v>34535</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
@@ -29737,27 +29423,13 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="11" t="n">
-        <v>8331792416</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="13" t="n">
-        <v>35795</v>
-      </c>
-      <c r="G29" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
@@ -30777,27 +30449,13 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="11" t="n">
-        <v>3770293436</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="13" t="n">
-        <v>28811</v>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
@@ -31817,27 +31475,13 @@
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="11" t="n">
-        <v>9015902402</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="13" t="n">
-        <v>32954</v>
-      </c>
-      <c r="G31" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
@@ -32857,27 +32501,13 @@
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="11" t="n">
-        <v>1551748436</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="13" t="n">
-        <v>31843</v>
-      </c>
-      <c r="G32" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
@@ -33897,27 +33527,13 @@
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="11" t="n">
-        <v>32690523833</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="13" t="n">
-        <v>30727</v>
-      </c>
-      <c r="G33" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
@@ -34937,27 +34553,13 @@
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="11" t="n">
-        <v>10025796437</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="13" t="n">
-        <v>33716</v>
-      </c>
-      <c r="G34" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
@@ -35977,27 +35579,13 @@
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="11" t="n">
-        <v>10683287460</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>34591</v>
-      </c>
-      <c r="G35" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
@@ -37017,27 +36605,13 @@
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="11" t="n">
-        <v>10887160409</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="13" t="n">
-        <v>34176</v>
-      </c>
-      <c r="G36" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="0"/>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
@@ -38057,27 +37631,13 @@
       <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="11" t="n">
-        <v>70033392420</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>34627</v>
-      </c>
-      <c r="G37" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="0"/>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
@@ -39097,27 +38657,13 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="11" t="n">
-        <v>13117909770</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="13" t="n">
-        <v>35067</v>
-      </c>
-      <c r="G38" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="0"/>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
@@ -40137,27 +39683,13 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>11645863433</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>34535</v>
-      </c>
-      <c r="G39" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="0"/>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
@@ -41177,27 +40709,13 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="11" t="n">
-        <v>8331792416</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="13" t="n">
-        <v>35795</v>
-      </c>
-      <c r="G40" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="0"/>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
@@ -42217,27 +41735,13 @@
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>3770293436</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>28811</v>
-      </c>
-      <c r="G41" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="0"/>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
@@ -43257,27 +42761,13 @@
       <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="11" t="n">
-        <v>9015902402</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="13" t="n">
-        <v>32954</v>
-      </c>
-      <c r="G42" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="0"/>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
@@ -44297,27 +43787,13 @@
       <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>1551748436</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="13" t="n">
-        <v>31843</v>
-      </c>
-      <c r="G43" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="0"/>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
@@ -45337,27 +44813,13 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="11" t="n">
-        <v>32690523833</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="13" t="n">
-        <v>30727</v>
-      </c>
-      <c r="G44" s="7" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="0"/>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
@@ -46504,16 +45966,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>8</v>
@@ -46521,35 +45983,35 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46559,12 +46021,12 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t xml:space="preserve">NIVEL/CANAL</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">n.adenildo.oliveira@aec.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTIVA</t>
   </si>
   <si>
     <t xml:space="preserve">ADRIANA DE LIMA BEZERRA</t>
@@ -454,22 +457,22 @@
   <dimension ref="1:44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.515306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="8" style="2" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="46.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="8" style="2" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3592,19 +3595,19 @@
     </row>
     <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>70159931479</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>34436</v>
@@ -4638,13 +4641,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>2917600403</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>27678</v>
@@ -5678,13 +5681,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>9249138431</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>32373</v>
@@ -6718,13 +6721,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11" t="n">
         <v>12532343451</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>35926</v>
@@ -7758,13 +7761,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="11" t="n">
         <v>11523845465</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>34705</v>
@@ -8798,13 +8801,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="11" t="n">
         <v>1581072414</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>32575</v>
@@ -9838,13 +9841,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="11" t="n">
         <v>10161857400</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>33127</v>
@@ -10878,13 +10881,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11" t="n">
         <v>10144034727</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="13" t="n">
         <v>31722</v>
@@ -11918,13 +11921,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="11" t="n">
         <v>5985368416</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="13" t="n">
         <v>31827</v>
@@ -12958,13 +12961,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="11" t="n">
         <v>70028986474</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="13" t="n">
         <v>34532</v>
@@ -13998,13 +14001,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="11" t="n">
         <v>6920673452</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="13" t="n">
         <v>31751</v>
@@ -15038,13 +15041,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="11" t="n">
         <v>2131</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="13" t="n">
         <v>30749</v>
@@ -16078,13 +16081,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="11" t="n">
         <v>9460873421</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="13" t="n">
         <v>34055</v>
@@ -45966,16 +45969,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>8</v>
@@ -45983,35 +45986,35 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46021,12 +46024,12 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t xml:space="preserve">NIVEL/CANAL</t>
   </si>
@@ -32,7 +32,10 @@
     <t xml:space="preserve">CARGO</t>
   </si>
   <si>
-    <t xml:space="preserve">NOME</t>
+    <t xml:space="preserve">                    DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOME                                       </t>
   </si>
   <si>
     <t xml:space="preserve">CPF</t>
@@ -53,10 +56,16 @@
     <t xml:space="preserve">VENDEDOR</t>
   </si>
   <si>
+    <t xml:space="preserve">AGENTE_AUTORIZADO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADAIDE SAMANTA DA SILVA SANTOS</t>
   </si>
   <si>
     <t xml:space="preserve">n.adaide.santos@aec.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMERCIAL</t>
   </si>
   <si>
     <t xml:space="preserve">ADENILDO PEREIRA OLIVEIRA</t>
@@ -185,7 +194,7 @@
     <numFmt numFmtId="165" formatCode="000000000\-00"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +220,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -292,11 +309,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,6 +342,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,7 +354,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,7 +366,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,25 +475,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:44"/>
+  <dimension ref="1:49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="8" style="2" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="2" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -485,19 +507,21 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
@@ -1517,27 +1541,29 @@
     </row>
     <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="n">
         <v>10604168403</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="G2" s="11" t="n">
         <v>34218</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="H2" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
@@ -2557,25 +2583,27 @@
     </row>
     <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
-        <v>12</v>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="14" t="n">
         <v>31944</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="H3" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -3595,27 +3623,29 @@
     </row>
     <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11" t="n">
+      <c r="E4" s="12" t="n">
         <v>70159931479</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
+      <c r="F4" s="13" t="s">
+        <v>18</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="G4" s="14" t="n">
         <v>34436</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="H4" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
@@ -4635,27 +4665,29 @@
     </row>
     <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="n">
         <v>2917600403</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
+      <c r="F5" s="13" t="s">
+        <v>20</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="G5" s="14" t="n">
         <v>27678</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="H5" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
@@ -5675,27 +5707,29 @@
     </row>
     <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="n">
         <v>9249138431</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="G6" s="14" t="n">
         <v>32373</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="H6" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
@@ -6715,27 +6749,29 @@
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="n">
         <v>12532343451</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>21</v>
+      <c r="F7" s="13" t="s">
+        <v>24</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="G7" s="14" t="n">
         <v>35926</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="H7" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
@@ -7755,27 +7791,29 @@
     </row>
     <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="12" t="n">
         <v>11523845465</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>23</v>
+      <c r="F8" s="13" t="s">
+        <v>26</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="G8" s="14" t="n">
         <v>34705</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="H8" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H8" s="0"/>
       <c r="I8" s="0"/>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
@@ -8795,27 +8833,29 @@
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="n">
         <v>1581072414</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>25</v>
+      <c r="F9" s="13" t="s">
+        <v>28</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="G9" s="14" t="n">
         <v>32575</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="H9" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
@@ -9835,27 +9875,29 @@
     </row>
     <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="12" t="n">
         <v>10161857400</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>27</v>
+      <c r="F10" s="13" t="s">
+        <v>30</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="G10" s="14" t="n">
         <v>33127</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="H10" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
@@ -10874,28 +10916,13 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>10144034727</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>31722</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>51991301817</v>
-      </c>
-      <c r="H11" s="0"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -11914,28 +11941,13 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="11" t="n">
-        <v>5985368416</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="13" t="n">
-        <v>31827</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>51991301817</v>
-      </c>
-      <c r="H12" s="0"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -12954,28 +12966,13 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>70028986474</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="13" t="n">
-        <v>34532</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>51991301817</v>
-      </c>
-      <c r="H13" s="0"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -13994,28 +13991,13 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>6920673452</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="13" t="n">
-        <v>31751</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>51991301817</v>
-      </c>
-      <c r="H14" s="0"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -15034,28 +15016,13 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>2131</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="13" t="n">
-        <v>30749</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>51991301817</v>
-      </c>
-      <c r="H15" s="0"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -16075,27 +16042,29 @@
     </row>
     <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>38</v>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D16" s="11" t="n">
-        <v>9460873421</v>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>39</v>
+      <c r="E16" s="12" t="n">
+        <v>10144034727</v>
       </c>
-      <c r="F16" s="13" t="n">
-        <v>34055</v>
+      <c r="F16" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="14" t="n">
+        <v>31722</v>
+      </c>
+      <c r="H16" s="8" t="n">
         <v>51991301817</v>
       </c>
-      <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
@@ -17114,14 +17083,30 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="0"/>
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="12" t="n">
+        <v>5985368416</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>31827</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>51991301817</v>
+      </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
@@ -18140,14 +18125,30 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="0"/>
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <v>70028986474</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <v>34532</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>51991301817</v>
+      </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
@@ -19166,14 +19167,30 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="0"/>
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="12" t="n">
+        <v>6920673452</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="14" t="n">
+        <v>31751</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>51991301817</v>
+      </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
@@ -20192,14 +20209,30 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="0"/>
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="12" t="n">
+        <v>2131</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>30749</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>51991301817</v>
+      </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
@@ -21217,1041 +21250,14 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="0"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
-      <c r="AB21" s="0"/>
-      <c r="AC21" s="0"/>
-      <c r="AD21" s="0"/>
-      <c r="AE21" s="0"/>
-      <c r="AF21" s="0"/>
-      <c r="AG21" s="0"/>
-      <c r="AH21" s="0"/>
-      <c r="AI21" s="0"/>
-      <c r="AJ21" s="0"/>
-      <c r="AK21" s="0"/>
-      <c r="AL21" s="0"/>
-      <c r="AM21" s="0"/>
-      <c r="AN21" s="0"/>
-      <c r="AO21" s="0"/>
-      <c r="AP21" s="0"/>
-      <c r="AQ21" s="0"/>
-      <c r="AR21" s="0"/>
-      <c r="AS21" s="0"/>
-      <c r="AT21" s="0"/>
-      <c r="AU21" s="0"/>
-      <c r="AV21" s="0"/>
-      <c r="AW21" s="0"/>
-      <c r="AX21" s="0"/>
-      <c r="AY21" s="0"/>
-      <c r="AZ21" s="0"/>
-      <c r="BA21" s="0"/>
-      <c r="BB21" s="0"/>
-      <c r="BC21" s="0"/>
-      <c r="BD21" s="0"/>
-      <c r="BE21" s="0"/>
-      <c r="BF21" s="0"/>
-      <c r="BG21" s="0"/>
-      <c r="BH21" s="0"/>
-      <c r="BI21" s="0"/>
-      <c r="BJ21" s="0"/>
-      <c r="BK21" s="0"/>
-      <c r="BL21" s="0"/>
-      <c r="BM21" s="0"/>
-      <c r="BN21" s="0"/>
-      <c r="BO21" s="0"/>
-      <c r="BP21" s="0"/>
-      <c r="BQ21" s="0"/>
-      <c r="BR21" s="0"/>
-      <c r="BS21" s="0"/>
-      <c r="BT21" s="0"/>
-      <c r="BU21" s="0"/>
-      <c r="BV21" s="0"/>
-      <c r="BW21" s="0"/>
-      <c r="BX21" s="0"/>
-      <c r="BY21" s="0"/>
-      <c r="BZ21" s="0"/>
-      <c r="CA21" s="0"/>
-      <c r="CB21" s="0"/>
-      <c r="CC21" s="0"/>
-      <c r="CD21" s="0"/>
-      <c r="CE21" s="0"/>
-      <c r="CF21" s="0"/>
-      <c r="CG21" s="0"/>
-      <c r="CH21" s="0"/>
-      <c r="CI21" s="0"/>
-      <c r="CJ21" s="0"/>
-      <c r="CK21" s="0"/>
-      <c r="CL21" s="0"/>
-      <c r="CM21" s="0"/>
-      <c r="CN21" s="0"/>
-      <c r="CO21" s="0"/>
-      <c r="CP21" s="0"/>
-      <c r="CQ21" s="0"/>
-      <c r="CR21" s="0"/>
-      <c r="CS21" s="0"/>
-      <c r="CT21" s="0"/>
-      <c r="CU21" s="0"/>
-      <c r="CV21" s="0"/>
-      <c r="CW21" s="0"/>
-      <c r="CX21" s="0"/>
-      <c r="CY21" s="0"/>
-      <c r="CZ21" s="0"/>
-      <c r="DA21" s="0"/>
-      <c r="DB21" s="0"/>
-      <c r="DC21" s="0"/>
-      <c r="DD21" s="0"/>
-      <c r="DE21" s="0"/>
-      <c r="DF21" s="0"/>
-      <c r="DG21" s="0"/>
-      <c r="DH21" s="0"/>
-      <c r="DI21" s="0"/>
-      <c r="DJ21" s="0"/>
-      <c r="DK21" s="0"/>
-      <c r="DL21" s="0"/>
-      <c r="DM21" s="0"/>
-      <c r="DN21" s="0"/>
-      <c r="DO21" s="0"/>
-      <c r="DP21" s="0"/>
-      <c r="DQ21" s="0"/>
-      <c r="DR21" s="0"/>
-      <c r="DS21" s="0"/>
-      <c r="DT21" s="0"/>
-      <c r="DU21" s="0"/>
-      <c r="DV21" s="0"/>
-      <c r="DW21" s="0"/>
-      <c r="DX21" s="0"/>
-      <c r="DY21" s="0"/>
-      <c r="DZ21" s="0"/>
-      <c r="EA21" s="0"/>
-      <c r="EB21" s="0"/>
-      <c r="EC21" s="0"/>
-      <c r="ED21" s="0"/>
-      <c r="EE21" s="0"/>
-      <c r="EF21" s="0"/>
-      <c r="EG21" s="0"/>
-      <c r="EH21" s="0"/>
-      <c r="EI21" s="0"/>
-      <c r="EJ21" s="0"/>
-      <c r="EK21" s="0"/>
-      <c r="EL21" s="0"/>
-      <c r="EM21" s="0"/>
-      <c r="EN21" s="0"/>
-      <c r="EO21" s="0"/>
-      <c r="EP21" s="0"/>
-      <c r="EQ21" s="0"/>
-      <c r="ER21" s="0"/>
-      <c r="ES21" s="0"/>
-      <c r="ET21" s="0"/>
-      <c r="EU21" s="0"/>
-      <c r="EV21" s="0"/>
-      <c r="EW21" s="0"/>
-      <c r="EX21" s="0"/>
-      <c r="EY21" s="0"/>
-      <c r="EZ21" s="0"/>
-      <c r="FA21" s="0"/>
-      <c r="FB21" s="0"/>
-      <c r="FC21" s="0"/>
-      <c r="FD21" s="0"/>
-      <c r="FE21" s="0"/>
-      <c r="FF21" s="0"/>
-      <c r="FG21" s="0"/>
-      <c r="FH21" s="0"/>
-      <c r="FI21" s="0"/>
-      <c r="FJ21" s="0"/>
-      <c r="FK21" s="0"/>
-      <c r="FL21" s="0"/>
-      <c r="FM21" s="0"/>
-      <c r="FN21" s="0"/>
-      <c r="FO21" s="0"/>
-      <c r="FP21" s="0"/>
-      <c r="FQ21" s="0"/>
-      <c r="FR21" s="0"/>
-      <c r="FS21" s="0"/>
-      <c r="FT21" s="0"/>
-      <c r="FU21" s="0"/>
-      <c r="FV21" s="0"/>
-      <c r="FW21" s="0"/>
-      <c r="FX21" s="0"/>
-      <c r="FY21" s="0"/>
-      <c r="FZ21" s="0"/>
-      <c r="GA21" s="0"/>
-      <c r="GB21" s="0"/>
-      <c r="GC21" s="0"/>
-      <c r="GD21" s="0"/>
-      <c r="GE21" s="0"/>
-      <c r="GF21" s="0"/>
-      <c r="GG21" s="0"/>
-      <c r="GH21" s="0"/>
-      <c r="GI21" s="0"/>
-      <c r="GJ21" s="0"/>
-      <c r="GK21" s="0"/>
-      <c r="GL21" s="0"/>
-      <c r="GM21" s="0"/>
-      <c r="GN21" s="0"/>
-      <c r="GO21" s="0"/>
-      <c r="GP21" s="0"/>
-      <c r="GQ21" s="0"/>
-      <c r="GR21" s="0"/>
-      <c r="GS21" s="0"/>
-      <c r="GT21" s="0"/>
-      <c r="GU21" s="0"/>
-      <c r="GV21" s="0"/>
-      <c r="GW21" s="0"/>
-      <c r="GX21" s="0"/>
-      <c r="GY21" s="0"/>
-      <c r="GZ21" s="0"/>
-      <c r="HA21" s="0"/>
-      <c r="HB21" s="0"/>
-      <c r="HC21" s="0"/>
-      <c r="HD21" s="0"/>
-      <c r="HE21" s="0"/>
-      <c r="HF21" s="0"/>
-      <c r="HG21" s="0"/>
-      <c r="HH21" s="0"/>
-      <c r="HI21" s="0"/>
-      <c r="HJ21" s="0"/>
-      <c r="HK21" s="0"/>
-      <c r="HL21" s="0"/>
-      <c r="HM21" s="0"/>
-      <c r="HN21" s="0"/>
-      <c r="HO21" s="0"/>
-      <c r="HP21" s="0"/>
-      <c r="HQ21" s="0"/>
-      <c r="HR21" s="0"/>
-      <c r="HS21" s="0"/>
-      <c r="HT21" s="0"/>
-      <c r="HU21" s="0"/>
-      <c r="HV21" s="0"/>
-      <c r="HW21" s="0"/>
-      <c r="HX21" s="0"/>
-      <c r="HY21" s="0"/>
-      <c r="HZ21" s="0"/>
-      <c r="IA21" s="0"/>
-      <c r="IB21" s="0"/>
-      <c r="IC21" s="0"/>
-      <c r="ID21" s="0"/>
-      <c r="IE21" s="0"/>
-      <c r="IF21" s="0"/>
-      <c r="IG21" s="0"/>
-      <c r="IH21" s="0"/>
-      <c r="II21" s="0"/>
-      <c r="IJ21" s="0"/>
-      <c r="IK21" s="0"/>
-      <c r="IL21" s="0"/>
-      <c r="IM21" s="0"/>
-      <c r="IN21" s="0"/>
-      <c r="IO21" s="0"/>
-      <c r="IP21" s="0"/>
-      <c r="IQ21" s="0"/>
-      <c r="IR21" s="0"/>
-      <c r="IS21" s="0"/>
-      <c r="IT21" s="0"/>
-      <c r="IU21" s="0"/>
-      <c r="IV21" s="0"/>
-      <c r="IW21" s="0"/>
-      <c r="IX21" s="0"/>
-      <c r="IY21" s="0"/>
-      <c r="IZ21" s="0"/>
-      <c r="JA21" s="0"/>
-      <c r="JB21" s="0"/>
-      <c r="JC21" s="0"/>
-      <c r="JD21" s="0"/>
-      <c r="JE21" s="0"/>
-      <c r="JF21" s="0"/>
-      <c r="JG21" s="0"/>
-      <c r="JH21" s="0"/>
-      <c r="JI21" s="0"/>
-      <c r="JJ21" s="0"/>
-      <c r="JK21" s="0"/>
-      <c r="JL21" s="0"/>
-      <c r="JM21" s="0"/>
-      <c r="JN21" s="0"/>
-      <c r="JO21" s="0"/>
-      <c r="JP21" s="0"/>
-      <c r="JQ21" s="0"/>
-      <c r="JR21" s="0"/>
-      <c r="JS21" s="0"/>
-      <c r="JT21" s="0"/>
-      <c r="JU21" s="0"/>
-      <c r="JV21" s="0"/>
-      <c r="JW21" s="0"/>
-      <c r="JX21" s="0"/>
-      <c r="JY21" s="0"/>
-      <c r="JZ21" s="0"/>
-      <c r="KA21" s="0"/>
-      <c r="KB21" s="0"/>
-      <c r="KC21" s="0"/>
-      <c r="KD21" s="0"/>
-      <c r="KE21" s="0"/>
-      <c r="KF21" s="0"/>
-      <c r="KG21" s="0"/>
-      <c r="KH21" s="0"/>
-      <c r="KI21" s="0"/>
-      <c r="KJ21" s="0"/>
-      <c r="KK21" s="0"/>
-      <c r="KL21" s="0"/>
-      <c r="KM21" s="0"/>
-      <c r="KN21" s="0"/>
-      <c r="KO21" s="0"/>
-      <c r="KP21" s="0"/>
-      <c r="KQ21" s="0"/>
-      <c r="KR21" s="0"/>
-      <c r="KS21" s="0"/>
-      <c r="KT21" s="0"/>
-      <c r="KU21" s="0"/>
-      <c r="KV21" s="0"/>
-      <c r="KW21" s="0"/>
-      <c r="KX21" s="0"/>
-      <c r="KY21" s="0"/>
-      <c r="KZ21" s="0"/>
-      <c r="LA21" s="0"/>
-      <c r="LB21" s="0"/>
-      <c r="LC21" s="0"/>
-      <c r="LD21" s="0"/>
-      <c r="LE21" s="0"/>
-      <c r="LF21" s="0"/>
-      <c r="LG21" s="0"/>
-      <c r="LH21" s="0"/>
-      <c r="LI21" s="0"/>
-      <c r="LJ21" s="0"/>
-      <c r="LK21" s="0"/>
-      <c r="LL21" s="0"/>
-      <c r="LM21" s="0"/>
-      <c r="LN21" s="0"/>
-      <c r="LO21" s="0"/>
-      <c r="LP21" s="0"/>
-      <c r="LQ21" s="0"/>
-      <c r="LR21" s="0"/>
-      <c r="LS21" s="0"/>
-      <c r="LT21" s="0"/>
-      <c r="LU21" s="0"/>
-      <c r="LV21" s="0"/>
-      <c r="LW21" s="0"/>
-      <c r="LX21" s="0"/>
-      <c r="LY21" s="0"/>
-      <c r="LZ21" s="0"/>
-      <c r="MA21" s="0"/>
-      <c r="MB21" s="0"/>
-      <c r="MC21" s="0"/>
-      <c r="MD21" s="0"/>
-      <c r="ME21" s="0"/>
-      <c r="MF21" s="0"/>
-      <c r="MG21" s="0"/>
-      <c r="MH21" s="0"/>
-      <c r="MI21" s="0"/>
-      <c r="MJ21" s="0"/>
-      <c r="MK21" s="0"/>
-      <c r="ML21" s="0"/>
-      <c r="MM21" s="0"/>
-      <c r="MN21" s="0"/>
-      <c r="MO21" s="0"/>
-      <c r="MP21" s="0"/>
-      <c r="MQ21" s="0"/>
-      <c r="MR21" s="0"/>
-      <c r="MS21" s="0"/>
-      <c r="MT21" s="0"/>
-      <c r="MU21" s="0"/>
-      <c r="MV21" s="0"/>
-      <c r="MW21" s="0"/>
-      <c r="MX21" s="0"/>
-      <c r="MY21" s="0"/>
-      <c r="MZ21" s="0"/>
-      <c r="NA21" s="0"/>
-      <c r="NB21" s="0"/>
-      <c r="NC21" s="0"/>
-      <c r="ND21" s="0"/>
-      <c r="NE21" s="0"/>
-      <c r="NF21" s="0"/>
-      <c r="NG21" s="0"/>
-      <c r="NH21" s="0"/>
-      <c r="NI21" s="0"/>
-      <c r="NJ21" s="0"/>
-      <c r="NK21" s="0"/>
-      <c r="NL21" s="0"/>
-      <c r="NM21" s="0"/>
-      <c r="NN21" s="0"/>
-      <c r="NO21" s="0"/>
-      <c r="NP21" s="0"/>
-      <c r="NQ21" s="0"/>
-      <c r="NR21" s="0"/>
-      <c r="NS21" s="0"/>
-      <c r="NT21" s="0"/>
-      <c r="NU21" s="0"/>
-      <c r="NV21" s="0"/>
-      <c r="NW21" s="0"/>
-      <c r="NX21" s="0"/>
-      <c r="NY21" s="0"/>
-      <c r="NZ21" s="0"/>
-      <c r="OA21" s="0"/>
-      <c r="OB21" s="0"/>
-      <c r="OC21" s="0"/>
-      <c r="OD21" s="0"/>
-      <c r="OE21" s="0"/>
-      <c r="OF21" s="0"/>
-      <c r="OG21" s="0"/>
-      <c r="OH21" s="0"/>
-      <c r="OI21" s="0"/>
-      <c r="OJ21" s="0"/>
-      <c r="OK21" s="0"/>
-      <c r="OL21" s="0"/>
-      <c r="OM21" s="0"/>
-      <c r="ON21" s="0"/>
-      <c r="OO21" s="0"/>
-      <c r="OP21" s="0"/>
-      <c r="OQ21" s="0"/>
-      <c r="OR21" s="0"/>
-      <c r="OS21" s="0"/>
-      <c r="OT21" s="0"/>
-      <c r="OU21" s="0"/>
-      <c r="OV21" s="0"/>
-      <c r="OW21" s="0"/>
-      <c r="OX21" s="0"/>
-      <c r="OY21" s="0"/>
-      <c r="OZ21" s="0"/>
-      <c r="PA21" s="0"/>
-      <c r="PB21" s="0"/>
-      <c r="PC21" s="0"/>
-      <c r="PD21" s="0"/>
-      <c r="PE21" s="0"/>
-      <c r="PF21" s="0"/>
-      <c r="PG21" s="0"/>
-      <c r="PH21" s="0"/>
-      <c r="PI21" s="0"/>
-      <c r="PJ21" s="0"/>
-      <c r="PK21" s="0"/>
-      <c r="PL21" s="0"/>
-      <c r="PM21" s="0"/>
-      <c r="PN21" s="0"/>
-      <c r="PO21" s="0"/>
-      <c r="PP21" s="0"/>
-      <c r="PQ21" s="0"/>
-      <c r="PR21" s="0"/>
-      <c r="PS21" s="0"/>
-      <c r="PT21" s="0"/>
-      <c r="PU21" s="0"/>
-      <c r="PV21" s="0"/>
-      <c r="PW21" s="0"/>
-      <c r="PX21" s="0"/>
-      <c r="PY21" s="0"/>
-      <c r="PZ21" s="0"/>
-      <c r="QA21" s="0"/>
-      <c r="QB21" s="0"/>
-      <c r="QC21" s="0"/>
-      <c r="QD21" s="0"/>
-      <c r="QE21" s="0"/>
-      <c r="QF21" s="0"/>
-      <c r="QG21" s="0"/>
-      <c r="QH21" s="0"/>
-      <c r="QI21" s="0"/>
-      <c r="QJ21" s="0"/>
-      <c r="QK21" s="0"/>
-      <c r="QL21" s="0"/>
-      <c r="QM21" s="0"/>
-      <c r="QN21" s="0"/>
-      <c r="QO21" s="0"/>
-      <c r="QP21" s="0"/>
-      <c r="QQ21" s="0"/>
-      <c r="QR21" s="0"/>
-      <c r="QS21" s="0"/>
-      <c r="QT21" s="0"/>
-      <c r="QU21" s="0"/>
-      <c r="QV21" s="0"/>
-      <c r="QW21" s="0"/>
-      <c r="QX21" s="0"/>
-      <c r="QY21" s="0"/>
-      <c r="QZ21" s="0"/>
-      <c r="RA21" s="0"/>
-      <c r="RB21" s="0"/>
-      <c r="RC21" s="0"/>
-      <c r="RD21" s="0"/>
-      <c r="RE21" s="0"/>
-      <c r="RF21" s="0"/>
-      <c r="RG21" s="0"/>
-      <c r="RH21" s="0"/>
-      <c r="RI21" s="0"/>
-      <c r="RJ21" s="0"/>
-      <c r="RK21" s="0"/>
-      <c r="RL21" s="0"/>
-      <c r="RM21" s="0"/>
-      <c r="RN21" s="0"/>
-      <c r="RO21" s="0"/>
-      <c r="RP21" s="0"/>
-      <c r="RQ21" s="0"/>
-      <c r="RR21" s="0"/>
-      <c r="RS21" s="0"/>
-      <c r="RT21" s="0"/>
-      <c r="RU21" s="0"/>
-      <c r="RV21" s="0"/>
-      <c r="RW21" s="0"/>
-      <c r="RX21" s="0"/>
-      <c r="RY21" s="0"/>
-      <c r="RZ21" s="0"/>
-      <c r="SA21" s="0"/>
-      <c r="SB21" s="0"/>
-      <c r="SC21" s="0"/>
-      <c r="SD21" s="0"/>
-      <c r="SE21" s="0"/>
-      <c r="SF21" s="0"/>
-      <c r="SG21" s="0"/>
-      <c r="SH21" s="0"/>
-      <c r="SI21" s="0"/>
-      <c r="SJ21" s="0"/>
-      <c r="SK21" s="0"/>
-      <c r="SL21" s="0"/>
-      <c r="SM21" s="0"/>
-      <c r="SN21" s="0"/>
-      <c r="SO21" s="0"/>
-      <c r="SP21" s="0"/>
-      <c r="SQ21" s="0"/>
-      <c r="SR21" s="0"/>
-      <c r="SS21" s="0"/>
-      <c r="ST21" s="0"/>
-      <c r="SU21" s="0"/>
-      <c r="SV21" s="0"/>
-      <c r="SW21" s="0"/>
-      <c r="SX21" s="0"/>
-      <c r="SY21" s="0"/>
-      <c r="SZ21" s="0"/>
-      <c r="TA21" s="0"/>
-      <c r="TB21" s="0"/>
-      <c r="TC21" s="0"/>
-      <c r="TD21" s="0"/>
-      <c r="TE21" s="0"/>
-      <c r="TF21" s="0"/>
-      <c r="TG21" s="0"/>
-      <c r="TH21" s="0"/>
-      <c r="TI21" s="0"/>
-      <c r="TJ21" s="0"/>
-      <c r="TK21" s="0"/>
-      <c r="TL21" s="0"/>
-      <c r="TM21" s="0"/>
-      <c r="TN21" s="0"/>
-      <c r="TO21" s="0"/>
-      <c r="TP21" s="0"/>
-      <c r="TQ21" s="0"/>
-      <c r="TR21" s="0"/>
-      <c r="TS21" s="0"/>
-      <c r="TT21" s="0"/>
-      <c r="TU21" s="0"/>
-      <c r="TV21" s="0"/>
-      <c r="TW21" s="0"/>
-      <c r="TX21" s="0"/>
-      <c r="TY21" s="0"/>
-      <c r="TZ21" s="0"/>
-      <c r="UA21" s="0"/>
-      <c r="UB21" s="0"/>
-      <c r="UC21" s="0"/>
-      <c r="UD21" s="0"/>
-      <c r="UE21" s="0"/>
-      <c r="UF21" s="0"/>
-      <c r="UG21" s="0"/>
-      <c r="UH21" s="0"/>
-      <c r="UI21" s="0"/>
-      <c r="UJ21" s="0"/>
-      <c r="UK21" s="0"/>
-      <c r="UL21" s="0"/>
-      <c r="UM21" s="0"/>
-      <c r="UN21" s="0"/>
-      <c r="UO21" s="0"/>
-      <c r="UP21" s="0"/>
-      <c r="UQ21" s="0"/>
-      <c r="UR21" s="0"/>
-      <c r="US21" s="0"/>
-      <c r="UT21" s="0"/>
-      <c r="UU21" s="0"/>
-      <c r="UV21" s="0"/>
-      <c r="UW21" s="0"/>
-      <c r="UX21" s="0"/>
-      <c r="UY21" s="0"/>
-      <c r="UZ21" s="0"/>
-      <c r="VA21" s="0"/>
-      <c r="VB21" s="0"/>
-      <c r="VC21" s="0"/>
-      <c r="VD21" s="0"/>
-      <c r="VE21" s="0"/>
-      <c r="VF21" s="0"/>
-      <c r="VG21" s="0"/>
-      <c r="VH21" s="0"/>
-      <c r="VI21" s="0"/>
-      <c r="VJ21" s="0"/>
-      <c r="VK21" s="0"/>
-      <c r="VL21" s="0"/>
-      <c r="VM21" s="0"/>
-      <c r="VN21" s="0"/>
-      <c r="VO21" s="0"/>
-      <c r="VP21" s="0"/>
-      <c r="VQ21" s="0"/>
-      <c r="VR21" s="0"/>
-      <c r="VS21" s="0"/>
-      <c r="VT21" s="0"/>
-      <c r="VU21" s="0"/>
-      <c r="VV21" s="0"/>
-      <c r="VW21" s="0"/>
-      <c r="VX21" s="0"/>
-      <c r="VY21" s="0"/>
-      <c r="VZ21" s="0"/>
-      <c r="WA21" s="0"/>
-      <c r="WB21" s="0"/>
-      <c r="WC21" s="0"/>
-      <c r="WD21" s="0"/>
-      <c r="WE21" s="0"/>
-      <c r="WF21" s="0"/>
-      <c r="WG21" s="0"/>
-      <c r="WH21" s="0"/>
-      <c r="WI21" s="0"/>
-      <c r="WJ21" s="0"/>
-      <c r="WK21" s="0"/>
-      <c r="WL21" s="0"/>
-      <c r="WM21" s="0"/>
-      <c r="WN21" s="0"/>
-      <c r="WO21" s="0"/>
-      <c r="WP21" s="0"/>
-      <c r="WQ21" s="0"/>
-      <c r="WR21" s="0"/>
-      <c r="WS21" s="0"/>
-      <c r="WT21" s="0"/>
-      <c r="WU21" s="0"/>
-      <c r="WV21" s="0"/>
-      <c r="WW21" s="0"/>
-      <c r="WX21" s="0"/>
-      <c r="WY21" s="0"/>
-      <c r="WZ21" s="0"/>
-      <c r="XA21" s="0"/>
-      <c r="XB21" s="0"/>
-      <c r="XC21" s="0"/>
-      <c r="XD21" s="0"/>
-      <c r="XE21" s="0"/>
-      <c r="XF21" s="0"/>
-      <c r="XG21" s="0"/>
-      <c r="XH21" s="0"/>
-      <c r="XI21" s="0"/>
-      <c r="XJ21" s="0"/>
-      <c r="XK21" s="0"/>
-      <c r="XL21" s="0"/>
-      <c r="XM21" s="0"/>
-      <c r="XN21" s="0"/>
-      <c r="XO21" s="0"/>
-      <c r="XP21" s="0"/>
-      <c r="XQ21" s="0"/>
-      <c r="XR21" s="0"/>
-      <c r="XS21" s="0"/>
-      <c r="XT21" s="0"/>
-      <c r="XU21" s="0"/>
-      <c r="XV21" s="0"/>
-      <c r="XW21" s="0"/>
-      <c r="XX21" s="0"/>
-      <c r="XY21" s="0"/>
-      <c r="XZ21" s="0"/>
-      <c r="YA21" s="0"/>
-      <c r="YB21" s="0"/>
-      <c r="YC21" s="0"/>
-      <c r="YD21" s="0"/>
-      <c r="YE21" s="0"/>
-      <c r="YF21" s="0"/>
-      <c r="YG21" s="0"/>
-      <c r="YH21" s="0"/>
-      <c r="YI21" s="0"/>
-      <c r="YJ21" s="0"/>
-      <c r="YK21" s="0"/>
-      <c r="YL21" s="0"/>
-      <c r="YM21" s="0"/>
-      <c r="YN21" s="0"/>
-      <c r="YO21" s="0"/>
-      <c r="YP21" s="0"/>
-      <c r="YQ21" s="0"/>
-      <c r="YR21" s="0"/>
-      <c r="YS21" s="0"/>
-      <c r="YT21" s="0"/>
-      <c r="YU21" s="0"/>
-      <c r="YV21" s="0"/>
-      <c r="YW21" s="0"/>
-      <c r="YX21" s="0"/>
-      <c r="YY21" s="0"/>
-      <c r="YZ21" s="0"/>
-      <c r="ZA21" s="0"/>
-      <c r="ZB21" s="0"/>
-      <c r="ZC21" s="0"/>
-      <c r="ZD21" s="0"/>
-      <c r="ZE21" s="0"/>
-      <c r="ZF21" s="0"/>
-      <c r="ZG21" s="0"/>
-      <c r="ZH21" s="0"/>
-      <c r="ZI21" s="0"/>
-      <c r="ZJ21" s="0"/>
-      <c r="ZK21" s="0"/>
-      <c r="ZL21" s="0"/>
-      <c r="ZM21" s="0"/>
-      <c r="ZN21" s="0"/>
-      <c r="ZO21" s="0"/>
-      <c r="ZP21" s="0"/>
-      <c r="ZQ21" s="0"/>
-      <c r="ZR21" s="0"/>
-      <c r="ZS21" s="0"/>
-      <c r="ZT21" s="0"/>
-      <c r="ZU21" s="0"/>
-      <c r="ZV21" s="0"/>
-      <c r="ZW21" s="0"/>
-      <c r="ZX21" s="0"/>
-      <c r="ZY21" s="0"/>
-      <c r="ZZ21" s="0"/>
-      <c r="AAA21" s="0"/>
-      <c r="AAB21" s="0"/>
-      <c r="AAC21" s="0"/>
-      <c r="AAD21" s="0"/>
-      <c r="AAE21" s="0"/>
-      <c r="AAF21" s="0"/>
-      <c r="AAG21" s="0"/>
-      <c r="AAH21" s="0"/>
-      <c r="AAI21" s="0"/>
-      <c r="AAJ21" s="0"/>
-      <c r="AAK21" s="0"/>
-      <c r="AAL21" s="0"/>
-      <c r="AAM21" s="0"/>
-      <c r="AAN21" s="0"/>
-      <c r="AAO21" s="0"/>
-      <c r="AAP21" s="0"/>
-      <c r="AAQ21" s="0"/>
-      <c r="AAR21" s="0"/>
-      <c r="AAS21" s="0"/>
-      <c r="AAT21" s="0"/>
-      <c r="AAU21" s="0"/>
-      <c r="AAV21" s="0"/>
-      <c r="AAW21" s="0"/>
-      <c r="AAX21" s="0"/>
-      <c r="AAY21" s="0"/>
-      <c r="AAZ21" s="0"/>
-      <c r="ABA21" s="0"/>
-      <c r="ABB21" s="0"/>
-      <c r="ABC21" s="0"/>
-      <c r="ABD21" s="0"/>
-      <c r="ABE21" s="0"/>
-      <c r="ABF21" s="0"/>
-      <c r="ABG21" s="0"/>
-      <c r="ABH21" s="0"/>
-      <c r="ABI21" s="0"/>
-      <c r="ABJ21" s="0"/>
-      <c r="ABK21" s="0"/>
-      <c r="ABL21" s="0"/>
-      <c r="ABM21" s="0"/>
-      <c r="ABN21" s="0"/>
-      <c r="ABO21" s="0"/>
-      <c r="ABP21" s="0"/>
-      <c r="ABQ21" s="0"/>
-      <c r="ABR21" s="0"/>
-      <c r="ABS21" s="0"/>
-      <c r="ABT21" s="0"/>
-      <c r="ABU21" s="0"/>
-      <c r="ABV21" s="0"/>
-      <c r="ABW21" s="0"/>
-      <c r="ABX21" s="0"/>
-      <c r="ABY21" s="0"/>
-      <c r="ABZ21" s="0"/>
-      <c r="ACA21" s="0"/>
-      <c r="ACB21" s="0"/>
-      <c r="ACC21" s="0"/>
-      <c r="ACD21" s="0"/>
-      <c r="ACE21" s="0"/>
-      <c r="ACF21" s="0"/>
-      <c r="ACG21" s="0"/>
-      <c r="ACH21" s="0"/>
-      <c r="ACI21" s="0"/>
-      <c r="ACJ21" s="0"/>
-      <c r="ACK21" s="0"/>
-      <c r="ACL21" s="0"/>
-      <c r="ACM21" s="0"/>
-      <c r="ACN21" s="0"/>
-      <c r="ACO21" s="0"/>
-      <c r="ACP21" s="0"/>
-      <c r="ACQ21" s="0"/>
-      <c r="ACR21" s="0"/>
-      <c r="ACS21" s="0"/>
-      <c r="ACT21" s="0"/>
-      <c r="ACU21" s="0"/>
-      <c r="ACV21" s="0"/>
-      <c r="ACW21" s="0"/>
-      <c r="ACX21" s="0"/>
-      <c r="ACY21" s="0"/>
-      <c r="ACZ21" s="0"/>
-      <c r="ADA21" s="0"/>
-      <c r="ADB21" s="0"/>
-      <c r="ADC21" s="0"/>
-      <c r="ADD21" s="0"/>
-      <c r="ADE21" s="0"/>
-      <c r="ADF21" s="0"/>
-      <c r="ADG21" s="0"/>
-      <c r="ADH21" s="0"/>
-      <c r="ADI21" s="0"/>
-      <c r="ADJ21" s="0"/>
-      <c r="ADK21" s="0"/>
-      <c r="ADL21" s="0"/>
-      <c r="ADM21" s="0"/>
-      <c r="ADN21" s="0"/>
-      <c r="ADO21" s="0"/>
-      <c r="ADP21" s="0"/>
-      <c r="ADQ21" s="0"/>
-      <c r="ADR21" s="0"/>
-      <c r="ADS21" s="0"/>
-      <c r="ADT21" s="0"/>
-      <c r="ADU21" s="0"/>
-      <c r="ADV21" s="0"/>
-      <c r="ADW21" s="0"/>
-      <c r="ADX21" s="0"/>
-      <c r="ADY21" s="0"/>
-      <c r="ADZ21" s="0"/>
-      <c r="AEA21" s="0"/>
-      <c r="AEB21" s="0"/>
-      <c r="AEC21" s="0"/>
-      <c r="AED21" s="0"/>
-      <c r="AEE21" s="0"/>
-      <c r="AEF21" s="0"/>
-      <c r="AEG21" s="0"/>
-      <c r="AEH21" s="0"/>
-      <c r="AEI21" s="0"/>
-      <c r="AEJ21" s="0"/>
-      <c r="AEK21" s="0"/>
-      <c r="AEL21" s="0"/>
-      <c r="AEM21" s="0"/>
-      <c r="AEN21" s="0"/>
-      <c r="AEO21" s="0"/>
-      <c r="AEP21" s="0"/>
-      <c r="AEQ21" s="0"/>
-      <c r="AER21" s="0"/>
-      <c r="AES21" s="0"/>
-      <c r="AET21" s="0"/>
-      <c r="AEU21" s="0"/>
-      <c r="AEV21" s="0"/>
-      <c r="AEW21" s="0"/>
-      <c r="AEX21" s="0"/>
-      <c r="AEY21" s="0"/>
-      <c r="AEZ21" s="0"/>
-      <c r="AFA21" s="0"/>
-      <c r="AFB21" s="0"/>
-      <c r="AFC21" s="0"/>
-      <c r="AFD21" s="0"/>
-      <c r="AFE21" s="0"/>
-      <c r="AFF21" s="0"/>
-      <c r="AFG21" s="0"/>
-      <c r="AFH21" s="0"/>
-      <c r="AFI21" s="0"/>
-      <c r="AFJ21" s="0"/>
-      <c r="AFK21" s="0"/>
-      <c r="AFL21" s="0"/>
-      <c r="AFM21" s="0"/>
-      <c r="AFN21" s="0"/>
-      <c r="AFO21" s="0"/>
-      <c r="AFP21" s="0"/>
-      <c r="AFQ21" s="0"/>
-      <c r="AFR21" s="0"/>
-      <c r="AFS21" s="0"/>
-      <c r="AFT21" s="0"/>
-      <c r="AFU21" s="0"/>
-      <c r="AFV21" s="0"/>
-      <c r="AFW21" s="0"/>
-      <c r="AFX21" s="0"/>
-      <c r="AFY21" s="0"/>
-      <c r="AFZ21" s="0"/>
-      <c r="AGA21" s="0"/>
-      <c r="AGB21" s="0"/>
-      <c r="AGC21" s="0"/>
-      <c r="AGD21" s="0"/>
-      <c r="AGE21" s="0"/>
-      <c r="AGF21" s="0"/>
-      <c r="AGG21" s="0"/>
-      <c r="AGH21" s="0"/>
-      <c r="AGI21" s="0"/>
-      <c r="AGJ21" s="0"/>
-      <c r="AGK21" s="0"/>
-      <c r="AGL21" s="0"/>
-      <c r="AGM21" s="0"/>
-      <c r="AGN21" s="0"/>
-      <c r="AGO21" s="0"/>
-      <c r="AGP21" s="0"/>
-      <c r="AGQ21" s="0"/>
-      <c r="AGR21" s="0"/>
-      <c r="AGS21" s="0"/>
-      <c r="AGT21" s="0"/>
-      <c r="AGU21" s="0"/>
-      <c r="AGV21" s="0"/>
-      <c r="AGW21" s="0"/>
-      <c r="AGX21" s="0"/>
-      <c r="AGY21" s="0"/>
-      <c r="AGZ21" s="0"/>
-      <c r="AHA21" s="0"/>
-      <c r="AHB21" s="0"/>
-      <c r="AHC21" s="0"/>
-      <c r="AHD21" s="0"/>
-      <c r="AHE21" s="0"/>
-      <c r="AHF21" s="0"/>
-      <c r="AHG21" s="0"/>
-      <c r="AHH21" s="0"/>
-      <c r="AHI21" s="0"/>
-      <c r="AHJ21" s="0"/>
-      <c r="AHK21" s="0"/>
-      <c r="AHL21" s="0"/>
-      <c r="AHM21" s="0"/>
-      <c r="AHN21" s="0"/>
-      <c r="AHO21" s="0"/>
-      <c r="AHP21" s="0"/>
-      <c r="AHQ21" s="0"/>
-      <c r="AHR21" s="0"/>
-      <c r="AHS21" s="0"/>
-      <c r="AHT21" s="0"/>
-      <c r="AHU21" s="0"/>
-      <c r="AHV21" s="0"/>
-      <c r="AHW21" s="0"/>
-      <c r="AHX21" s="0"/>
-      <c r="AHY21" s="0"/>
-      <c r="AHZ21" s="0"/>
-      <c r="AIA21" s="0"/>
-      <c r="AIB21" s="0"/>
-      <c r="AIC21" s="0"/>
-      <c r="AID21" s="0"/>
-      <c r="AIE21" s="0"/>
-      <c r="AIF21" s="0"/>
-      <c r="AIG21" s="0"/>
-      <c r="AIH21" s="0"/>
-      <c r="AII21" s="0"/>
-      <c r="AIJ21" s="0"/>
-      <c r="AIK21" s="0"/>
-      <c r="AIL21" s="0"/>
-      <c r="AIM21" s="0"/>
-      <c r="AIN21" s="0"/>
-      <c r="AIO21" s="0"/>
-      <c r="AIP21" s="0"/>
-      <c r="AIQ21" s="0"/>
-      <c r="AIR21" s="0"/>
-      <c r="AIS21" s="0"/>
-      <c r="AIT21" s="0"/>
-      <c r="AIU21" s="0"/>
-      <c r="AIV21" s="0"/>
-      <c r="AIW21" s="0"/>
-      <c r="AIX21" s="0"/>
-      <c r="AIY21" s="0"/>
-      <c r="AIZ21" s="0"/>
-      <c r="AJA21" s="0"/>
-      <c r="AJB21" s="0"/>
-      <c r="AJC21" s="0"/>
-      <c r="AJD21" s="0"/>
-      <c r="AJE21" s="0"/>
-      <c r="AJF21" s="0"/>
-      <c r="AJG21" s="0"/>
-      <c r="AJH21" s="0"/>
-      <c r="AJI21" s="0"/>
-      <c r="AJJ21" s="0"/>
-      <c r="AJK21" s="0"/>
-      <c r="AJL21" s="0"/>
-      <c r="AJM21" s="0"/>
-      <c r="AJN21" s="0"/>
-      <c r="AJO21" s="0"/>
-      <c r="AJP21" s="0"/>
-      <c r="AJQ21" s="0"/>
-      <c r="AJR21" s="0"/>
-      <c r="AJS21" s="0"/>
-      <c r="AJT21" s="0"/>
-      <c r="AJU21" s="0"/>
-      <c r="AJV21" s="0"/>
-      <c r="AJW21" s="0"/>
-      <c r="AJX21" s="0"/>
-      <c r="AJY21" s="0"/>
-      <c r="AJZ21" s="0"/>
-      <c r="AKA21" s="0"/>
-      <c r="AKB21" s="0"/>
-      <c r="AKC21" s="0"/>
-      <c r="AKD21" s="0"/>
-      <c r="AKE21" s="0"/>
-      <c r="AKF21" s="0"/>
-      <c r="AKG21" s="0"/>
-      <c r="AKH21" s="0"/>
-      <c r="AKI21" s="0"/>
-      <c r="AKJ21" s="0"/>
-      <c r="AKK21" s="0"/>
-      <c r="AKL21" s="0"/>
-      <c r="AKM21" s="0"/>
-      <c r="AKN21" s="0"/>
-      <c r="AKO21" s="0"/>
-      <c r="AKP21" s="0"/>
-      <c r="AKQ21" s="0"/>
-      <c r="AKR21" s="0"/>
-      <c r="AKS21" s="0"/>
-      <c r="AKT21" s="0"/>
-      <c r="AKU21" s="0"/>
-      <c r="AKV21" s="0"/>
-      <c r="AKW21" s="0"/>
-      <c r="AKX21" s="0"/>
-      <c r="AKY21" s="0"/>
-      <c r="AKZ21" s="0"/>
-      <c r="ALA21" s="0"/>
-      <c r="ALB21" s="0"/>
-      <c r="ALC21" s="0"/>
-      <c r="ALD21" s="0"/>
-      <c r="ALE21" s="0"/>
-      <c r="ALF21" s="0"/>
-      <c r="ALG21" s="0"/>
-      <c r="ALH21" s="0"/>
-      <c r="ALI21" s="0"/>
-      <c r="ALJ21" s="0"/>
-      <c r="ALK21" s="0"/>
-      <c r="ALL21" s="0"/>
-      <c r="ALM21" s="0"/>
-      <c r="ALN21" s="0"/>
-      <c r="ALO21" s="0"/>
-      <c r="ALP21" s="0"/>
-      <c r="ALQ21" s="0"/>
-      <c r="ALR21" s="0"/>
-      <c r="ALS21" s="0"/>
-      <c r="ALT21" s="0"/>
-      <c r="ALU21" s="0"/>
-      <c r="ALV21" s="0"/>
-      <c r="ALW21" s="0"/>
-      <c r="ALX21" s="0"/>
-      <c r="ALY21" s="0"/>
-      <c r="ALZ21" s="0"/>
-      <c r="AMA21" s="0"/>
-      <c r="AMB21" s="0"/>
-      <c r="AMC21" s="0"/>
-      <c r="AMD21" s="0"/>
-      <c r="AME21" s="0"/>
-      <c r="AMF21" s="0"/>
-      <c r="AMG21" s="0"/>
-      <c r="AMH21" s="0"/>
-      <c r="AMI21" s="0"/>
-      <c r="AMJ21" s="0"/>
-    </row>
     <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="0"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -23272,12 +22278,11 @@
     <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="0"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -24298,12 +23303,11 @@
     <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="0"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
@@ -25324,12 +24328,11 @@
     <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="0"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -26350,12 +25353,11 @@
     <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="0"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
@@ -27376,12 +26378,11 @@
     <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="0"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
@@ -28402,12 +27403,11 @@
     <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="0"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
@@ -29428,12 +28428,11 @@
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="0"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
@@ -30454,12 +29453,11 @@
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="11"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="0"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
@@ -31480,12 +30478,11 @@
     <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="11"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="0"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
@@ -32506,12 +31503,11 @@
     <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="11"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="0"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
@@ -33532,12 +32528,11 @@
     <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="11"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="0"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
@@ -34558,12 +33553,11 @@
     <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="11"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="0"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
@@ -35584,12 +34578,11 @@
     <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="11"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="0"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -36610,12 +35603,11 @@
     <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="0"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
@@ -37636,12 +36628,11 @@
     <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="11"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="0"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
@@ -38662,12 +37653,11 @@
     <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="11"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="0"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -39688,12 +38678,11 @@
     <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="11"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="0"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -40714,12 +39703,11 @@
     <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="11"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="0"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -41740,12 +40728,11 @@
     <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="11"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="0"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
@@ -42766,12 +41753,11 @@
     <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="11"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="0"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
@@ -43792,12 +42778,11 @@
     <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="11"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="0"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
@@ -44818,12 +43803,11 @@
     <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="11"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="0"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -45841,13 +44825,5155 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
+    <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="0"/>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0"/>
+      <c r="X45" s="0"/>
+      <c r="Y45" s="0"/>
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0"/>
+      <c r="AB45" s="0"/>
+      <c r="AC45" s="0"/>
+      <c r="AD45" s="0"/>
+      <c r="AE45" s="0"/>
+      <c r="AF45" s="0"/>
+      <c r="AG45" s="0"/>
+      <c r="AH45" s="0"/>
+      <c r="AI45" s="0"/>
+      <c r="AJ45" s="0"/>
+      <c r="AK45" s="0"/>
+      <c r="AL45" s="0"/>
+      <c r="AM45" s="0"/>
+      <c r="AN45" s="0"/>
+      <c r="AO45" s="0"/>
+      <c r="AP45" s="0"/>
+      <c r="AQ45" s="0"/>
+      <c r="AR45" s="0"/>
+      <c r="AS45" s="0"/>
+      <c r="AT45" s="0"/>
+      <c r="AU45" s="0"/>
+      <c r="AV45" s="0"/>
+      <c r="AW45" s="0"/>
+      <c r="AX45" s="0"/>
+      <c r="AY45" s="0"/>
+      <c r="AZ45" s="0"/>
+      <c r="BA45" s="0"/>
+      <c r="BB45" s="0"/>
+      <c r="BC45" s="0"/>
+      <c r="BD45" s="0"/>
+      <c r="BE45" s="0"/>
+      <c r="BF45" s="0"/>
+      <c r="BG45" s="0"/>
+      <c r="BH45" s="0"/>
+      <c r="BI45" s="0"/>
+      <c r="BJ45" s="0"/>
+      <c r="BK45" s="0"/>
+      <c r="BL45" s="0"/>
+      <c r="BM45" s="0"/>
+      <c r="BN45" s="0"/>
+      <c r="BO45" s="0"/>
+      <c r="BP45" s="0"/>
+      <c r="BQ45" s="0"/>
+      <c r="BR45" s="0"/>
+      <c r="BS45" s="0"/>
+      <c r="BT45" s="0"/>
+      <c r="BU45" s="0"/>
+      <c r="BV45" s="0"/>
+      <c r="BW45" s="0"/>
+      <c r="BX45" s="0"/>
+      <c r="BY45" s="0"/>
+      <c r="BZ45" s="0"/>
+      <c r="CA45" s="0"/>
+      <c r="CB45" s="0"/>
+      <c r="CC45" s="0"/>
+      <c r="CD45" s="0"/>
+      <c r="CE45" s="0"/>
+      <c r="CF45" s="0"/>
+      <c r="CG45" s="0"/>
+      <c r="CH45" s="0"/>
+      <c r="CI45" s="0"/>
+      <c r="CJ45" s="0"/>
+      <c r="CK45" s="0"/>
+      <c r="CL45" s="0"/>
+      <c r="CM45" s="0"/>
+      <c r="CN45" s="0"/>
+      <c r="CO45" s="0"/>
+      <c r="CP45" s="0"/>
+      <c r="CQ45" s="0"/>
+      <c r="CR45" s="0"/>
+      <c r="CS45" s="0"/>
+      <c r="CT45" s="0"/>
+      <c r="CU45" s="0"/>
+      <c r="CV45" s="0"/>
+      <c r="CW45" s="0"/>
+      <c r="CX45" s="0"/>
+      <c r="CY45" s="0"/>
+      <c r="CZ45" s="0"/>
+      <c r="DA45" s="0"/>
+      <c r="DB45" s="0"/>
+      <c r="DC45" s="0"/>
+      <c r="DD45" s="0"/>
+      <c r="DE45" s="0"/>
+      <c r="DF45" s="0"/>
+      <c r="DG45" s="0"/>
+      <c r="DH45" s="0"/>
+      <c r="DI45" s="0"/>
+      <c r="DJ45" s="0"/>
+      <c r="DK45" s="0"/>
+      <c r="DL45" s="0"/>
+      <c r="DM45" s="0"/>
+      <c r="DN45" s="0"/>
+      <c r="DO45" s="0"/>
+      <c r="DP45" s="0"/>
+      <c r="DQ45" s="0"/>
+      <c r="DR45" s="0"/>
+      <c r="DS45" s="0"/>
+      <c r="DT45" s="0"/>
+      <c r="DU45" s="0"/>
+      <c r="DV45" s="0"/>
+      <c r="DW45" s="0"/>
+      <c r="DX45" s="0"/>
+      <c r="DY45" s="0"/>
+      <c r="DZ45" s="0"/>
+      <c r="EA45" s="0"/>
+      <c r="EB45" s="0"/>
+      <c r="EC45" s="0"/>
+      <c r="ED45" s="0"/>
+      <c r="EE45" s="0"/>
+      <c r="EF45" s="0"/>
+      <c r="EG45" s="0"/>
+      <c r="EH45" s="0"/>
+      <c r="EI45" s="0"/>
+      <c r="EJ45" s="0"/>
+      <c r="EK45" s="0"/>
+      <c r="EL45" s="0"/>
+      <c r="EM45" s="0"/>
+      <c r="EN45" s="0"/>
+      <c r="EO45" s="0"/>
+      <c r="EP45" s="0"/>
+      <c r="EQ45" s="0"/>
+      <c r="ER45" s="0"/>
+      <c r="ES45" s="0"/>
+      <c r="ET45" s="0"/>
+      <c r="EU45" s="0"/>
+      <c r="EV45" s="0"/>
+      <c r="EW45" s="0"/>
+      <c r="EX45" s="0"/>
+      <c r="EY45" s="0"/>
+      <c r="EZ45" s="0"/>
+      <c r="FA45" s="0"/>
+      <c r="FB45" s="0"/>
+      <c r="FC45" s="0"/>
+      <c r="FD45" s="0"/>
+      <c r="FE45" s="0"/>
+      <c r="FF45" s="0"/>
+      <c r="FG45" s="0"/>
+      <c r="FH45" s="0"/>
+      <c r="FI45" s="0"/>
+      <c r="FJ45" s="0"/>
+      <c r="FK45" s="0"/>
+      <c r="FL45" s="0"/>
+      <c r="FM45" s="0"/>
+      <c r="FN45" s="0"/>
+      <c r="FO45" s="0"/>
+      <c r="FP45" s="0"/>
+      <c r="FQ45" s="0"/>
+      <c r="FR45" s="0"/>
+      <c r="FS45" s="0"/>
+      <c r="FT45" s="0"/>
+      <c r="FU45" s="0"/>
+      <c r="FV45" s="0"/>
+      <c r="FW45" s="0"/>
+      <c r="FX45" s="0"/>
+      <c r="FY45" s="0"/>
+      <c r="FZ45" s="0"/>
+      <c r="GA45" s="0"/>
+      <c r="GB45" s="0"/>
+      <c r="GC45" s="0"/>
+      <c r="GD45" s="0"/>
+      <c r="GE45" s="0"/>
+      <c r="GF45" s="0"/>
+      <c r="GG45" s="0"/>
+      <c r="GH45" s="0"/>
+      <c r="GI45" s="0"/>
+      <c r="GJ45" s="0"/>
+      <c r="GK45" s="0"/>
+      <c r="GL45" s="0"/>
+      <c r="GM45" s="0"/>
+      <c r="GN45" s="0"/>
+      <c r="GO45" s="0"/>
+      <c r="GP45" s="0"/>
+      <c r="GQ45" s="0"/>
+      <c r="GR45" s="0"/>
+      <c r="GS45" s="0"/>
+      <c r="GT45" s="0"/>
+      <c r="GU45" s="0"/>
+      <c r="GV45" s="0"/>
+      <c r="GW45" s="0"/>
+      <c r="GX45" s="0"/>
+      <c r="GY45" s="0"/>
+      <c r="GZ45" s="0"/>
+      <c r="HA45" s="0"/>
+      <c r="HB45" s="0"/>
+      <c r="HC45" s="0"/>
+      <c r="HD45" s="0"/>
+      <c r="HE45" s="0"/>
+      <c r="HF45" s="0"/>
+      <c r="HG45" s="0"/>
+      <c r="HH45" s="0"/>
+      <c r="HI45" s="0"/>
+      <c r="HJ45" s="0"/>
+      <c r="HK45" s="0"/>
+      <c r="HL45" s="0"/>
+      <c r="HM45" s="0"/>
+      <c r="HN45" s="0"/>
+      <c r="HO45" s="0"/>
+      <c r="HP45" s="0"/>
+      <c r="HQ45" s="0"/>
+      <c r="HR45" s="0"/>
+      <c r="HS45" s="0"/>
+      <c r="HT45" s="0"/>
+      <c r="HU45" s="0"/>
+      <c r="HV45" s="0"/>
+      <c r="HW45" s="0"/>
+      <c r="HX45" s="0"/>
+      <c r="HY45" s="0"/>
+      <c r="HZ45" s="0"/>
+      <c r="IA45" s="0"/>
+      <c r="IB45" s="0"/>
+      <c r="IC45" s="0"/>
+      <c r="ID45" s="0"/>
+      <c r="IE45" s="0"/>
+      <c r="IF45" s="0"/>
+      <c r="IG45" s="0"/>
+      <c r="IH45" s="0"/>
+      <c r="II45" s="0"/>
+      <c r="IJ45" s="0"/>
+      <c r="IK45" s="0"/>
+      <c r="IL45" s="0"/>
+      <c r="IM45" s="0"/>
+      <c r="IN45" s="0"/>
+      <c r="IO45" s="0"/>
+      <c r="IP45" s="0"/>
+      <c r="IQ45" s="0"/>
+      <c r="IR45" s="0"/>
+      <c r="IS45" s="0"/>
+      <c r="IT45" s="0"/>
+      <c r="IU45" s="0"/>
+      <c r="IV45" s="0"/>
+      <c r="IW45" s="0"/>
+      <c r="IX45" s="0"/>
+      <c r="IY45" s="0"/>
+      <c r="IZ45" s="0"/>
+      <c r="JA45" s="0"/>
+      <c r="JB45" s="0"/>
+      <c r="JC45" s="0"/>
+      <c r="JD45" s="0"/>
+      <c r="JE45" s="0"/>
+      <c r="JF45" s="0"/>
+      <c r="JG45" s="0"/>
+      <c r="JH45" s="0"/>
+      <c r="JI45" s="0"/>
+      <c r="JJ45" s="0"/>
+      <c r="JK45" s="0"/>
+      <c r="JL45" s="0"/>
+      <c r="JM45" s="0"/>
+      <c r="JN45" s="0"/>
+      <c r="JO45" s="0"/>
+      <c r="JP45" s="0"/>
+      <c r="JQ45" s="0"/>
+      <c r="JR45" s="0"/>
+      <c r="JS45" s="0"/>
+      <c r="JT45" s="0"/>
+      <c r="JU45" s="0"/>
+      <c r="JV45" s="0"/>
+      <c r="JW45" s="0"/>
+      <c r="JX45" s="0"/>
+      <c r="JY45" s="0"/>
+      <c r="JZ45" s="0"/>
+      <c r="KA45" s="0"/>
+      <c r="KB45" s="0"/>
+      <c r="KC45" s="0"/>
+      <c r="KD45" s="0"/>
+      <c r="KE45" s="0"/>
+      <c r="KF45" s="0"/>
+      <c r="KG45" s="0"/>
+      <c r="KH45" s="0"/>
+      <c r="KI45" s="0"/>
+      <c r="KJ45" s="0"/>
+      <c r="KK45" s="0"/>
+      <c r="KL45" s="0"/>
+      <c r="KM45" s="0"/>
+      <c r="KN45" s="0"/>
+      <c r="KO45" s="0"/>
+      <c r="KP45" s="0"/>
+      <c r="KQ45" s="0"/>
+      <c r="KR45" s="0"/>
+      <c r="KS45" s="0"/>
+      <c r="KT45" s="0"/>
+      <c r="KU45" s="0"/>
+      <c r="KV45" s="0"/>
+      <c r="KW45" s="0"/>
+      <c r="KX45" s="0"/>
+      <c r="KY45" s="0"/>
+      <c r="KZ45" s="0"/>
+      <c r="LA45" s="0"/>
+      <c r="LB45" s="0"/>
+      <c r="LC45" s="0"/>
+      <c r="LD45" s="0"/>
+      <c r="LE45" s="0"/>
+      <c r="LF45" s="0"/>
+      <c r="LG45" s="0"/>
+      <c r="LH45" s="0"/>
+      <c r="LI45" s="0"/>
+      <c r="LJ45" s="0"/>
+      <c r="LK45" s="0"/>
+      <c r="LL45" s="0"/>
+      <c r="LM45" s="0"/>
+      <c r="LN45" s="0"/>
+      <c r="LO45" s="0"/>
+      <c r="LP45" s="0"/>
+      <c r="LQ45" s="0"/>
+      <c r="LR45" s="0"/>
+      <c r="LS45" s="0"/>
+      <c r="LT45" s="0"/>
+      <c r="LU45" s="0"/>
+      <c r="LV45" s="0"/>
+      <c r="LW45" s="0"/>
+      <c r="LX45" s="0"/>
+      <c r="LY45" s="0"/>
+      <c r="LZ45" s="0"/>
+      <c r="MA45" s="0"/>
+      <c r="MB45" s="0"/>
+      <c r="MC45" s="0"/>
+      <c r="MD45" s="0"/>
+      <c r="ME45" s="0"/>
+      <c r="MF45" s="0"/>
+      <c r="MG45" s="0"/>
+      <c r="MH45" s="0"/>
+      <c r="MI45" s="0"/>
+      <c r="MJ45" s="0"/>
+      <c r="MK45" s="0"/>
+      <c r="ML45" s="0"/>
+      <c r="MM45" s="0"/>
+      <c r="MN45" s="0"/>
+      <c r="MO45" s="0"/>
+      <c r="MP45" s="0"/>
+      <c r="MQ45" s="0"/>
+      <c r="MR45" s="0"/>
+      <c r="MS45" s="0"/>
+      <c r="MT45" s="0"/>
+      <c r="MU45" s="0"/>
+      <c r="MV45" s="0"/>
+      <c r="MW45" s="0"/>
+      <c r="MX45" s="0"/>
+      <c r="MY45" s="0"/>
+      <c r="MZ45" s="0"/>
+      <c r="NA45" s="0"/>
+      <c r="NB45" s="0"/>
+      <c r="NC45" s="0"/>
+      <c r="ND45" s="0"/>
+      <c r="NE45" s="0"/>
+      <c r="NF45" s="0"/>
+      <c r="NG45" s="0"/>
+      <c r="NH45" s="0"/>
+      <c r="NI45" s="0"/>
+      <c r="NJ45" s="0"/>
+      <c r="NK45" s="0"/>
+      <c r="NL45" s="0"/>
+      <c r="NM45" s="0"/>
+      <c r="NN45" s="0"/>
+      <c r="NO45" s="0"/>
+      <c r="NP45" s="0"/>
+      <c r="NQ45" s="0"/>
+      <c r="NR45" s="0"/>
+      <c r="NS45" s="0"/>
+      <c r="NT45" s="0"/>
+      <c r="NU45" s="0"/>
+      <c r="NV45" s="0"/>
+      <c r="NW45" s="0"/>
+      <c r="NX45" s="0"/>
+      <c r="NY45" s="0"/>
+      <c r="NZ45" s="0"/>
+      <c r="OA45" s="0"/>
+      <c r="OB45" s="0"/>
+      <c r="OC45" s="0"/>
+      <c r="OD45" s="0"/>
+      <c r="OE45" s="0"/>
+      <c r="OF45" s="0"/>
+      <c r="OG45" s="0"/>
+      <c r="OH45" s="0"/>
+      <c r="OI45" s="0"/>
+      <c r="OJ45" s="0"/>
+      <c r="OK45" s="0"/>
+      <c r="OL45" s="0"/>
+      <c r="OM45" s="0"/>
+      <c r="ON45" s="0"/>
+      <c r="OO45" s="0"/>
+      <c r="OP45" s="0"/>
+      <c r="OQ45" s="0"/>
+      <c r="OR45" s="0"/>
+      <c r="OS45" s="0"/>
+      <c r="OT45" s="0"/>
+      <c r="OU45" s="0"/>
+      <c r="OV45" s="0"/>
+      <c r="OW45" s="0"/>
+      <c r="OX45" s="0"/>
+      <c r="OY45" s="0"/>
+      <c r="OZ45" s="0"/>
+      <c r="PA45" s="0"/>
+      <c r="PB45" s="0"/>
+      <c r="PC45" s="0"/>
+      <c r="PD45" s="0"/>
+      <c r="PE45" s="0"/>
+      <c r="PF45" s="0"/>
+      <c r="PG45" s="0"/>
+      <c r="PH45" s="0"/>
+      <c r="PI45" s="0"/>
+      <c r="PJ45" s="0"/>
+      <c r="PK45" s="0"/>
+      <c r="PL45" s="0"/>
+      <c r="PM45" s="0"/>
+      <c r="PN45" s="0"/>
+      <c r="PO45" s="0"/>
+      <c r="PP45" s="0"/>
+      <c r="PQ45" s="0"/>
+      <c r="PR45" s="0"/>
+      <c r="PS45" s="0"/>
+      <c r="PT45" s="0"/>
+      <c r="PU45" s="0"/>
+      <c r="PV45" s="0"/>
+      <c r="PW45" s="0"/>
+      <c r="PX45" s="0"/>
+      <c r="PY45" s="0"/>
+      <c r="PZ45" s="0"/>
+      <c r="QA45" s="0"/>
+      <c r="QB45" s="0"/>
+      <c r="QC45" s="0"/>
+      <c r="QD45" s="0"/>
+      <c r="QE45" s="0"/>
+      <c r="QF45" s="0"/>
+      <c r="QG45" s="0"/>
+      <c r="QH45" s="0"/>
+      <c r="QI45" s="0"/>
+      <c r="QJ45" s="0"/>
+      <c r="QK45" s="0"/>
+      <c r="QL45" s="0"/>
+      <c r="QM45" s="0"/>
+      <c r="QN45" s="0"/>
+      <c r="QO45" s="0"/>
+      <c r="QP45" s="0"/>
+      <c r="QQ45" s="0"/>
+      <c r="QR45" s="0"/>
+      <c r="QS45" s="0"/>
+      <c r="QT45" s="0"/>
+      <c r="QU45" s="0"/>
+      <c r="QV45" s="0"/>
+      <c r="QW45" s="0"/>
+      <c r="QX45" s="0"/>
+      <c r="QY45" s="0"/>
+      <c r="QZ45" s="0"/>
+      <c r="RA45" s="0"/>
+      <c r="RB45" s="0"/>
+      <c r="RC45" s="0"/>
+      <c r="RD45" s="0"/>
+      <c r="RE45" s="0"/>
+      <c r="RF45" s="0"/>
+      <c r="RG45" s="0"/>
+      <c r="RH45" s="0"/>
+      <c r="RI45" s="0"/>
+      <c r="RJ45" s="0"/>
+      <c r="RK45" s="0"/>
+      <c r="RL45" s="0"/>
+      <c r="RM45" s="0"/>
+      <c r="RN45" s="0"/>
+      <c r="RO45" s="0"/>
+      <c r="RP45" s="0"/>
+      <c r="RQ45" s="0"/>
+      <c r="RR45" s="0"/>
+      <c r="RS45" s="0"/>
+      <c r="RT45" s="0"/>
+      <c r="RU45" s="0"/>
+      <c r="RV45" s="0"/>
+      <c r="RW45" s="0"/>
+      <c r="RX45" s="0"/>
+      <c r="RY45" s="0"/>
+      <c r="RZ45" s="0"/>
+      <c r="SA45" s="0"/>
+      <c r="SB45" s="0"/>
+      <c r="SC45" s="0"/>
+      <c r="SD45" s="0"/>
+      <c r="SE45" s="0"/>
+      <c r="SF45" s="0"/>
+      <c r="SG45" s="0"/>
+      <c r="SH45" s="0"/>
+      <c r="SI45" s="0"/>
+      <c r="SJ45" s="0"/>
+      <c r="SK45" s="0"/>
+      <c r="SL45" s="0"/>
+      <c r="SM45" s="0"/>
+      <c r="SN45" s="0"/>
+      <c r="SO45" s="0"/>
+      <c r="SP45" s="0"/>
+      <c r="SQ45" s="0"/>
+      <c r="SR45" s="0"/>
+      <c r="SS45" s="0"/>
+      <c r="ST45" s="0"/>
+      <c r="SU45" s="0"/>
+      <c r="SV45" s="0"/>
+      <c r="SW45" s="0"/>
+      <c r="SX45" s="0"/>
+      <c r="SY45" s="0"/>
+      <c r="SZ45" s="0"/>
+      <c r="TA45" s="0"/>
+      <c r="TB45" s="0"/>
+      <c r="TC45" s="0"/>
+      <c r="TD45" s="0"/>
+      <c r="TE45" s="0"/>
+      <c r="TF45" s="0"/>
+      <c r="TG45" s="0"/>
+      <c r="TH45" s="0"/>
+      <c r="TI45" s="0"/>
+      <c r="TJ45" s="0"/>
+      <c r="TK45" s="0"/>
+      <c r="TL45" s="0"/>
+      <c r="TM45" s="0"/>
+      <c r="TN45" s="0"/>
+      <c r="TO45" s="0"/>
+      <c r="TP45" s="0"/>
+      <c r="TQ45" s="0"/>
+      <c r="TR45" s="0"/>
+      <c r="TS45" s="0"/>
+      <c r="TT45" s="0"/>
+      <c r="TU45" s="0"/>
+      <c r="TV45" s="0"/>
+      <c r="TW45" s="0"/>
+      <c r="TX45" s="0"/>
+      <c r="TY45" s="0"/>
+      <c r="TZ45" s="0"/>
+      <c r="UA45" s="0"/>
+      <c r="UB45" s="0"/>
+      <c r="UC45" s="0"/>
+      <c r="UD45" s="0"/>
+      <c r="UE45" s="0"/>
+      <c r="UF45" s="0"/>
+      <c r="UG45" s="0"/>
+      <c r="UH45" s="0"/>
+      <c r="UI45" s="0"/>
+      <c r="UJ45" s="0"/>
+      <c r="UK45" s="0"/>
+      <c r="UL45" s="0"/>
+      <c r="UM45" s="0"/>
+      <c r="UN45" s="0"/>
+      <c r="UO45" s="0"/>
+      <c r="UP45" s="0"/>
+      <c r="UQ45" s="0"/>
+      <c r="UR45" s="0"/>
+      <c r="US45" s="0"/>
+      <c r="UT45" s="0"/>
+      <c r="UU45" s="0"/>
+      <c r="UV45" s="0"/>
+      <c r="UW45" s="0"/>
+      <c r="UX45" s="0"/>
+      <c r="UY45" s="0"/>
+      <c r="UZ45" s="0"/>
+      <c r="VA45" s="0"/>
+      <c r="VB45" s="0"/>
+      <c r="VC45" s="0"/>
+      <c r="VD45" s="0"/>
+      <c r="VE45" s="0"/>
+      <c r="VF45" s="0"/>
+      <c r="VG45" s="0"/>
+      <c r="VH45" s="0"/>
+      <c r="VI45" s="0"/>
+      <c r="VJ45" s="0"/>
+      <c r="VK45" s="0"/>
+      <c r="VL45" s="0"/>
+      <c r="VM45" s="0"/>
+      <c r="VN45" s="0"/>
+      <c r="VO45" s="0"/>
+      <c r="VP45" s="0"/>
+      <c r="VQ45" s="0"/>
+      <c r="VR45" s="0"/>
+      <c r="VS45" s="0"/>
+      <c r="VT45" s="0"/>
+      <c r="VU45" s="0"/>
+      <c r="VV45" s="0"/>
+      <c r="VW45" s="0"/>
+      <c r="VX45" s="0"/>
+      <c r="VY45" s="0"/>
+      <c r="VZ45" s="0"/>
+      <c r="WA45" s="0"/>
+      <c r="WB45" s="0"/>
+      <c r="WC45" s="0"/>
+      <c r="WD45" s="0"/>
+      <c r="WE45" s="0"/>
+      <c r="WF45" s="0"/>
+      <c r="WG45" s="0"/>
+      <c r="WH45" s="0"/>
+      <c r="WI45" s="0"/>
+      <c r="WJ45" s="0"/>
+      <c r="WK45" s="0"/>
+      <c r="WL45" s="0"/>
+      <c r="WM45" s="0"/>
+      <c r="WN45" s="0"/>
+      <c r="WO45" s="0"/>
+      <c r="WP45" s="0"/>
+      <c r="WQ45" s="0"/>
+      <c r="WR45" s="0"/>
+      <c r="WS45" s="0"/>
+      <c r="WT45" s="0"/>
+      <c r="WU45" s="0"/>
+      <c r="WV45" s="0"/>
+      <c r="WW45" s="0"/>
+      <c r="WX45" s="0"/>
+      <c r="WY45" s="0"/>
+      <c r="WZ45" s="0"/>
+      <c r="XA45" s="0"/>
+      <c r="XB45" s="0"/>
+      <c r="XC45" s="0"/>
+      <c r="XD45" s="0"/>
+      <c r="XE45" s="0"/>
+      <c r="XF45" s="0"/>
+      <c r="XG45" s="0"/>
+      <c r="XH45" s="0"/>
+      <c r="XI45" s="0"/>
+      <c r="XJ45" s="0"/>
+      <c r="XK45" s="0"/>
+      <c r="XL45" s="0"/>
+      <c r="XM45" s="0"/>
+      <c r="XN45" s="0"/>
+      <c r="XO45" s="0"/>
+      <c r="XP45" s="0"/>
+      <c r="XQ45" s="0"/>
+      <c r="XR45" s="0"/>
+      <c r="XS45" s="0"/>
+      <c r="XT45" s="0"/>
+      <c r="XU45" s="0"/>
+      <c r="XV45" s="0"/>
+      <c r="XW45" s="0"/>
+      <c r="XX45" s="0"/>
+      <c r="XY45" s="0"/>
+      <c r="XZ45" s="0"/>
+      <c r="YA45" s="0"/>
+      <c r="YB45" s="0"/>
+      <c r="YC45" s="0"/>
+      <c r="YD45" s="0"/>
+      <c r="YE45" s="0"/>
+      <c r="YF45" s="0"/>
+      <c r="YG45" s="0"/>
+      <c r="YH45" s="0"/>
+      <c r="YI45" s="0"/>
+      <c r="YJ45" s="0"/>
+      <c r="YK45" s="0"/>
+      <c r="YL45" s="0"/>
+      <c r="YM45" s="0"/>
+      <c r="YN45" s="0"/>
+      <c r="YO45" s="0"/>
+      <c r="YP45" s="0"/>
+      <c r="YQ45" s="0"/>
+      <c r="YR45" s="0"/>
+      <c r="YS45" s="0"/>
+      <c r="YT45" s="0"/>
+      <c r="YU45" s="0"/>
+      <c r="YV45" s="0"/>
+      <c r="YW45" s="0"/>
+      <c r="YX45" s="0"/>
+      <c r="YY45" s="0"/>
+      <c r="YZ45" s="0"/>
+      <c r="ZA45" s="0"/>
+      <c r="ZB45" s="0"/>
+      <c r="ZC45" s="0"/>
+      <c r="ZD45" s="0"/>
+      <c r="ZE45" s="0"/>
+      <c r="ZF45" s="0"/>
+      <c r="ZG45" s="0"/>
+      <c r="ZH45" s="0"/>
+      <c r="ZI45" s="0"/>
+      <c r="ZJ45" s="0"/>
+      <c r="ZK45" s="0"/>
+      <c r="ZL45" s="0"/>
+      <c r="ZM45" s="0"/>
+      <c r="ZN45" s="0"/>
+      <c r="ZO45" s="0"/>
+      <c r="ZP45" s="0"/>
+      <c r="ZQ45" s="0"/>
+      <c r="ZR45" s="0"/>
+      <c r="ZS45" s="0"/>
+      <c r="ZT45" s="0"/>
+      <c r="ZU45" s="0"/>
+      <c r="ZV45" s="0"/>
+      <c r="ZW45" s="0"/>
+      <c r="ZX45" s="0"/>
+      <c r="ZY45" s="0"/>
+      <c r="ZZ45" s="0"/>
+      <c r="AAA45" s="0"/>
+      <c r="AAB45" s="0"/>
+      <c r="AAC45" s="0"/>
+      <c r="AAD45" s="0"/>
+      <c r="AAE45" s="0"/>
+      <c r="AAF45" s="0"/>
+      <c r="AAG45" s="0"/>
+      <c r="AAH45" s="0"/>
+      <c r="AAI45" s="0"/>
+      <c r="AAJ45" s="0"/>
+      <c r="AAK45" s="0"/>
+      <c r="AAL45" s="0"/>
+      <c r="AAM45" s="0"/>
+      <c r="AAN45" s="0"/>
+      <c r="AAO45" s="0"/>
+      <c r="AAP45" s="0"/>
+      <c r="AAQ45" s="0"/>
+      <c r="AAR45" s="0"/>
+      <c r="AAS45" s="0"/>
+      <c r="AAT45" s="0"/>
+      <c r="AAU45" s="0"/>
+      <c r="AAV45" s="0"/>
+      <c r="AAW45" s="0"/>
+      <c r="AAX45" s="0"/>
+      <c r="AAY45" s="0"/>
+      <c r="AAZ45" s="0"/>
+      <c r="ABA45" s="0"/>
+      <c r="ABB45" s="0"/>
+      <c r="ABC45" s="0"/>
+      <c r="ABD45" s="0"/>
+      <c r="ABE45" s="0"/>
+      <c r="ABF45" s="0"/>
+      <c r="ABG45" s="0"/>
+      <c r="ABH45" s="0"/>
+      <c r="ABI45" s="0"/>
+      <c r="ABJ45" s="0"/>
+      <c r="ABK45" s="0"/>
+      <c r="ABL45" s="0"/>
+      <c r="ABM45" s="0"/>
+      <c r="ABN45" s="0"/>
+      <c r="ABO45" s="0"/>
+      <c r="ABP45" s="0"/>
+      <c r="ABQ45" s="0"/>
+      <c r="ABR45" s="0"/>
+      <c r="ABS45" s="0"/>
+      <c r="ABT45" s="0"/>
+      <c r="ABU45" s="0"/>
+      <c r="ABV45" s="0"/>
+      <c r="ABW45" s="0"/>
+      <c r="ABX45" s="0"/>
+      <c r="ABY45" s="0"/>
+      <c r="ABZ45" s="0"/>
+      <c r="ACA45" s="0"/>
+      <c r="ACB45" s="0"/>
+      <c r="ACC45" s="0"/>
+      <c r="ACD45" s="0"/>
+      <c r="ACE45" s="0"/>
+      <c r="ACF45" s="0"/>
+      <c r="ACG45" s="0"/>
+      <c r="ACH45" s="0"/>
+      <c r="ACI45" s="0"/>
+      <c r="ACJ45" s="0"/>
+      <c r="ACK45" s="0"/>
+      <c r="ACL45" s="0"/>
+      <c r="ACM45" s="0"/>
+      <c r="ACN45" s="0"/>
+      <c r="ACO45" s="0"/>
+      <c r="ACP45" s="0"/>
+      <c r="ACQ45" s="0"/>
+      <c r="ACR45" s="0"/>
+      <c r="ACS45" s="0"/>
+      <c r="ACT45" s="0"/>
+      <c r="ACU45" s="0"/>
+      <c r="ACV45" s="0"/>
+      <c r="ACW45" s="0"/>
+      <c r="ACX45" s="0"/>
+      <c r="ACY45" s="0"/>
+      <c r="ACZ45" s="0"/>
+      <c r="ADA45" s="0"/>
+      <c r="ADB45" s="0"/>
+      <c r="ADC45" s="0"/>
+      <c r="ADD45" s="0"/>
+      <c r="ADE45" s="0"/>
+      <c r="ADF45" s="0"/>
+      <c r="ADG45" s="0"/>
+      <c r="ADH45" s="0"/>
+      <c r="ADI45" s="0"/>
+      <c r="ADJ45" s="0"/>
+      <c r="ADK45" s="0"/>
+      <c r="ADL45" s="0"/>
+      <c r="ADM45" s="0"/>
+      <c r="ADN45" s="0"/>
+      <c r="ADO45" s="0"/>
+      <c r="ADP45" s="0"/>
+      <c r="ADQ45" s="0"/>
+      <c r="ADR45" s="0"/>
+      <c r="ADS45" s="0"/>
+      <c r="ADT45" s="0"/>
+      <c r="ADU45" s="0"/>
+      <c r="ADV45" s="0"/>
+      <c r="ADW45" s="0"/>
+      <c r="ADX45" s="0"/>
+      <c r="ADY45" s="0"/>
+      <c r="ADZ45" s="0"/>
+      <c r="AEA45" s="0"/>
+      <c r="AEB45" s="0"/>
+      <c r="AEC45" s="0"/>
+      <c r="AED45" s="0"/>
+      <c r="AEE45" s="0"/>
+      <c r="AEF45" s="0"/>
+      <c r="AEG45" s="0"/>
+      <c r="AEH45" s="0"/>
+      <c r="AEI45" s="0"/>
+      <c r="AEJ45" s="0"/>
+      <c r="AEK45" s="0"/>
+      <c r="AEL45" s="0"/>
+      <c r="AEM45" s="0"/>
+      <c r="AEN45" s="0"/>
+      <c r="AEO45" s="0"/>
+      <c r="AEP45" s="0"/>
+      <c r="AEQ45" s="0"/>
+      <c r="AER45" s="0"/>
+      <c r="AES45" s="0"/>
+      <c r="AET45" s="0"/>
+      <c r="AEU45" s="0"/>
+      <c r="AEV45" s="0"/>
+      <c r="AEW45" s="0"/>
+      <c r="AEX45" s="0"/>
+      <c r="AEY45" s="0"/>
+      <c r="AEZ45" s="0"/>
+      <c r="AFA45" s="0"/>
+      <c r="AFB45" s="0"/>
+      <c r="AFC45" s="0"/>
+      <c r="AFD45" s="0"/>
+      <c r="AFE45" s="0"/>
+      <c r="AFF45" s="0"/>
+      <c r="AFG45" s="0"/>
+      <c r="AFH45" s="0"/>
+      <c r="AFI45" s="0"/>
+      <c r="AFJ45" s="0"/>
+      <c r="AFK45" s="0"/>
+      <c r="AFL45" s="0"/>
+      <c r="AFM45" s="0"/>
+      <c r="AFN45" s="0"/>
+      <c r="AFO45" s="0"/>
+      <c r="AFP45" s="0"/>
+      <c r="AFQ45" s="0"/>
+      <c r="AFR45" s="0"/>
+      <c r="AFS45" s="0"/>
+      <c r="AFT45" s="0"/>
+      <c r="AFU45" s="0"/>
+      <c r="AFV45" s="0"/>
+      <c r="AFW45" s="0"/>
+      <c r="AFX45" s="0"/>
+      <c r="AFY45" s="0"/>
+      <c r="AFZ45" s="0"/>
+      <c r="AGA45" s="0"/>
+      <c r="AGB45" s="0"/>
+      <c r="AGC45" s="0"/>
+      <c r="AGD45" s="0"/>
+      <c r="AGE45" s="0"/>
+      <c r="AGF45" s="0"/>
+      <c r="AGG45" s="0"/>
+      <c r="AGH45" s="0"/>
+      <c r="AGI45" s="0"/>
+      <c r="AGJ45" s="0"/>
+      <c r="AGK45" s="0"/>
+      <c r="AGL45" s="0"/>
+      <c r="AGM45" s="0"/>
+      <c r="AGN45" s="0"/>
+      <c r="AGO45" s="0"/>
+      <c r="AGP45" s="0"/>
+      <c r="AGQ45" s="0"/>
+      <c r="AGR45" s="0"/>
+      <c r="AGS45" s="0"/>
+      <c r="AGT45" s="0"/>
+      <c r="AGU45" s="0"/>
+      <c r="AGV45" s="0"/>
+      <c r="AGW45" s="0"/>
+      <c r="AGX45" s="0"/>
+      <c r="AGY45" s="0"/>
+      <c r="AGZ45" s="0"/>
+      <c r="AHA45" s="0"/>
+      <c r="AHB45" s="0"/>
+      <c r="AHC45" s="0"/>
+      <c r="AHD45" s="0"/>
+      <c r="AHE45" s="0"/>
+      <c r="AHF45" s="0"/>
+      <c r="AHG45" s="0"/>
+      <c r="AHH45" s="0"/>
+      <c r="AHI45" s="0"/>
+      <c r="AHJ45" s="0"/>
+      <c r="AHK45" s="0"/>
+      <c r="AHL45" s="0"/>
+      <c r="AHM45" s="0"/>
+      <c r="AHN45" s="0"/>
+      <c r="AHO45" s="0"/>
+      <c r="AHP45" s="0"/>
+      <c r="AHQ45" s="0"/>
+      <c r="AHR45" s="0"/>
+      <c r="AHS45" s="0"/>
+      <c r="AHT45" s="0"/>
+      <c r="AHU45" s="0"/>
+      <c r="AHV45" s="0"/>
+      <c r="AHW45" s="0"/>
+      <c r="AHX45" s="0"/>
+      <c r="AHY45" s="0"/>
+      <c r="AHZ45" s="0"/>
+      <c r="AIA45" s="0"/>
+      <c r="AIB45" s="0"/>
+      <c r="AIC45" s="0"/>
+      <c r="AID45" s="0"/>
+      <c r="AIE45" s="0"/>
+      <c r="AIF45" s="0"/>
+      <c r="AIG45" s="0"/>
+      <c r="AIH45" s="0"/>
+      <c r="AII45" s="0"/>
+      <c r="AIJ45" s="0"/>
+      <c r="AIK45" s="0"/>
+      <c r="AIL45" s="0"/>
+      <c r="AIM45" s="0"/>
+      <c r="AIN45" s="0"/>
+      <c r="AIO45" s="0"/>
+      <c r="AIP45" s="0"/>
+      <c r="AIQ45" s="0"/>
+      <c r="AIR45" s="0"/>
+      <c r="AIS45" s="0"/>
+      <c r="AIT45" s="0"/>
+      <c r="AIU45" s="0"/>
+      <c r="AIV45" s="0"/>
+      <c r="AIW45" s="0"/>
+      <c r="AIX45" s="0"/>
+      <c r="AIY45" s="0"/>
+      <c r="AIZ45" s="0"/>
+      <c r="AJA45" s="0"/>
+      <c r="AJB45" s="0"/>
+      <c r="AJC45" s="0"/>
+      <c r="AJD45" s="0"/>
+      <c r="AJE45" s="0"/>
+      <c r="AJF45" s="0"/>
+      <c r="AJG45" s="0"/>
+      <c r="AJH45" s="0"/>
+      <c r="AJI45" s="0"/>
+      <c r="AJJ45" s="0"/>
+      <c r="AJK45" s="0"/>
+      <c r="AJL45" s="0"/>
+      <c r="AJM45" s="0"/>
+      <c r="AJN45" s="0"/>
+      <c r="AJO45" s="0"/>
+      <c r="AJP45" s="0"/>
+      <c r="AJQ45" s="0"/>
+      <c r="AJR45" s="0"/>
+      <c r="AJS45" s="0"/>
+      <c r="AJT45" s="0"/>
+      <c r="AJU45" s="0"/>
+      <c r="AJV45" s="0"/>
+      <c r="AJW45" s="0"/>
+      <c r="AJX45" s="0"/>
+      <c r="AJY45" s="0"/>
+      <c r="AJZ45" s="0"/>
+      <c r="AKA45" s="0"/>
+      <c r="AKB45" s="0"/>
+      <c r="AKC45" s="0"/>
+      <c r="AKD45" s="0"/>
+      <c r="AKE45" s="0"/>
+      <c r="AKF45" s="0"/>
+      <c r="AKG45" s="0"/>
+      <c r="AKH45" s="0"/>
+      <c r="AKI45" s="0"/>
+      <c r="AKJ45" s="0"/>
+      <c r="AKK45" s="0"/>
+      <c r="AKL45" s="0"/>
+      <c r="AKM45" s="0"/>
+      <c r="AKN45" s="0"/>
+      <c r="AKO45" s="0"/>
+      <c r="AKP45" s="0"/>
+      <c r="AKQ45" s="0"/>
+      <c r="AKR45" s="0"/>
+      <c r="AKS45" s="0"/>
+      <c r="AKT45" s="0"/>
+      <c r="AKU45" s="0"/>
+      <c r="AKV45" s="0"/>
+      <c r="AKW45" s="0"/>
+      <c r="AKX45" s="0"/>
+      <c r="AKY45" s="0"/>
+      <c r="AKZ45" s="0"/>
+      <c r="ALA45" s="0"/>
+      <c r="ALB45" s="0"/>
+      <c r="ALC45" s="0"/>
+      <c r="ALD45" s="0"/>
+      <c r="ALE45" s="0"/>
+      <c r="ALF45" s="0"/>
+      <c r="ALG45" s="0"/>
+      <c r="ALH45" s="0"/>
+      <c r="ALI45" s="0"/>
+      <c r="ALJ45" s="0"/>
+      <c r="ALK45" s="0"/>
+      <c r="ALL45" s="0"/>
+      <c r="ALM45" s="0"/>
+      <c r="ALN45" s="0"/>
+      <c r="ALO45" s="0"/>
+      <c r="ALP45" s="0"/>
+      <c r="ALQ45" s="0"/>
+      <c r="ALR45" s="0"/>
+      <c r="ALS45" s="0"/>
+      <c r="ALT45" s="0"/>
+      <c r="ALU45" s="0"/>
+      <c r="ALV45" s="0"/>
+      <c r="ALW45" s="0"/>
+      <c r="ALX45" s="0"/>
+      <c r="ALY45" s="0"/>
+      <c r="ALZ45" s="0"/>
+      <c r="AMA45" s="0"/>
+      <c r="AMB45" s="0"/>
+      <c r="AMC45" s="0"/>
+      <c r="AMD45" s="0"/>
+      <c r="AME45" s="0"/>
+      <c r="AMF45" s="0"/>
+      <c r="AMG45" s="0"/>
+      <c r="AMH45" s="0"/>
+      <c r="AMI45" s="0"/>
+      <c r="AMJ45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="0"/>
+      <c r="N46" s="0"/>
+      <c r="O46" s="0"/>
+      <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="0"/>
+      <c r="S46" s="0"/>
+      <c r="T46" s="0"/>
+      <c r="U46" s="0"/>
+      <c r="V46" s="0"/>
+      <c r="W46" s="0"/>
+      <c r="X46" s="0"/>
+      <c r="Y46" s="0"/>
+      <c r="Z46" s="0"/>
+      <c r="AA46" s="0"/>
+      <c r="AB46" s="0"/>
+      <c r="AC46" s="0"/>
+      <c r="AD46" s="0"/>
+      <c r="AE46" s="0"/>
+      <c r="AF46" s="0"/>
+      <c r="AG46" s="0"/>
+      <c r="AH46" s="0"/>
+      <c r="AI46" s="0"/>
+      <c r="AJ46" s="0"/>
+      <c r="AK46" s="0"/>
+      <c r="AL46" s="0"/>
+      <c r="AM46" s="0"/>
+      <c r="AN46" s="0"/>
+      <c r="AO46" s="0"/>
+      <c r="AP46" s="0"/>
+      <c r="AQ46" s="0"/>
+      <c r="AR46" s="0"/>
+      <c r="AS46" s="0"/>
+      <c r="AT46" s="0"/>
+      <c r="AU46" s="0"/>
+      <c r="AV46" s="0"/>
+      <c r="AW46" s="0"/>
+      <c r="AX46" s="0"/>
+      <c r="AY46" s="0"/>
+      <c r="AZ46" s="0"/>
+      <c r="BA46" s="0"/>
+      <c r="BB46" s="0"/>
+      <c r="BC46" s="0"/>
+      <c r="BD46" s="0"/>
+      <c r="BE46" s="0"/>
+      <c r="BF46" s="0"/>
+      <c r="BG46" s="0"/>
+      <c r="BH46" s="0"/>
+      <c r="BI46" s="0"/>
+      <c r="BJ46" s="0"/>
+      <c r="BK46" s="0"/>
+      <c r="BL46" s="0"/>
+      <c r="BM46" s="0"/>
+      <c r="BN46" s="0"/>
+      <c r="BO46" s="0"/>
+      <c r="BP46" s="0"/>
+      <c r="BQ46" s="0"/>
+      <c r="BR46" s="0"/>
+      <c r="BS46" s="0"/>
+      <c r="BT46" s="0"/>
+      <c r="BU46" s="0"/>
+      <c r="BV46" s="0"/>
+      <c r="BW46" s="0"/>
+      <c r="BX46" s="0"/>
+      <c r="BY46" s="0"/>
+      <c r="BZ46" s="0"/>
+      <c r="CA46" s="0"/>
+      <c r="CB46" s="0"/>
+      <c r="CC46" s="0"/>
+      <c r="CD46" s="0"/>
+      <c r="CE46" s="0"/>
+      <c r="CF46" s="0"/>
+      <c r="CG46" s="0"/>
+      <c r="CH46" s="0"/>
+      <c r="CI46" s="0"/>
+      <c r="CJ46" s="0"/>
+      <c r="CK46" s="0"/>
+      <c r="CL46" s="0"/>
+      <c r="CM46" s="0"/>
+      <c r="CN46" s="0"/>
+      <c r="CO46" s="0"/>
+      <c r="CP46" s="0"/>
+      <c r="CQ46" s="0"/>
+      <c r="CR46" s="0"/>
+      <c r="CS46" s="0"/>
+      <c r="CT46" s="0"/>
+      <c r="CU46" s="0"/>
+      <c r="CV46" s="0"/>
+      <c r="CW46" s="0"/>
+      <c r="CX46" s="0"/>
+      <c r="CY46" s="0"/>
+      <c r="CZ46" s="0"/>
+      <c r="DA46" s="0"/>
+      <c r="DB46" s="0"/>
+      <c r="DC46" s="0"/>
+      <c r="DD46" s="0"/>
+      <c r="DE46" s="0"/>
+      <c r="DF46" s="0"/>
+      <c r="DG46" s="0"/>
+      <c r="DH46" s="0"/>
+      <c r="DI46" s="0"/>
+      <c r="DJ46" s="0"/>
+      <c r="DK46" s="0"/>
+      <c r="DL46" s="0"/>
+      <c r="DM46" s="0"/>
+      <c r="DN46" s="0"/>
+      <c r="DO46" s="0"/>
+      <c r="DP46" s="0"/>
+      <c r="DQ46" s="0"/>
+      <c r="DR46" s="0"/>
+      <c r="DS46" s="0"/>
+      <c r="DT46" s="0"/>
+      <c r="DU46" s="0"/>
+      <c r="DV46" s="0"/>
+      <c r="DW46" s="0"/>
+      <c r="DX46" s="0"/>
+      <c r="DY46" s="0"/>
+      <c r="DZ46" s="0"/>
+      <c r="EA46" s="0"/>
+      <c r="EB46" s="0"/>
+      <c r="EC46" s="0"/>
+      <c r="ED46" s="0"/>
+      <c r="EE46" s="0"/>
+      <c r="EF46" s="0"/>
+      <c r="EG46" s="0"/>
+      <c r="EH46" s="0"/>
+      <c r="EI46" s="0"/>
+      <c r="EJ46" s="0"/>
+      <c r="EK46" s="0"/>
+      <c r="EL46" s="0"/>
+      <c r="EM46" s="0"/>
+      <c r="EN46" s="0"/>
+      <c r="EO46" s="0"/>
+      <c r="EP46" s="0"/>
+      <c r="EQ46" s="0"/>
+      <c r="ER46" s="0"/>
+      <c r="ES46" s="0"/>
+      <c r="ET46" s="0"/>
+      <c r="EU46" s="0"/>
+      <c r="EV46" s="0"/>
+      <c r="EW46" s="0"/>
+      <c r="EX46" s="0"/>
+      <c r="EY46" s="0"/>
+      <c r="EZ46" s="0"/>
+      <c r="FA46" s="0"/>
+      <c r="FB46" s="0"/>
+      <c r="FC46" s="0"/>
+      <c r="FD46" s="0"/>
+      <c r="FE46" s="0"/>
+      <c r="FF46" s="0"/>
+      <c r="FG46" s="0"/>
+      <c r="FH46" s="0"/>
+      <c r="FI46" s="0"/>
+      <c r="FJ46" s="0"/>
+      <c r="FK46" s="0"/>
+      <c r="FL46" s="0"/>
+      <c r="FM46" s="0"/>
+      <c r="FN46" s="0"/>
+      <c r="FO46" s="0"/>
+      <c r="FP46" s="0"/>
+      <c r="FQ46" s="0"/>
+      <c r="FR46" s="0"/>
+      <c r="FS46" s="0"/>
+      <c r="FT46" s="0"/>
+      <c r="FU46" s="0"/>
+      <c r="FV46" s="0"/>
+      <c r="FW46" s="0"/>
+      <c r="FX46" s="0"/>
+      <c r="FY46" s="0"/>
+      <c r="FZ46" s="0"/>
+      <c r="GA46" s="0"/>
+      <c r="GB46" s="0"/>
+      <c r="GC46" s="0"/>
+      <c r="GD46" s="0"/>
+      <c r="GE46" s="0"/>
+      <c r="GF46" s="0"/>
+      <c r="GG46" s="0"/>
+      <c r="GH46" s="0"/>
+      <c r="GI46" s="0"/>
+      <c r="GJ46" s="0"/>
+      <c r="GK46" s="0"/>
+      <c r="GL46" s="0"/>
+      <c r="GM46" s="0"/>
+      <c r="GN46" s="0"/>
+      <c r="GO46" s="0"/>
+      <c r="GP46" s="0"/>
+      <c r="GQ46" s="0"/>
+      <c r="GR46" s="0"/>
+      <c r="GS46" s="0"/>
+      <c r="GT46" s="0"/>
+      <c r="GU46" s="0"/>
+      <c r="GV46" s="0"/>
+      <c r="GW46" s="0"/>
+      <c r="GX46" s="0"/>
+      <c r="GY46" s="0"/>
+      <c r="GZ46" s="0"/>
+      <c r="HA46" s="0"/>
+      <c r="HB46" s="0"/>
+      <c r="HC46" s="0"/>
+      <c r="HD46" s="0"/>
+      <c r="HE46" s="0"/>
+      <c r="HF46" s="0"/>
+      <c r="HG46" s="0"/>
+      <c r="HH46" s="0"/>
+      <c r="HI46" s="0"/>
+      <c r="HJ46" s="0"/>
+      <c r="HK46" s="0"/>
+      <c r="HL46" s="0"/>
+      <c r="HM46" s="0"/>
+      <c r="HN46" s="0"/>
+      <c r="HO46" s="0"/>
+      <c r="HP46" s="0"/>
+      <c r="HQ46" s="0"/>
+      <c r="HR46" s="0"/>
+      <c r="HS46" s="0"/>
+      <c r="HT46" s="0"/>
+      <c r="HU46" s="0"/>
+      <c r="HV46" s="0"/>
+      <c r="HW46" s="0"/>
+      <c r="HX46" s="0"/>
+      <c r="HY46" s="0"/>
+      <c r="HZ46" s="0"/>
+      <c r="IA46" s="0"/>
+      <c r="IB46" s="0"/>
+      <c r="IC46" s="0"/>
+      <c r="ID46" s="0"/>
+      <c r="IE46" s="0"/>
+      <c r="IF46" s="0"/>
+      <c r="IG46" s="0"/>
+      <c r="IH46" s="0"/>
+      <c r="II46" s="0"/>
+      <c r="IJ46" s="0"/>
+      <c r="IK46" s="0"/>
+      <c r="IL46" s="0"/>
+      <c r="IM46" s="0"/>
+      <c r="IN46" s="0"/>
+      <c r="IO46" s="0"/>
+      <c r="IP46" s="0"/>
+      <c r="IQ46" s="0"/>
+      <c r="IR46" s="0"/>
+      <c r="IS46" s="0"/>
+      <c r="IT46" s="0"/>
+      <c r="IU46" s="0"/>
+      <c r="IV46" s="0"/>
+      <c r="IW46" s="0"/>
+      <c r="IX46" s="0"/>
+      <c r="IY46" s="0"/>
+      <c r="IZ46" s="0"/>
+      <c r="JA46" s="0"/>
+      <c r="JB46" s="0"/>
+      <c r="JC46" s="0"/>
+      <c r="JD46" s="0"/>
+      <c r="JE46" s="0"/>
+      <c r="JF46" s="0"/>
+      <c r="JG46" s="0"/>
+      <c r="JH46" s="0"/>
+      <c r="JI46" s="0"/>
+      <c r="JJ46" s="0"/>
+      <c r="JK46" s="0"/>
+      <c r="JL46" s="0"/>
+      <c r="JM46" s="0"/>
+      <c r="JN46" s="0"/>
+      <c r="JO46" s="0"/>
+      <c r="JP46" s="0"/>
+      <c r="JQ46" s="0"/>
+      <c r="JR46" s="0"/>
+      <c r="JS46" s="0"/>
+      <c r="JT46" s="0"/>
+      <c r="JU46" s="0"/>
+      <c r="JV46" s="0"/>
+      <c r="JW46" s="0"/>
+      <c r="JX46" s="0"/>
+      <c r="JY46" s="0"/>
+      <c r="JZ46" s="0"/>
+      <c r="KA46" s="0"/>
+      <c r="KB46" s="0"/>
+      <c r="KC46" s="0"/>
+      <c r="KD46" s="0"/>
+      <c r="KE46" s="0"/>
+      <c r="KF46" s="0"/>
+      <c r="KG46" s="0"/>
+      <c r="KH46" s="0"/>
+      <c r="KI46" s="0"/>
+      <c r="KJ46" s="0"/>
+      <c r="KK46" s="0"/>
+      <c r="KL46" s="0"/>
+      <c r="KM46" s="0"/>
+      <c r="KN46" s="0"/>
+      <c r="KO46" s="0"/>
+      <c r="KP46" s="0"/>
+      <c r="KQ46" s="0"/>
+      <c r="KR46" s="0"/>
+      <c r="KS46" s="0"/>
+      <c r="KT46" s="0"/>
+      <c r="KU46" s="0"/>
+      <c r="KV46" s="0"/>
+      <c r="KW46" s="0"/>
+      <c r="KX46" s="0"/>
+      <c r="KY46" s="0"/>
+      <c r="KZ46" s="0"/>
+      <c r="LA46" s="0"/>
+      <c r="LB46" s="0"/>
+      <c r="LC46" s="0"/>
+      <c r="LD46" s="0"/>
+      <c r="LE46" s="0"/>
+      <c r="LF46" s="0"/>
+      <c r="LG46" s="0"/>
+      <c r="LH46" s="0"/>
+      <c r="LI46" s="0"/>
+      <c r="LJ46" s="0"/>
+      <c r="LK46" s="0"/>
+      <c r="LL46" s="0"/>
+      <c r="LM46" s="0"/>
+      <c r="LN46" s="0"/>
+      <c r="LO46" s="0"/>
+      <c r="LP46" s="0"/>
+      <c r="LQ46" s="0"/>
+      <c r="LR46" s="0"/>
+      <c r="LS46" s="0"/>
+      <c r="LT46" s="0"/>
+      <c r="LU46" s="0"/>
+      <c r="LV46" s="0"/>
+      <c r="LW46" s="0"/>
+      <c r="LX46" s="0"/>
+      <c r="LY46" s="0"/>
+      <c r="LZ46" s="0"/>
+      <c r="MA46" s="0"/>
+      <c r="MB46" s="0"/>
+      <c r="MC46" s="0"/>
+      <c r="MD46" s="0"/>
+      <c r="ME46" s="0"/>
+      <c r="MF46" s="0"/>
+      <c r="MG46" s="0"/>
+      <c r="MH46" s="0"/>
+      <c r="MI46" s="0"/>
+      <c r="MJ46" s="0"/>
+      <c r="MK46" s="0"/>
+      <c r="ML46" s="0"/>
+      <c r="MM46" s="0"/>
+      <c r="MN46" s="0"/>
+      <c r="MO46" s="0"/>
+      <c r="MP46" s="0"/>
+      <c r="MQ46" s="0"/>
+      <c r="MR46" s="0"/>
+      <c r="MS46" s="0"/>
+      <c r="MT46" s="0"/>
+      <c r="MU46" s="0"/>
+      <c r="MV46" s="0"/>
+      <c r="MW46" s="0"/>
+      <c r="MX46" s="0"/>
+      <c r="MY46" s="0"/>
+      <c r="MZ46" s="0"/>
+      <c r="NA46" s="0"/>
+      <c r="NB46" s="0"/>
+      <c r="NC46" s="0"/>
+      <c r="ND46" s="0"/>
+      <c r="NE46" s="0"/>
+      <c r="NF46" s="0"/>
+      <c r="NG46" s="0"/>
+      <c r="NH46" s="0"/>
+      <c r="NI46" s="0"/>
+      <c r="NJ46" s="0"/>
+      <c r="NK46" s="0"/>
+      <c r="NL46" s="0"/>
+      <c r="NM46" s="0"/>
+      <c r="NN46" s="0"/>
+      <c r="NO46" s="0"/>
+      <c r="NP46" s="0"/>
+      <c r="NQ46" s="0"/>
+      <c r="NR46" s="0"/>
+      <c r="NS46" s="0"/>
+      <c r="NT46" s="0"/>
+      <c r="NU46" s="0"/>
+      <c r="NV46" s="0"/>
+      <c r="NW46" s="0"/>
+      <c r="NX46" s="0"/>
+      <c r="NY46" s="0"/>
+      <c r="NZ46" s="0"/>
+      <c r="OA46" s="0"/>
+      <c r="OB46" s="0"/>
+      <c r="OC46" s="0"/>
+      <c r="OD46" s="0"/>
+      <c r="OE46" s="0"/>
+      <c r="OF46" s="0"/>
+      <c r="OG46" s="0"/>
+      <c r="OH46" s="0"/>
+      <c r="OI46" s="0"/>
+      <c r="OJ46" s="0"/>
+      <c r="OK46" s="0"/>
+      <c r="OL46" s="0"/>
+      <c r="OM46" s="0"/>
+      <c r="ON46" s="0"/>
+      <c r="OO46" s="0"/>
+      <c r="OP46" s="0"/>
+      <c r="OQ46" s="0"/>
+      <c r="OR46" s="0"/>
+      <c r="OS46" s="0"/>
+      <c r="OT46" s="0"/>
+      <c r="OU46" s="0"/>
+      <c r="OV46" s="0"/>
+      <c r="OW46" s="0"/>
+      <c r="OX46" s="0"/>
+      <c r="OY46" s="0"/>
+      <c r="OZ46" s="0"/>
+      <c r="PA46" s="0"/>
+      <c r="PB46" s="0"/>
+      <c r="PC46" s="0"/>
+      <c r="PD46" s="0"/>
+      <c r="PE46" s="0"/>
+      <c r="PF46" s="0"/>
+      <c r="PG46" s="0"/>
+      <c r="PH46" s="0"/>
+      <c r="PI46" s="0"/>
+      <c r="PJ46" s="0"/>
+      <c r="PK46" s="0"/>
+      <c r="PL46" s="0"/>
+      <c r="PM46" s="0"/>
+      <c r="PN46" s="0"/>
+      <c r="PO46" s="0"/>
+      <c r="PP46" s="0"/>
+      <c r="PQ46" s="0"/>
+      <c r="PR46" s="0"/>
+      <c r="PS46" s="0"/>
+      <c r="PT46" s="0"/>
+      <c r="PU46" s="0"/>
+      <c r="PV46" s="0"/>
+      <c r="PW46" s="0"/>
+      <c r="PX46" s="0"/>
+      <c r="PY46" s="0"/>
+      <c r="PZ46" s="0"/>
+      <c r="QA46" s="0"/>
+      <c r="QB46" s="0"/>
+      <c r="QC46" s="0"/>
+      <c r="QD46" s="0"/>
+      <c r="QE46" s="0"/>
+      <c r="QF46" s="0"/>
+      <c r="QG46" s="0"/>
+      <c r="QH46" s="0"/>
+      <c r="QI46" s="0"/>
+      <c r="QJ46" s="0"/>
+      <c r="QK46" s="0"/>
+      <c r="QL46" s="0"/>
+      <c r="QM46" s="0"/>
+      <c r="QN46" s="0"/>
+      <c r="QO46" s="0"/>
+      <c r="QP46" s="0"/>
+      <c r="QQ46" s="0"/>
+      <c r="QR46" s="0"/>
+      <c r="QS46" s="0"/>
+      <c r="QT46" s="0"/>
+      <c r="QU46" s="0"/>
+      <c r="QV46" s="0"/>
+      <c r="QW46" s="0"/>
+      <c r="QX46" s="0"/>
+      <c r="QY46" s="0"/>
+      <c r="QZ46" s="0"/>
+      <c r="RA46" s="0"/>
+      <c r="RB46" s="0"/>
+      <c r="RC46" s="0"/>
+      <c r="RD46" s="0"/>
+      <c r="RE46" s="0"/>
+      <c r="RF46" s="0"/>
+      <c r="RG46" s="0"/>
+      <c r="RH46" s="0"/>
+      <c r="RI46" s="0"/>
+      <c r="RJ46" s="0"/>
+      <c r="RK46" s="0"/>
+      <c r="RL46" s="0"/>
+      <c r="RM46" s="0"/>
+      <c r="RN46" s="0"/>
+      <c r="RO46" s="0"/>
+      <c r="RP46" s="0"/>
+      <c r="RQ46" s="0"/>
+      <c r="RR46" s="0"/>
+      <c r="RS46" s="0"/>
+      <c r="RT46" s="0"/>
+      <c r="RU46" s="0"/>
+      <c r="RV46" s="0"/>
+      <c r="RW46" s="0"/>
+      <c r="RX46" s="0"/>
+      <c r="RY46" s="0"/>
+      <c r="RZ46" s="0"/>
+      <c r="SA46" s="0"/>
+      <c r="SB46" s="0"/>
+      <c r="SC46" s="0"/>
+      <c r="SD46" s="0"/>
+      <c r="SE46" s="0"/>
+      <c r="SF46" s="0"/>
+      <c r="SG46" s="0"/>
+      <c r="SH46" s="0"/>
+      <c r="SI46" s="0"/>
+      <c r="SJ46" s="0"/>
+      <c r="SK46" s="0"/>
+      <c r="SL46" s="0"/>
+      <c r="SM46" s="0"/>
+      <c r="SN46" s="0"/>
+      <c r="SO46" s="0"/>
+      <c r="SP46" s="0"/>
+      <c r="SQ46" s="0"/>
+      <c r="SR46" s="0"/>
+      <c r="SS46" s="0"/>
+      <c r="ST46" s="0"/>
+      <c r="SU46" s="0"/>
+      <c r="SV46" s="0"/>
+      <c r="SW46" s="0"/>
+      <c r="SX46" s="0"/>
+      <c r="SY46" s="0"/>
+      <c r="SZ46" s="0"/>
+      <c r="TA46" s="0"/>
+      <c r="TB46" s="0"/>
+      <c r="TC46" s="0"/>
+      <c r="TD46" s="0"/>
+      <c r="TE46" s="0"/>
+      <c r="TF46" s="0"/>
+      <c r="TG46" s="0"/>
+      <c r="TH46" s="0"/>
+      <c r="TI46" s="0"/>
+      <c r="TJ46" s="0"/>
+      <c r="TK46" s="0"/>
+      <c r="TL46" s="0"/>
+      <c r="TM46" s="0"/>
+      <c r="TN46" s="0"/>
+      <c r="TO46" s="0"/>
+      <c r="TP46" s="0"/>
+      <c r="TQ46" s="0"/>
+      <c r="TR46" s="0"/>
+      <c r="TS46" s="0"/>
+      <c r="TT46" s="0"/>
+      <c r="TU46" s="0"/>
+      <c r="TV46" s="0"/>
+      <c r="TW46" s="0"/>
+      <c r="TX46" s="0"/>
+      <c r="TY46" s="0"/>
+      <c r="TZ46" s="0"/>
+      <c r="UA46" s="0"/>
+      <c r="UB46" s="0"/>
+      <c r="UC46" s="0"/>
+      <c r="UD46" s="0"/>
+      <c r="UE46" s="0"/>
+      <c r="UF46" s="0"/>
+      <c r="UG46" s="0"/>
+      <c r="UH46" s="0"/>
+      <c r="UI46" s="0"/>
+      <c r="UJ46" s="0"/>
+      <c r="UK46" s="0"/>
+      <c r="UL46" s="0"/>
+      <c r="UM46" s="0"/>
+      <c r="UN46" s="0"/>
+      <c r="UO46" s="0"/>
+      <c r="UP46" s="0"/>
+      <c r="UQ46" s="0"/>
+      <c r="UR46" s="0"/>
+      <c r="US46" s="0"/>
+      <c r="UT46" s="0"/>
+      <c r="UU46" s="0"/>
+      <c r="UV46" s="0"/>
+      <c r="UW46" s="0"/>
+      <c r="UX46" s="0"/>
+      <c r="UY46" s="0"/>
+      <c r="UZ46" s="0"/>
+      <c r="VA46" s="0"/>
+      <c r="VB46" s="0"/>
+      <c r="VC46" s="0"/>
+      <c r="VD46" s="0"/>
+      <c r="VE46" s="0"/>
+      <c r="VF46" s="0"/>
+      <c r="VG46" s="0"/>
+      <c r="VH46" s="0"/>
+      <c r="VI46" s="0"/>
+      <c r="VJ46" s="0"/>
+      <c r="VK46" s="0"/>
+      <c r="VL46" s="0"/>
+      <c r="VM46" s="0"/>
+      <c r="VN46" s="0"/>
+      <c r="VO46" s="0"/>
+      <c r="VP46" s="0"/>
+      <c r="VQ46" s="0"/>
+      <c r="VR46" s="0"/>
+      <c r="VS46" s="0"/>
+      <c r="VT46" s="0"/>
+      <c r="VU46" s="0"/>
+      <c r="VV46" s="0"/>
+      <c r="VW46" s="0"/>
+      <c r="VX46" s="0"/>
+      <c r="VY46" s="0"/>
+      <c r="VZ46" s="0"/>
+      <c r="WA46" s="0"/>
+      <c r="WB46" s="0"/>
+      <c r="WC46" s="0"/>
+      <c r="WD46" s="0"/>
+      <c r="WE46" s="0"/>
+      <c r="WF46" s="0"/>
+      <c r="WG46" s="0"/>
+      <c r="WH46" s="0"/>
+      <c r="WI46" s="0"/>
+      <c r="WJ46" s="0"/>
+      <c r="WK46" s="0"/>
+      <c r="WL46" s="0"/>
+      <c r="WM46" s="0"/>
+      <c r="WN46" s="0"/>
+      <c r="WO46" s="0"/>
+      <c r="WP46" s="0"/>
+      <c r="WQ46" s="0"/>
+      <c r="WR46" s="0"/>
+      <c r="WS46" s="0"/>
+      <c r="WT46" s="0"/>
+      <c r="WU46" s="0"/>
+      <c r="WV46" s="0"/>
+      <c r="WW46" s="0"/>
+      <c r="WX46" s="0"/>
+      <c r="WY46" s="0"/>
+      <c r="WZ46" s="0"/>
+      <c r="XA46" s="0"/>
+      <c r="XB46" s="0"/>
+      <c r="XC46" s="0"/>
+      <c r="XD46" s="0"/>
+      <c r="XE46" s="0"/>
+      <c r="XF46" s="0"/>
+      <c r="XG46" s="0"/>
+      <c r="XH46" s="0"/>
+      <c r="XI46" s="0"/>
+      <c r="XJ46" s="0"/>
+      <c r="XK46" s="0"/>
+      <c r="XL46" s="0"/>
+      <c r="XM46" s="0"/>
+      <c r="XN46" s="0"/>
+      <c r="XO46" s="0"/>
+      <c r="XP46" s="0"/>
+      <c r="XQ46" s="0"/>
+      <c r="XR46" s="0"/>
+      <c r="XS46" s="0"/>
+      <c r="XT46" s="0"/>
+      <c r="XU46" s="0"/>
+      <c r="XV46" s="0"/>
+      <c r="XW46" s="0"/>
+      <c r="XX46" s="0"/>
+      <c r="XY46" s="0"/>
+      <c r="XZ46" s="0"/>
+      <c r="YA46" s="0"/>
+      <c r="YB46" s="0"/>
+      <c r="YC46" s="0"/>
+      <c r="YD46" s="0"/>
+      <c r="YE46" s="0"/>
+      <c r="YF46" s="0"/>
+      <c r="YG46" s="0"/>
+      <c r="YH46" s="0"/>
+      <c r="YI46" s="0"/>
+      <c r="YJ46" s="0"/>
+      <c r="YK46" s="0"/>
+      <c r="YL46" s="0"/>
+      <c r="YM46" s="0"/>
+      <c r="YN46" s="0"/>
+      <c r="YO46" s="0"/>
+      <c r="YP46" s="0"/>
+      <c r="YQ46" s="0"/>
+      <c r="YR46" s="0"/>
+      <c r="YS46" s="0"/>
+      <c r="YT46" s="0"/>
+      <c r="YU46" s="0"/>
+      <c r="YV46" s="0"/>
+      <c r="YW46" s="0"/>
+      <c r="YX46" s="0"/>
+      <c r="YY46" s="0"/>
+      <c r="YZ46" s="0"/>
+      <c r="ZA46" s="0"/>
+      <c r="ZB46" s="0"/>
+      <c r="ZC46" s="0"/>
+      <c r="ZD46" s="0"/>
+      <c r="ZE46" s="0"/>
+      <c r="ZF46" s="0"/>
+      <c r="ZG46" s="0"/>
+      <c r="ZH46" s="0"/>
+      <c r="ZI46" s="0"/>
+      <c r="ZJ46" s="0"/>
+      <c r="ZK46" s="0"/>
+      <c r="ZL46" s="0"/>
+      <c r="ZM46" s="0"/>
+      <c r="ZN46" s="0"/>
+      <c r="ZO46" s="0"/>
+      <c r="ZP46" s="0"/>
+      <c r="ZQ46" s="0"/>
+      <c r="ZR46" s="0"/>
+      <c r="ZS46" s="0"/>
+      <c r="ZT46" s="0"/>
+      <c r="ZU46" s="0"/>
+      <c r="ZV46" s="0"/>
+      <c r="ZW46" s="0"/>
+      <c r="ZX46" s="0"/>
+      <c r="ZY46" s="0"/>
+      <c r="ZZ46" s="0"/>
+      <c r="AAA46" s="0"/>
+      <c r="AAB46" s="0"/>
+      <c r="AAC46" s="0"/>
+      <c r="AAD46" s="0"/>
+      <c r="AAE46" s="0"/>
+      <c r="AAF46" s="0"/>
+      <c r="AAG46" s="0"/>
+      <c r="AAH46" s="0"/>
+      <c r="AAI46" s="0"/>
+      <c r="AAJ46" s="0"/>
+      <c r="AAK46" s="0"/>
+      <c r="AAL46" s="0"/>
+      <c r="AAM46" s="0"/>
+      <c r="AAN46" s="0"/>
+      <c r="AAO46" s="0"/>
+      <c r="AAP46" s="0"/>
+      <c r="AAQ46" s="0"/>
+      <c r="AAR46" s="0"/>
+      <c r="AAS46" s="0"/>
+      <c r="AAT46" s="0"/>
+      <c r="AAU46" s="0"/>
+      <c r="AAV46" s="0"/>
+      <c r="AAW46" s="0"/>
+      <c r="AAX46" s="0"/>
+      <c r="AAY46" s="0"/>
+      <c r="AAZ46" s="0"/>
+      <c r="ABA46" s="0"/>
+      <c r="ABB46" s="0"/>
+      <c r="ABC46" s="0"/>
+      <c r="ABD46" s="0"/>
+      <c r="ABE46" s="0"/>
+      <c r="ABF46" s="0"/>
+      <c r="ABG46" s="0"/>
+      <c r="ABH46" s="0"/>
+      <c r="ABI46" s="0"/>
+      <c r="ABJ46" s="0"/>
+      <c r="ABK46" s="0"/>
+      <c r="ABL46" s="0"/>
+      <c r="ABM46" s="0"/>
+      <c r="ABN46" s="0"/>
+      <c r="ABO46" s="0"/>
+      <c r="ABP46" s="0"/>
+      <c r="ABQ46" s="0"/>
+      <c r="ABR46" s="0"/>
+      <c r="ABS46" s="0"/>
+      <c r="ABT46" s="0"/>
+      <c r="ABU46" s="0"/>
+      <c r="ABV46" s="0"/>
+      <c r="ABW46" s="0"/>
+      <c r="ABX46" s="0"/>
+      <c r="ABY46" s="0"/>
+      <c r="ABZ46" s="0"/>
+      <c r="ACA46" s="0"/>
+      <c r="ACB46" s="0"/>
+      <c r="ACC46" s="0"/>
+      <c r="ACD46" s="0"/>
+      <c r="ACE46" s="0"/>
+      <c r="ACF46" s="0"/>
+      <c r="ACG46" s="0"/>
+      <c r="ACH46" s="0"/>
+      <c r="ACI46" s="0"/>
+      <c r="ACJ46" s="0"/>
+      <c r="ACK46" s="0"/>
+      <c r="ACL46" s="0"/>
+      <c r="ACM46" s="0"/>
+      <c r="ACN46" s="0"/>
+      <c r="ACO46" s="0"/>
+      <c r="ACP46" s="0"/>
+      <c r="ACQ46" s="0"/>
+      <c r="ACR46" s="0"/>
+      <c r="ACS46" s="0"/>
+      <c r="ACT46" s="0"/>
+      <c r="ACU46" s="0"/>
+      <c r="ACV46" s="0"/>
+      <c r="ACW46" s="0"/>
+      <c r="ACX46" s="0"/>
+      <c r="ACY46" s="0"/>
+      <c r="ACZ46" s="0"/>
+      <c r="ADA46" s="0"/>
+      <c r="ADB46" s="0"/>
+      <c r="ADC46" s="0"/>
+      <c r="ADD46" s="0"/>
+      <c r="ADE46" s="0"/>
+      <c r="ADF46" s="0"/>
+      <c r="ADG46" s="0"/>
+      <c r="ADH46" s="0"/>
+      <c r="ADI46" s="0"/>
+      <c r="ADJ46" s="0"/>
+      <c r="ADK46" s="0"/>
+      <c r="ADL46" s="0"/>
+      <c r="ADM46" s="0"/>
+      <c r="ADN46" s="0"/>
+      <c r="ADO46" s="0"/>
+      <c r="ADP46" s="0"/>
+      <c r="ADQ46" s="0"/>
+      <c r="ADR46" s="0"/>
+      <c r="ADS46" s="0"/>
+      <c r="ADT46" s="0"/>
+      <c r="ADU46" s="0"/>
+      <c r="ADV46" s="0"/>
+      <c r="ADW46" s="0"/>
+      <c r="ADX46" s="0"/>
+      <c r="ADY46" s="0"/>
+      <c r="ADZ46" s="0"/>
+      <c r="AEA46" s="0"/>
+      <c r="AEB46" s="0"/>
+      <c r="AEC46" s="0"/>
+      <c r="AED46" s="0"/>
+      <c r="AEE46" s="0"/>
+      <c r="AEF46" s="0"/>
+      <c r="AEG46" s="0"/>
+      <c r="AEH46" s="0"/>
+      <c r="AEI46" s="0"/>
+      <c r="AEJ46" s="0"/>
+      <c r="AEK46" s="0"/>
+      <c r="AEL46" s="0"/>
+      <c r="AEM46" s="0"/>
+      <c r="AEN46" s="0"/>
+      <c r="AEO46" s="0"/>
+      <c r="AEP46" s="0"/>
+      <c r="AEQ46" s="0"/>
+      <c r="AER46" s="0"/>
+      <c r="AES46" s="0"/>
+      <c r="AET46" s="0"/>
+      <c r="AEU46" s="0"/>
+      <c r="AEV46" s="0"/>
+      <c r="AEW46" s="0"/>
+      <c r="AEX46" s="0"/>
+      <c r="AEY46" s="0"/>
+      <c r="AEZ46" s="0"/>
+      <c r="AFA46" s="0"/>
+      <c r="AFB46" s="0"/>
+      <c r="AFC46" s="0"/>
+      <c r="AFD46" s="0"/>
+      <c r="AFE46" s="0"/>
+      <c r="AFF46" s="0"/>
+      <c r="AFG46" s="0"/>
+      <c r="AFH46" s="0"/>
+      <c r="AFI46" s="0"/>
+      <c r="AFJ46" s="0"/>
+      <c r="AFK46" s="0"/>
+      <c r="AFL46" s="0"/>
+      <c r="AFM46" s="0"/>
+      <c r="AFN46" s="0"/>
+      <c r="AFO46" s="0"/>
+      <c r="AFP46" s="0"/>
+      <c r="AFQ46" s="0"/>
+      <c r="AFR46" s="0"/>
+      <c r="AFS46" s="0"/>
+      <c r="AFT46" s="0"/>
+      <c r="AFU46" s="0"/>
+      <c r="AFV46" s="0"/>
+      <c r="AFW46" s="0"/>
+      <c r="AFX46" s="0"/>
+      <c r="AFY46" s="0"/>
+      <c r="AFZ46" s="0"/>
+      <c r="AGA46" s="0"/>
+      <c r="AGB46" s="0"/>
+      <c r="AGC46" s="0"/>
+      <c r="AGD46" s="0"/>
+      <c r="AGE46" s="0"/>
+      <c r="AGF46" s="0"/>
+      <c r="AGG46" s="0"/>
+      <c r="AGH46" s="0"/>
+      <c r="AGI46" s="0"/>
+      <c r="AGJ46" s="0"/>
+      <c r="AGK46" s="0"/>
+      <c r="AGL46" s="0"/>
+      <c r="AGM46" s="0"/>
+      <c r="AGN46" s="0"/>
+      <c r="AGO46" s="0"/>
+      <c r="AGP46" s="0"/>
+      <c r="AGQ46" s="0"/>
+      <c r="AGR46" s="0"/>
+      <c r="AGS46" s="0"/>
+      <c r="AGT46" s="0"/>
+      <c r="AGU46" s="0"/>
+      <c r="AGV46" s="0"/>
+      <c r="AGW46" s="0"/>
+      <c r="AGX46" s="0"/>
+      <c r="AGY46" s="0"/>
+      <c r="AGZ46" s="0"/>
+      <c r="AHA46" s="0"/>
+      <c r="AHB46" s="0"/>
+      <c r="AHC46" s="0"/>
+      <c r="AHD46" s="0"/>
+      <c r="AHE46" s="0"/>
+      <c r="AHF46" s="0"/>
+      <c r="AHG46" s="0"/>
+      <c r="AHH46" s="0"/>
+      <c r="AHI46" s="0"/>
+      <c r="AHJ46" s="0"/>
+      <c r="AHK46" s="0"/>
+      <c r="AHL46" s="0"/>
+      <c r="AHM46" s="0"/>
+      <c r="AHN46" s="0"/>
+      <c r="AHO46" s="0"/>
+      <c r="AHP46" s="0"/>
+      <c r="AHQ46" s="0"/>
+      <c r="AHR46" s="0"/>
+      <c r="AHS46" s="0"/>
+      <c r="AHT46" s="0"/>
+      <c r="AHU46" s="0"/>
+      <c r="AHV46" s="0"/>
+      <c r="AHW46" s="0"/>
+      <c r="AHX46" s="0"/>
+      <c r="AHY46" s="0"/>
+      <c r="AHZ46" s="0"/>
+      <c r="AIA46" s="0"/>
+      <c r="AIB46" s="0"/>
+      <c r="AIC46" s="0"/>
+      <c r="AID46" s="0"/>
+      <c r="AIE46" s="0"/>
+      <c r="AIF46" s="0"/>
+      <c r="AIG46" s="0"/>
+      <c r="AIH46" s="0"/>
+      <c r="AII46" s="0"/>
+      <c r="AIJ46" s="0"/>
+      <c r="AIK46" s="0"/>
+      <c r="AIL46" s="0"/>
+      <c r="AIM46" s="0"/>
+      <c r="AIN46" s="0"/>
+      <c r="AIO46" s="0"/>
+      <c r="AIP46" s="0"/>
+      <c r="AIQ46" s="0"/>
+      <c r="AIR46" s="0"/>
+      <c r="AIS46" s="0"/>
+      <c r="AIT46" s="0"/>
+      <c r="AIU46" s="0"/>
+      <c r="AIV46" s="0"/>
+      <c r="AIW46" s="0"/>
+      <c r="AIX46" s="0"/>
+      <c r="AIY46" s="0"/>
+      <c r="AIZ46" s="0"/>
+      <c r="AJA46" s="0"/>
+      <c r="AJB46" s="0"/>
+      <c r="AJC46" s="0"/>
+      <c r="AJD46" s="0"/>
+      <c r="AJE46" s="0"/>
+      <c r="AJF46" s="0"/>
+      <c r="AJG46" s="0"/>
+      <c r="AJH46" s="0"/>
+      <c r="AJI46" s="0"/>
+      <c r="AJJ46" s="0"/>
+      <c r="AJK46" s="0"/>
+      <c r="AJL46" s="0"/>
+      <c r="AJM46" s="0"/>
+      <c r="AJN46" s="0"/>
+      <c r="AJO46" s="0"/>
+      <c r="AJP46" s="0"/>
+      <c r="AJQ46" s="0"/>
+      <c r="AJR46" s="0"/>
+      <c r="AJS46" s="0"/>
+      <c r="AJT46" s="0"/>
+      <c r="AJU46" s="0"/>
+      <c r="AJV46" s="0"/>
+      <c r="AJW46" s="0"/>
+      <c r="AJX46" s="0"/>
+      <c r="AJY46" s="0"/>
+      <c r="AJZ46" s="0"/>
+      <c r="AKA46" s="0"/>
+      <c r="AKB46" s="0"/>
+      <c r="AKC46" s="0"/>
+      <c r="AKD46" s="0"/>
+      <c r="AKE46" s="0"/>
+      <c r="AKF46" s="0"/>
+      <c r="AKG46" s="0"/>
+      <c r="AKH46" s="0"/>
+      <c r="AKI46" s="0"/>
+      <c r="AKJ46" s="0"/>
+      <c r="AKK46" s="0"/>
+      <c r="AKL46" s="0"/>
+      <c r="AKM46" s="0"/>
+      <c r="AKN46" s="0"/>
+      <c r="AKO46" s="0"/>
+      <c r="AKP46" s="0"/>
+      <c r="AKQ46" s="0"/>
+      <c r="AKR46" s="0"/>
+      <c r="AKS46" s="0"/>
+      <c r="AKT46" s="0"/>
+      <c r="AKU46" s="0"/>
+      <c r="AKV46" s="0"/>
+      <c r="AKW46" s="0"/>
+      <c r="AKX46" s="0"/>
+      <c r="AKY46" s="0"/>
+      <c r="AKZ46" s="0"/>
+      <c r="ALA46" s="0"/>
+      <c r="ALB46" s="0"/>
+      <c r="ALC46" s="0"/>
+      <c r="ALD46" s="0"/>
+      <c r="ALE46" s="0"/>
+      <c r="ALF46" s="0"/>
+      <c r="ALG46" s="0"/>
+      <c r="ALH46" s="0"/>
+      <c r="ALI46" s="0"/>
+      <c r="ALJ46" s="0"/>
+      <c r="ALK46" s="0"/>
+      <c r="ALL46" s="0"/>
+      <c r="ALM46" s="0"/>
+      <c r="ALN46" s="0"/>
+      <c r="ALO46" s="0"/>
+      <c r="ALP46" s="0"/>
+      <c r="ALQ46" s="0"/>
+      <c r="ALR46" s="0"/>
+      <c r="ALS46" s="0"/>
+      <c r="ALT46" s="0"/>
+      <c r="ALU46" s="0"/>
+      <c r="ALV46" s="0"/>
+      <c r="ALW46" s="0"/>
+      <c r="ALX46" s="0"/>
+      <c r="ALY46" s="0"/>
+      <c r="ALZ46" s="0"/>
+      <c r="AMA46" s="0"/>
+      <c r="AMB46" s="0"/>
+      <c r="AMC46" s="0"/>
+      <c r="AMD46" s="0"/>
+      <c r="AME46" s="0"/>
+      <c r="AMF46" s="0"/>
+      <c r="AMG46" s="0"/>
+      <c r="AMH46" s="0"/>
+      <c r="AMI46" s="0"/>
+      <c r="AMJ46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="0"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="0"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0"/>
+      <c r="X47" s="0"/>
+      <c r="Y47" s="0"/>
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0"/>
+      <c r="AB47" s="0"/>
+      <c r="AC47" s="0"/>
+      <c r="AD47" s="0"/>
+      <c r="AE47" s="0"/>
+      <c r="AF47" s="0"/>
+      <c r="AG47" s="0"/>
+      <c r="AH47" s="0"/>
+      <c r="AI47" s="0"/>
+      <c r="AJ47" s="0"/>
+      <c r="AK47" s="0"/>
+      <c r="AL47" s="0"/>
+      <c r="AM47" s="0"/>
+      <c r="AN47" s="0"/>
+      <c r="AO47" s="0"/>
+      <c r="AP47" s="0"/>
+      <c r="AQ47" s="0"/>
+      <c r="AR47" s="0"/>
+      <c r="AS47" s="0"/>
+      <c r="AT47" s="0"/>
+      <c r="AU47" s="0"/>
+      <c r="AV47" s="0"/>
+      <c r="AW47" s="0"/>
+      <c r="AX47" s="0"/>
+      <c r="AY47" s="0"/>
+      <c r="AZ47" s="0"/>
+      <c r="BA47" s="0"/>
+      <c r="BB47" s="0"/>
+      <c r="BC47" s="0"/>
+      <c r="BD47" s="0"/>
+      <c r="BE47" s="0"/>
+      <c r="BF47" s="0"/>
+      <c r="BG47" s="0"/>
+      <c r="BH47" s="0"/>
+      <c r="BI47" s="0"/>
+      <c r="BJ47" s="0"/>
+      <c r="BK47" s="0"/>
+      <c r="BL47" s="0"/>
+      <c r="BM47" s="0"/>
+      <c r="BN47" s="0"/>
+      <c r="BO47" s="0"/>
+      <c r="BP47" s="0"/>
+      <c r="BQ47" s="0"/>
+      <c r="BR47" s="0"/>
+      <c r="BS47" s="0"/>
+      <c r="BT47" s="0"/>
+      <c r="BU47" s="0"/>
+      <c r="BV47" s="0"/>
+      <c r="BW47" s="0"/>
+      <c r="BX47" s="0"/>
+      <c r="BY47" s="0"/>
+      <c r="BZ47" s="0"/>
+      <c r="CA47" s="0"/>
+      <c r="CB47" s="0"/>
+      <c r="CC47" s="0"/>
+      <c r="CD47" s="0"/>
+      <c r="CE47" s="0"/>
+      <c r="CF47" s="0"/>
+      <c r="CG47" s="0"/>
+      <c r="CH47" s="0"/>
+      <c r="CI47" s="0"/>
+      <c r="CJ47" s="0"/>
+      <c r="CK47" s="0"/>
+      <c r="CL47" s="0"/>
+      <c r="CM47" s="0"/>
+      <c r="CN47" s="0"/>
+      <c r="CO47" s="0"/>
+      <c r="CP47" s="0"/>
+      <c r="CQ47" s="0"/>
+      <c r="CR47" s="0"/>
+      <c r="CS47" s="0"/>
+      <c r="CT47" s="0"/>
+      <c r="CU47" s="0"/>
+      <c r="CV47" s="0"/>
+      <c r="CW47" s="0"/>
+      <c r="CX47" s="0"/>
+      <c r="CY47" s="0"/>
+      <c r="CZ47" s="0"/>
+      <c r="DA47" s="0"/>
+      <c r="DB47" s="0"/>
+      <c r="DC47" s="0"/>
+      <c r="DD47" s="0"/>
+      <c r="DE47" s="0"/>
+      <c r="DF47" s="0"/>
+      <c r="DG47" s="0"/>
+      <c r="DH47" s="0"/>
+      <c r="DI47" s="0"/>
+      <c r="DJ47" s="0"/>
+      <c r="DK47" s="0"/>
+      <c r="DL47" s="0"/>
+      <c r="DM47" s="0"/>
+      <c r="DN47" s="0"/>
+      <c r="DO47" s="0"/>
+      <c r="DP47" s="0"/>
+      <c r="DQ47" s="0"/>
+      <c r="DR47" s="0"/>
+      <c r="DS47" s="0"/>
+      <c r="DT47" s="0"/>
+      <c r="DU47" s="0"/>
+      <c r="DV47" s="0"/>
+      <c r="DW47" s="0"/>
+      <c r="DX47" s="0"/>
+      <c r="DY47" s="0"/>
+      <c r="DZ47" s="0"/>
+      <c r="EA47" s="0"/>
+      <c r="EB47" s="0"/>
+      <c r="EC47" s="0"/>
+      <c r="ED47" s="0"/>
+      <c r="EE47" s="0"/>
+      <c r="EF47" s="0"/>
+      <c r="EG47" s="0"/>
+      <c r="EH47" s="0"/>
+      <c r="EI47" s="0"/>
+      <c r="EJ47" s="0"/>
+      <c r="EK47" s="0"/>
+      <c r="EL47" s="0"/>
+      <c r="EM47" s="0"/>
+      <c r="EN47" s="0"/>
+      <c r="EO47" s="0"/>
+      <c r="EP47" s="0"/>
+      <c r="EQ47" s="0"/>
+      <c r="ER47" s="0"/>
+      <c r="ES47" s="0"/>
+      <c r="ET47" s="0"/>
+      <c r="EU47" s="0"/>
+      <c r="EV47" s="0"/>
+      <c r="EW47" s="0"/>
+      <c r="EX47" s="0"/>
+      <c r="EY47" s="0"/>
+      <c r="EZ47" s="0"/>
+      <c r="FA47" s="0"/>
+      <c r="FB47" s="0"/>
+      <c r="FC47" s="0"/>
+      <c r="FD47" s="0"/>
+      <c r="FE47" s="0"/>
+      <c r="FF47" s="0"/>
+      <c r="FG47" s="0"/>
+      <c r="FH47" s="0"/>
+      <c r="FI47" s="0"/>
+      <c r="FJ47" s="0"/>
+      <c r="FK47" s="0"/>
+      <c r="FL47" s="0"/>
+      <c r="FM47" s="0"/>
+      <c r="FN47" s="0"/>
+      <c r="FO47" s="0"/>
+      <c r="FP47" s="0"/>
+      <c r="FQ47" s="0"/>
+      <c r="FR47" s="0"/>
+      <c r="FS47" s="0"/>
+      <c r="FT47" s="0"/>
+      <c r="FU47" s="0"/>
+      <c r="FV47" s="0"/>
+      <c r="FW47" s="0"/>
+      <c r="FX47" s="0"/>
+      <c r="FY47" s="0"/>
+      <c r="FZ47" s="0"/>
+      <c r="GA47" s="0"/>
+      <c r="GB47" s="0"/>
+      <c r="GC47" s="0"/>
+      <c r="GD47" s="0"/>
+      <c r="GE47" s="0"/>
+      <c r="GF47" s="0"/>
+      <c r="GG47" s="0"/>
+      <c r="GH47" s="0"/>
+      <c r="GI47" s="0"/>
+      <c r="GJ47" s="0"/>
+      <c r="GK47" s="0"/>
+      <c r="GL47" s="0"/>
+      <c r="GM47" s="0"/>
+      <c r="GN47" s="0"/>
+      <c r="GO47" s="0"/>
+      <c r="GP47" s="0"/>
+      <c r="GQ47" s="0"/>
+      <c r="GR47" s="0"/>
+      <c r="GS47" s="0"/>
+      <c r="GT47" s="0"/>
+      <c r="GU47" s="0"/>
+      <c r="GV47" s="0"/>
+      <c r="GW47" s="0"/>
+      <c r="GX47" s="0"/>
+      <c r="GY47" s="0"/>
+      <c r="GZ47" s="0"/>
+      <c r="HA47" s="0"/>
+      <c r="HB47" s="0"/>
+      <c r="HC47" s="0"/>
+      <c r="HD47" s="0"/>
+      <c r="HE47" s="0"/>
+      <c r="HF47" s="0"/>
+      <c r="HG47" s="0"/>
+      <c r="HH47" s="0"/>
+      <c r="HI47" s="0"/>
+      <c r="HJ47" s="0"/>
+      <c r="HK47" s="0"/>
+      <c r="HL47" s="0"/>
+      <c r="HM47" s="0"/>
+      <c r="HN47" s="0"/>
+      <c r="HO47" s="0"/>
+      <c r="HP47" s="0"/>
+      <c r="HQ47" s="0"/>
+      <c r="HR47" s="0"/>
+      <c r="HS47" s="0"/>
+      <c r="HT47" s="0"/>
+      <c r="HU47" s="0"/>
+      <c r="HV47" s="0"/>
+      <c r="HW47" s="0"/>
+      <c r="HX47" s="0"/>
+      <c r="HY47" s="0"/>
+      <c r="HZ47" s="0"/>
+      <c r="IA47" s="0"/>
+      <c r="IB47" s="0"/>
+      <c r="IC47" s="0"/>
+      <c r="ID47" s="0"/>
+      <c r="IE47" s="0"/>
+      <c r="IF47" s="0"/>
+      <c r="IG47" s="0"/>
+      <c r="IH47" s="0"/>
+      <c r="II47" s="0"/>
+      <c r="IJ47" s="0"/>
+      <c r="IK47" s="0"/>
+      <c r="IL47" s="0"/>
+      <c r="IM47" s="0"/>
+      <c r="IN47" s="0"/>
+      <c r="IO47" s="0"/>
+      <c r="IP47" s="0"/>
+      <c r="IQ47" s="0"/>
+      <c r="IR47" s="0"/>
+      <c r="IS47" s="0"/>
+      <c r="IT47" s="0"/>
+      <c r="IU47" s="0"/>
+      <c r="IV47" s="0"/>
+      <c r="IW47" s="0"/>
+      <c r="IX47" s="0"/>
+      <c r="IY47" s="0"/>
+      <c r="IZ47" s="0"/>
+      <c r="JA47" s="0"/>
+      <c r="JB47" s="0"/>
+      <c r="JC47" s="0"/>
+      <c r="JD47" s="0"/>
+      <c r="JE47" s="0"/>
+      <c r="JF47" s="0"/>
+      <c r="JG47" s="0"/>
+      <c r="JH47" s="0"/>
+      <c r="JI47" s="0"/>
+      <c r="JJ47" s="0"/>
+      <c r="JK47" s="0"/>
+      <c r="JL47" s="0"/>
+      <c r="JM47" s="0"/>
+      <c r="JN47" s="0"/>
+      <c r="JO47" s="0"/>
+      <c r="JP47" s="0"/>
+      <c r="JQ47" s="0"/>
+      <c r="JR47" s="0"/>
+      <c r="JS47" s="0"/>
+      <c r="JT47" s="0"/>
+      <c r="JU47" s="0"/>
+      <c r="JV47" s="0"/>
+      <c r="JW47" s="0"/>
+      <c r="JX47" s="0"/>
+      <c r="JY47" s="0"/>
+      <c r="JZ47" s="0"/>
+      <c r="KA47" s="0"/>
+      <c r="KB47" s="0"/>
+      <c r="KC47" s="0"/>
+      <c r="KD47" s="0"/>
+      <c r="KE47" s="0"/>
+      <c r="KF47" s="0"/>
+      <c r="KG47" s="0"/>
+      <c r="KH47" s="0"/>
+      <c r="KI47" s="0"/>
+      <c r="KJ47" s="0"/>
+      <c r="KK47" s="0"/>
+      <c r="KL47" s="0"/>
+      <c r="KM47" s="0"/>
+      <c r="KN47" s="0"/>
+      <c r="KO47" s="0"/>
+      <c r="KP47" s="0"/>
+      <c r="KQ47" s="0"/>
+      <c r="KR47" s="0"/>
+      <c r="KS47" s="0"/>
+      <c r="KT47" s="0"/>
+      <c r="KU47" s="0"/>
+      <c r="KV47" s="0"/>
+      <c r="KW47" s="0"/>
+      <c r="KX47" s="0"/>
+      <c r="KY47" s="0"/>
+      <c r="KZ47" s="0"/>
+      <c r="LA47" s="0"/>
+      <c r="LB47" s="0"/>
+      <c r="LC47" s="0"/>
+      <c r="LD47" s="0"/>
+      <c r="LE47" s="0"/>
+      <c r="LF47" s="0"/>
+      <c r="LG47" s="0"/>
+      <c r="LH47" s="0"/>
+      <c r="LI47" s="0"/>
+      <c r="LJ47" s="0"/>
+      <c r="LK47" s="0"/>
+      <c r="LL47" s="0"/>
+      <c r="LM47" s="0"/>
+      <c r="LN47" s="0"/>
+      <c r="LO47" s="0"/>
+      <c r="LP47" s="0"/>
+      <c r="LQ47" s="0"/>
+      <c r="LR47" s="0"/>
+      <c r="LS47" s="0"/>
+      <c r="LT47" s="0"/>
+      <c r="LU47" s="0"/>
+      <c r="LV47" s="0"/>
+      <c r="LW47" s="0"/>
+      <c r="LX47" s="0"/>
+      <c r="LY47" s="0"/>
+      <c r="LZ47" s="0"/>
+      <c r="MA47" s="0"/>
+      <c r="MB47" s="0"/>
+      <c r="MC47" s="0"/>
+      <c r="MD47" s="0"/>
+      <c r="ME47" s="0"/>
+      <c r="MF47" s="0"/>
+      <c r="MG47" s="0"/>
+      <c r="MH47" s="0"/>
+      <c r="MI47" s="0"/>
+      <c r="MJ47" s="0"/>
+      <c r="MK47" s="0"/>
+      <c r="ML47" s="0"/>
+      <c r="MM47" s="0"/>
+      <c r="MN47" s="0"/>
+      <c r="MO47" s="0"/>
+      <c r="MP47" s="0"/>
+      <c r="MQ47" s="0"/>
+      <c r="MR47" s="0"/>
+      <c r="MS47" s="0"/>
+      <c r="MT47" s="0"/>
+      <c r="MU47" s="0"/>
+      <c r="MV47" s="0"/>
+      <c r="MW47" s="0"/>
+      <c r="MX47" s="0"/>
+      <c r="MY47" s="0"/>
+      <c r="MZ47" s="0"/>
+      <c r="NA47" s="0"/>
+      <c r="NB47" s="0"/>
+      <c r="NC47" s="0"/>
+      <c r="ND47" s="0"/>
+      <c r="NE47" s="0"/>
+      <c r="NF47" s="0"/>
+      <c r="NG47" s="0"/>
+      <c r="NH47" s="0"/>
+      <c r="NI47" s="0"/>
+      <c r="NJ47" s="0"/>
+      <c r="NK47" s="0"/>
+      <c r="NL47" s="0"/>
+      <c r="NM47" s="0"/>
+      <c r="NN47" s="0"/>
+      <c r="NO47" s="0"/>
+      <c r="NP47" s="0"/>
+      <c r="NQ47" s="0"/>
+      <c r="NR47" s="0"/>
+      <c r="NS47" s="0"/>
+      <c r="NT47" s="0"/>
+      <c r="NU47" s="0"/>
+      <c r="NV47" s="0"/>
+      <c r="NW47" s="0"/>
+      <c r="NX47" s="0"/>
+      <c r="NY47" s="0"/>
+      <c r="NZ47" s="0"/>
+      <c r="OA47" s="0"/>
+      <c r="OB47" s="0"/>
+      <c r="OC47" s="0"/>
+      <c r="OD47" s="0"/>
+      <c r="OE47" s="0"/>
+      <c r="OF47" s="0"/>
+      <c r="OG47" s="0"/>
+      <c r="OH47" s="0"/>
+      <c r="OI47" s="0"/>
+      <c r="OJ47" s="0"/>
+      <c r="OK47" s="0"/>
+      <c r="OL47" s="0"/>
+      <c r="OM47" s="0"/>
+      <c r="ON47" s="0"/>
+      <c r="OO47" s="0"/>
+      <c r="OP47" s="0"/>
+      <c r="OQ47" s="0"/>
+      <c r="OR47" s="0"/>
+      <c r="OS47" s="0"/>
+      <c r="OT47" s="0"/>
+      <c r="OU47" s="0"/>
+      <c r="OV47" s="0"/>
+      <c r="OW47" s="0"/>
+      <c r="OX47" s="0"/>
+      <c r="OY47" s="0"/>
+      <c r="OZ47" s="0"/>
+      <c r="PA47" s="0"/>
+      <c r="PB47" s="0"/>
+      <c r="PC47" s="0"/>
+      <c r="PD47" s="0"/>
+      <c r="PE47" s="0"/>
+      <c r="PF47" s="0"/>
+      <c r="PG47" s="0"/>
+      <c r="PH47" s="0"/>
+      <c r="PI47" s="0"/>
+      <c r="PJ47" s="0"/>
+      <c r="PK47" s="0"/>
+      <c r="PL47" s="0"/>
+      <c r="PM47" s="0"/>
+      <c r="PN47" s="0"/>
+      <c r="PO47" s="0"/>
+      <c r="PP47" s="0"/>
+      <c r="PQ47" s="0"/>
+      <c r="PR47" s="0"/>
+      <c r="PS47" s="0"/>
+      <c r="PT47" s="0"/>
+      <c r="PU47" s="0"/>
+      <c r="PV47" s="0"/>
+      <c r="PW47" s="0"/>
+      <c r="PX47" s="0"/>
+      <c r="PY47" s="0"/>
+      <c r="PZ47" s="0"/>
+      <c r="QA47" s="0"/>
+      <c r="QB47" s="0"/>
+      <c r="QC47" s="0"/>
+      <c r="QD47" s="0"/>
+      <c r="QE47" s="0"/>
+      <c r="QF47" s="0"/>
+      <c r="QG47" s="0"/>
+      <c r="QH47" s="0"/>
+      <c r="QI47" s="0"/>
+      <c r="QJ47" s="0"/>
+      <c r="QK47" s="0"/>
+      <c r="QL47" s="0"/>
+      <c r="QM47" s="0"/>
+      <c r="QN47" s="0"/>
+      <c r="QO47" s="0"/>
+      <c r="QP47" s="0"/>
+      <c r="QQ47" s="0"/>
+      <c r="QR47" s="0"/>
+      <c r="QS47" s="0"/>
+      <c r="QT47" s="0"/>
+      <c r="QU47" s="0"/>
+      <c r="QV47" s="0"/>
+      <c r="QW47" s="0"/>
+      <c r="QX47" s="0"/>
+      <c r="QY47" s="0"/>
+      <c r="QZ47" s="0"/>
+      <c r="RA47" s="0"/>
+      <c r="RB47" s="0"/>
+      <c r="RC47" s="0"/>
+      <c r="RD47" s="0"/>
+      <c r="RE47" s="0"/>
+      <c r="RF47" s="0"/>
+      <c r="RG47" s="0"/>
+      <c r="RH47" s="0"/>
+      <c r="RI47" s="0"/>
+      <c r="RJ47" s="0"/>
+      <c r="RK47" s="0"/>
+      <c r="RL47" s="0"/>
+      <c r="RM47" s="0"/>
+      <c r="RN47" s="0"/>
+      <c r="RO47" s="0"/>
+      <c r="RP47" s="0"/>
+      <c r="RQ47" s="0"/>
+      <c r="RR47" s="0"/>
+      <c r="RS47" s="0"/>
+      <c r="RT47" s="0"/>
+      <c r="RU47" s="0"/>
+      <c r="RV47" s="0"/>
+      <c r="RW47" s="0"/>
+      <c r="RX47" s="0"/>
+      <c r="RY47" s="0"/>
+      <c r="RZ47" s="0"/>
+      <c r="SA47" s="0"/>
+      <c r="SB47" s="0"/>
+      <c r="SC47" s="0"/>
+      <c r="SD47" s="0"/>
+      <c r="SE47" s="0"/>
+      <c r="SF47" s="0"/>
+      <c r="SG47" s="0"/>
+      <c r="SH47" s="0"/>
+      <c r="SI47" s="0"/>
+      <c r="SJ47" s="0"/>
+      <c r="SK47" s="0"/>
+      <c r="SL47" s="0"/>
+      <c r="SM47" s="0"/>
+      <c r="SN47" s="0"/>
+      <c r="SO47" s="0"/>
+      <c r="SP47" s="0"/>
+      <c r="SQ47" s="0"/>
+      <c r="SR47" s="0"/>
+      <c r="SS47" s="0"/>
+      <c r="ST47" s="0"/>
+      <c r="SU47" s="0"/>
+      <c r="SV47" s="0"/>
+      <c r="SW47" s="0"/>
+      <c r="SX47" s="0"/>
+      <c r="SY47" s="0"/>
+      <c r="SZ47" s="0"/>
+      <c r="TA47" s="0"/>
+      <c r="TB47" s="0"/>
+      <c r="TC47" s="0"/>
+      <c r="TD47" s="0"/>
+      <c r="TE47" s="0"/>
+      <c r="TF47" s="0"/>
+      <c r="TG47" s="0"/>
+      <c r="TH47" s="0"/>
+      <c r="TI47" s="0"/>
+      <c r="TJ47" s="0"/>
+      <c r="TK47" s="0"/>
+      <c r="TL47" s="0"/>
+      <c r="TM47" s="0"/>
+      <c r="TN47" s="0"/>
+      <c r="TO47" s="0"/>
+      <c r="TP47" s="0"/>
+      <c r="TQ47" s="0"/>
+      <c r="TR47" s="0"/>
+      <c r="TS47" s="0"/>
+      <c r="TT47" s="0"/>
+      <c r="TU47" s="0"/>
+      <c r="TV47" s="0"/>
+      <c r="TW47" s="0"/>
+      <c r="TX47" s="0"/>
+      <c r="TY47" s="0"/>
+      <c r="TZ47" s="0"/>
+      <c r="UA47" s="0"/>
+      <c r="UB47" s="0"/>
+      <c r="UC47" s="0"/>
+      <c r="UD47" s="0"/>
+      <c r="UE47" s="0"/>
+      <c r="UF47" s="0"/>
+      <c r="UG47" s="0"/>
+      <c r="UH47" s="0"/>
+      <c r="UI47" s="0"/>
+      <c r="UJ47" s="0"/>
+      <c r="UK47" s="0"/>
+      <c r="UL47" s="0"/>
+      <c r="UM47" s="0"/>
+      <c r="UN47" s="0"/>
+      <c r="UO47" s="0"/>
+      <c r="UP47" s="0"/>
+      <c r="UQ47" s="0"/>
+      <c r="UR47" s="0"/>
+      <c r="US47" s="0"/>
+      <c r="UT47" s="0"/>
+      <c r="UU47" s="0"/>
+      <c r="UV47" s="0"/>
+      <c r="UW47" s="0"/>
+      <c r="UX47" s="0"/>
+      <c r="UY47" s="0"/>
+      <c r="UZ47" s="0"/>
+      <c r="VA47" s="0"/>
+      <c r="VB47" s="0"/>
+      <c r="VC47" s="0"/>
+      <c r="VD47" s="0"/>
+      <c r="VE47" s="0"/>
+      <c r="VF47" s="0"/>
+      <c r="VG47" s="0"/>
+      <c r="VH47" s="0"/>
+      <c r="VI47" s="0"/>
+      <c r="VJ47" s="0"/>
+      <c r="VK47" s="0"/>
+      <c r="VL47" s="0"/>
+      <c r="VM47" s="0"/>
+      <c r="VN47" s="0"/>
+      <c r="VO47" s="0"/>
+      <c r="VP47" s="0"/>
+      <c r="VQ47" s="0"/>
+      <c r="VR47" s="0"/>
+      <c r="VS47" s="0"/>
+      <c r="VT47" s="0"/>
+      <c r="VU47" s="0"/>
+      <c r="VV47" s="0"/>
+      <c r="VW47" s="0"/>
+      <c r="VX47" s="0"/>
+      <c r="VY47" s="0"/>
+      <c r="VZ47" s="0"/>
+      <c r="WA47" s="0"/>
+      <c r="WB47" s="0"/>
+      <c r="WC47" s="0"/>
+      <c r="WD47" s="0"/>
+      <c r="WE47" s="0"/>
+      <c r="WF47" s="0"/>
+      <c r="WG47" s="0"/>
+      <c r="WH47" s="0"/>
+      <c r="WI47" s="0"/>
+      <c r="WJ47" s="0"/>
+      <c r="WK47" s="0"/>
+      <c r="WL47" s="0"/>
+      <c r="WM47" s="0"/>
+      <c r="WN47" s="0"/>
+      <c r="WO47" s="0"/>
+      <c r="WP47" s="0"/>
+      <c r="WQ47" s="0"/>
+      <c r="WR47" s="0"/>
+      <c r="WS47" s="0"/>
+      <c r="WT47" s="0"/>
+      <c r="WU47" s="0"/>
+      <c r="WV47" s="0"/>
+      <c r="WW47" s="0"/>
+      <c r="WX47" s="0"/>
+      <c r="WY47" s="0"/>
+      <c r="WZ47" s="0"/>
+      <c r="XA47" s="0"/>
+      <c r="XB47" s="0"/>
+      <c r="XC47" s="0"/>
+      <c r="XD47" s="0"/>
+      <c r="XE47" s="0"/>
+      <c r="XF47" s="0"/>
+      <c r="XG47" s="0"/>
+      <c r="XH47" s="0"/>
+      <c r="XI47" s="0"/>
+      <c r="XJ47" s="0"/>
+      <c r="XK47" s="0"/>
+      <c r="XL47" s="0"/>
+      <c r="XM47" s="0"/>
+      <c r="XN47" s="0"/>
+      <c r="XO47" s="0"/>
+      <c r="XP47" s="0"/>
+      <c r="XQ47" s="0"/>
+      <c r="XR47" s="0"/>
+      <c r="XS47" s="0"/>
+      <c r="XT47" s="0"/>
+      <c r="XU47" s="0"/>
+      <c r="XV47" s="0"/>
+      <c r="XW47" s="0"/>
+      <c r="XX47" s="0"/>
+      <c r="XY47" s="0"/>
+      <c r="XZ47" s="0"/>
+      <c r="YA47" s="0"/>
+      <c r="YB47" s="0"/>
+      <c r="YC47" s="0"/>
+      <c r="YD47" s="0"/>
+      <c r="YE47" s="0"/>
+      <c r="YF47" s="0"/>
+      <c r="YG47" s="0"/>
+      <c r="YH47" s="0"/>
+      <c r="YI47" s="0"/>
+      <c r="YJ47" s="0"/>
+      <c r="YK47" s="0"/>
+      <c r="YL47" s="0"/>
+      <c r="YM47" s="0"/>
+      <c r="YN47" s="0"/>
+      <c r="YO47" s="0"/>
+      <c r="YP47" s="0"/>
+      <c r="YQ47" s="0"/>
+      <c r="YR47" s="0"/>
+      <c r="YS47" s="0"/>
+      <c r="YT47" s="0"/>
+      <c r="YU47" s="0"/>
+      <c r="YV47" s="0"/>
+      <c r="YW47" s="0"/>
+      <c r="YX47" s="0"/>
+      <c r="YY47" s="0"/>
+      <c r="YZ47" s="0"/>
+      <c r="ZA47" s="0"/>
+      <c r="ZB47" s="0"/>
+      <c r="ZC47" s="0"/>
+      <c r="ZD47" s="0"/>
+      <c r="ZE47" s="0"/>
+      <c r="ZF47" s="0"/>
+      <c r="ZG47" s="0"/>
+      <c r="ZH47" s="0"/>
+      <c r="ZI47" s="0"/>
+      <c r="ZJ47" s="0"/>
+      <c r="ZK47" s="0"/>
+      <c r="ZL47" s="0"/>
+      <c r="ZM47" s="0"/>
+      <c r="ZN47" s="0"/>
+      <c r="ZO47" s="0"/>
+      <c r="ZP47" s="0"/>
+      <c r="ZQ47" s="0"/>
+      <c r="ZR47" s="0"/>
+      <c r="ZS47" s="0"/>
+      <c r="ZT47" s="0"/>
+      <c r="ZU47" s="0"/>
+      <c r="ZV47" s="0"/>
+      <c r="ZW47" s="0"/>
+      <c r="ZX47" s="0"/>
+      <c r="ZY47" s="0"/>
+      <c r="ZZ47" s="0"/>
+      <c r="AAA47" s="0"/>
+      <c r="AAB47" s="0"/>
+      <c r="AAC47" s="0"/>
+      <c r="AAD47" s="0"/>
+      <c r="AAE47" s="0"/>
+      <c r="AAF47" s="0"/>
+      <c r="AAG47" s="0"/>
+      <c r="AAH47" s="0"/>
+      <c r="AAI47" s="0"/>
+      <c r="AAJ47" s="0"/>
+      <c r="AAK47" s="0"/>
+      <c r="AAL47" s="0"/>
+      <c r="AAM47" s="0"/>
+      <c r="AAN47" s="0"/>
+      <c r="AAO47" s="0"/>
+      <c r="AAP47" s="0"/>
+      <c r="AAQ47" s="0"/>
+      <c r="AAR47" s="0"/>
+      <c r="AAS47" s="0"/>
+      <c r="AAT47" s="0"/>
+      <c r="AAU47" s="0"/>
+      <c r="AAV47" s="0"/>
+      <c r="AAW47" s="0"/>
+      <c r="AAX47" s="0"/>
+      <c r="AAY47" s="0"/>
+      <c r="AAZ47" s="0"/>
+      <c r="ABA47" s="0"/>
+      <c r="ABB47" s="0"/>
+      <c r="ABC47" s="0"/>
+      <c r="ABD47" s="0"/>
+      <c r="ABE47" s="0"/>
+      <c r="ABF47" s="0"/>
+      <c r="ABG47" s="0"/>
+      <c r="ABH47" s="0"/>
+      <c r="ABI47" s="0"/>
+      <c r="ABJ47" s="0"/>
+      <c r="ABK47" s="0"/>
+      <c r="ABL47" s="0"/>
+      <c r="ABM47" s="0"/>
+      <c r="ABN47" s="0"/>
+      <c r="ABO47" s="0"/>
+      <c r="ABP47" s="0"/>
+      <c r="ABQ47" s="0"/>
+      <c r="ABR47" s="0"/>
+      <c r="ABS47" s="0"/>
+      <c r="ABT47" s="0"/>
+      <c r="ABU47" s="0"/>
+      <c r="ABV47" s="0"/>
+      <c r="ABW47" s="0"/>
+      <c r="ABX47" s="0"/>
+      <c r="ABY47" s="0"/>
+      <c r="ABZ47" s="0"/>
+      <c r="ACA47" s="0"/>
+      <c r="ACB47" s="0"/>
+      <c r="ACC47" s="0"/>
+      <c r="ACD47" s="0"/>
+      <c r="ACE47" s="0"/>
+      <c r="ACF47" s="0"/>
+      <c r="ACG47" s="0"/>
+      <c r="ACH47" s="0"/>
+      <c r="ACI47" s="0"/>
+      <c r="ACJ47" s="0"/>
+      <c r="ACK47" s="0"/>
+      <c r="ACL47" s="0"/>
+      <c r="ACM47" s="0"/>
+      <c r="ACN47" s="0"/>
+      <c r="ACO47" s="0"/>
+      <c r="ACP47" s="0"/>
+      <c r="ACQ47" s="0"/>
+      <c r="ACR47" s="0"/>
+      <c r="ACS47" s="0"/>
+      <c r="ACT47" s="0"/>
+      <c r="ACU47" s="0"/>
+      <c r="ACV47" s="0"/>
+      <c r="ACW47" s="0"/>
+      <c r="ACX47" s="0"/>
+      <c r="ACY47" s="0"/>
+      <c r="ACZ47" s="0"/>
+      <c r="ADA47" s="0"/>
+      <c r="ADB47" s="0"/>
+      <c r="ADC47" s="0"/>
+      <c r="ADD47" s="0"/>
+      <c r="ADE47" s="0"/>
+      <c r="ADF47" s="0"/>
+      <c r="ADG47" s="0"/>
+      <c r="ADH47" s="0"/>
+      <c r="ADI47" s="0"/>
+      <c r="ADJ47" s="0"/>
+      <c r="ADK47" s="0"/>
+      <c r="ADL47" s="0"/>
+      <c r="ADM47" s="0"/>
+      <c r="ADN47" s="0"/>
+      <c r="ADO47" s="0"/>
+      <c r="ADP47" s="0"/>
+      <c r="ADQ47" s="0"/>
+      <c r="ADR47" s="0"/>
+      <c r="ADS47" s="0"/>
+      <c r="ADT47" s="0"/>
+      <c r="ADU47" s="0"/>
+      <c r="ADV47" s="0"/>
+      <c r="ADW47" s="0"/>
+      <c r="ADX47" s="0"/>
+      <c r="ADY47" s="0"/>
+      <c r="ADZ47" s="0"/>
+      <c r="AEA47" s="0"/>
+      <c r="AEB47" s="0"/>
+      <c r="AEC47" s="0"/>
+      <c r="AED47" s="0"/>
+      <c r="AEE47" s="0"/>
+      <c r="AEF47" s="0"/>
+      <c r="AEG47" s="0"/>
+      <c r="AEH47" s="0"/>
+      <c r="AEI47" s="0"/>
+      <c r="AEJ47" s="0"/>
+      <c r="AEK47" s="0"/>
+      <c r="AEL47" s="0"/>
+      <c r="AEM47" s="0"/>
+      <c r="AEN47" s="0"/>
+      <c r="AEO47" s="0"/>
+      <c r="AEP47" s="0"/>
+      <c r="AEQ47" s="0"/>
+      <c r="AER47" s="0"/>
+      <c r="AES47" s="0"/>
+      <c r="AET47" s="0"/>
+      <c r="AEU47" s="0"/>
+      <c r="AEV47" s="0"/>
+      <c r="AEW47" s="0"/>
+      <c r="AEX47" s="0"/>
+      <c r="AEY47" s="0"/>
+      <c r="AEZ47" s="0"/>
+      <c r="AFA47" s="0"/>
+      <c r="AFB47" s="0"/>
+      <c r="AFC47" s="0"/>
+      <c r="AFD47" s="0"/>
+      <c r="AFE47" s="0"/>
+      <c r="AFF47" s="0"/>
+      <c r="AFG47" s="0"/>
+      <c r="AFH47" s="0"/>
+      <c r="AFI47" s="0"/>
+      <c r="AFJ47" s="0"/>
+      <c r="AFK47" s="0"/>
+      <c r="AFL47" s="0"/>
+      <c r="AFM47" s="0"/>
+      <c r="AFN47" s="0"/>
+      <c r="AFO47" s="0"/>
+      <c r="AFP47" s="0"/>
+      <c r="AFQ47" s="0"/>
+      <c r="AFR47" s="0"/>
+      <c r="AFS47" s="0"/>
+      <c r="AFT47" s="0"/>
+      <c r="AFU47" s="0"/>
+      <c r="AFV47" s="0"/>
+      <c r="AFW47" s="0"/>
+      <c r="AFX47" s="0"/>
+      <c r="AFY47" s="0"/>
+      <c r="AFZ47" s="0"/>
+      <c r="AGA47" s="0"/>
+      <c r="AGB47" s="0"/>
+      <c r="AGC47" s="0"/>
+      <c r="AGD47" s="0"/>
+      <c r="AGE47" s="0"/>
+      <c r="AGF47" s="0"/>
+      <c r="AGG47" s="0"/>
+      <c r="AGH47" s="0"/>
+      <c r="AGI47" s="0"/>
+      <c r="AGJ47" s="0"/>
+      <c r="AGK47" s="0"/>
+      <c r="AGL47" s="0"/>
+      <c r="AGM47" s="0"/>
+      <c r="AGN47" s="0"/>
+      <c r="AGO47" s="0"/>
+      <c r="AGP47" s="0"/>
+      <c r="AGQ47" s="0"/>
+      <c r="AGR47" s="0"/>
+      <c r="AGS47" s="0"/>
+      <c r="AGT47" s="0"/>
+      <c r="AGU47" s="0"/>
+      <c r="AGV47" s="0"/>
+      <c r="AGW47" s="0"/>
+      <c r="AGX47" s="0"/>
+      <c r="AGY47" s="0"/>
+      <c r="AGZ47" s="0"/>
+      <c r="AHA47" s="0"/>
+      <c r="AHB47" s="0"/>
+      <c r="AHC47" s="0"/>
+      <c r="AHD47" s="0"/>
+      <c r="AHE47" s="0"/>
+      <c r="AHF47" s="0"/>
+      <c r="AHG47" s="0"/>
+      <c r="AHH47" s="0"/>
+      <c r="AHI47" s="0"/>
+      <c r="AHJ47" s="0"/>
+      <c r="AHK47" s="0"/>
+      <c r="AHL47" s="0"/>
+      <c r="AHM47" s="0"/>
+      <c r="AHN47" s="0"/>
+      <c r="AHO47" s="0"/>
+      <c r="AHP47" s="0"/>
+      <c r="AHQ47" s="0"/>
+      <c r="AHR47" s="0"/>
+      <c r="AHS47" s="0"/>
+      <c r="AHT47" s="0"/>
+      <c r="AHU47" s="0"/>
+      <c r="AHV47" s="0"/>
+      <c r="AHW47" s="0"/>
+      <c r="AHX47" s="0"/>
+      <c r="AHY47" s="0"/>
+      <c r="AHZ47" s="0"/>
+      <c r="AIA47" s="0"/>
+      <c r="AIB47" s="0"/>
+      <c r="AIC47" s="0"/>
+      <c r="AID47" s="0"/>
+      <c r="AIE47" s="0"/>
+      <c r="AIF47" s="0"/>
+      <c r="AIG47" s="0"/>
+      <c r="AIH47" s="0"/>
+      <c r="AII47" s="0"/>
+      <c r="AIJ47" s="0"/>
+      <c r="AIK47" s="0"/>
+      <c r="AIL47" s="0"/>
+      <c r="AIM47" s="0"/>
+      <c r="AIN47" s="0"/>
+      <c r="AIO47" s="0"/>
+      <c r="AIP47" s="0"/>
+      <c r="AIQ47" s="0"/>
+      <c r="AIR47" s="0"/>
+      <c r="AIS47" s="0"/>
+      <c r="AIT47" s="0"/>
+      <c r="AIU47" s="0"/>
+      <c r="AIV47" s="0"/>
+      <c r="AIW47" s="0"/>
+      <c r="AIX47" s="0"/>
+      <c r="AIY47" s="0"/>
+      <c r="AIZ47" s="0"/>
+      <c r="AJA47" s="0"/>
+      <c r="AJB47" s="0"/>
+      <c r="AJC47" s="0"/>
+      <c r="AJD47" s="0"/>
+      <c r="AJE47" s="0"/>
+      <c r="AJF47" s="0"/>
+      <c r="AJG47" s="0"/>
+      <c r="AJH47" s="0"/>
+      <c r="AJI47" s="0"/>
+      <c r="AJJ47" s="0"/>
+      <c r="AJK47" s="0"/>
+      <c r="AJL47" s="0"/>
+      <c r="AJM47" s="0"/>
+      <c r="AJN47" s="0"/>
+      <c r="AJO47" s="0"/>
+      <c r="AJP47" s="0"/>
+      <c r="AJQ47" s="0"/>
+      <c r="AJR47" s="0"/>
+      <c r="AJS47" s="0"/>
+      <c r="AJT47" s="0"/>
+      <c r="AJU47" s="0"/>
+      <c r="AJV47" s="0"/>
+      <c r="AJW47" s="0"/>
+      <c r="AJX47" s="0"/>
+      <c r="AJY47" s="0"/>
+      <c r="AJZ47" s="0"/>
+      <c r="AKA47" s="0"/>
+      <c r="AKB47" s="0"/>
+      <c r="AKC47" s="0"/>
+      <c r="AKD47" s="0"/>
+      <c r="AKE47" s="0"/>
+      <c r="AKF47" s="0"/>
+      <c r="AKG47" s="0"/>
+      <c r="AKH47" s="0"/>
+      <c r="AKI47" s="0"/>
+      <c r="AKJ47" s="0"/>
+      <c r="AKK47" s="0"/>
+      <c r="AKL47" s="0"/>
+      <c r="AKM47" s="0"/>
+      <c r="AKN47" s="0"/>
+      <c r="AKO47" s="0"/>
+      <c r="AKP47" s="0"/>
+      <c r="AKQ47" s="0"/>
+      <c r="AKR47" s="0"/>
+      <c r="AKS47" s="0"/>
+      <c r="AKT47" s="0"/>
+      <c r="AKU47" s="0"/>
+      <c r="AKV47" s="0"/>
+      <c r="AKW47" s="0"/>
+      <c r="AKX47" s="0"/>
+      <c r="AKY47" s="0"/>
+      <c r="AKZ47" s="0"/>
+      <c r="ALA47" s="0"/>
+      <c r="ALB47" s="0"/>
+      <c r="ALC47" s="0"/>
+      <c r="ALD47" s="0"/>
+      <c r="ALE47" s="0"/>
+      <c r="ALF47" s="0"/>
+      <c r="ALG47" s="0"/>
+      <c r="ALH47" s="0"/>
+      <c r="ALI47" s="0"/>
+      <c r="ALJ47" s="0"/>
+      <c r="ALK47" s="0"/>
+      <c r="ALL47" s="0"/>
+      <c r="ALM47" s="0"/>
+      <c r="ALN47" s="0"/>
+      <c r="ALO47" s="0"/>
+      <c r="ALP47" s="0"/>
+      <c r="ALQ47" s="0"/>
+      <c r="ALR47" s="0"/>
+      <c r="ALS47" s="0"/>
+      <c r="ALT47" s="0"/>
+      <c r="ALU47" s="0"/>
+      <c r="ALV47" s="0"/>
+      <c r="ALW47" s="0"/>
+      <c r="ALX47" s="0"/>
+      <c r="ALY47" s="0"/>
+      <c r="ALZ47" s="0"/>
+      <c r="AMA47" s="0"/>
+      <c r="AMB47" s="0"/>
+      <c r="AMC47" s="0"/>
+      <c r="AMD47" s="0"/>
+      <c r="AME47" s="0"/>
+      <c r="AMF47" s="0"/>
+      <c r="AMG47" s="0"/>
+      <c r="AMH47" s="0"/>
+      <c r="AMI47" s="0"/>
+      <c r="AMJ47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0"/>
+      <c r="N48" s="0"/>
+      <c r="O48" s="0"/>
+      <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
+      <c r="S48" s="0"/>
+      <c r="T48" s="0"/>
+      <c r="U48" s="0"/>
+      <c r="V48" s="0"/>
+      <c r="W48" s="0"/>
+      <c r="X48" s="0"/>
+      <c r="Y48" s="0"/>
+      <c r="Z48" s="0"/>
+      <c r="AA48" s="0"/>
+      <c r="AB48" s="0"/>
+      <c r="AC48" s="0"/>
+      <c r="AD48" s="0"/>
+      <c r="AE48" s="0"/>
+      <c r="AF48" s="0"/>
+      <c r="AG48" s="0"/>
+      <c r="AH48" s="0"/>
+      <c r="AI48" s="0"/>
+      <c r="AJ48" s="0"/>
+      <c r="AK48" s="0"/>
+      <c r="AL48" s="0"/>
+      <c r="AM48" s="0"/>
+      <c r="AN48" s="0"/>
+      <c r="AO48" s="0"/>
+      <c r="AP48" s="0"/>
+      <c r="AQ48" s="0"/>
+      <c r="AR48" s="0"/>
+      <c r="AS48" s="0"/>
+      <c r="AT48" s="0"/>
+      <c r="AU48" s="0"/>
+      <c r="AV48" s="0"/>
+      <c r="AW48" s="0"/>
+      <c r="AX48" s="0"/>
+      <c r="AY48" s="0"/>
+      <c r="AZ48" s="0"/>
+      <c r="BA48" s="0"/>
+      <c r="BB48" s="0"/>
+      <c r="BC48" s="0"/>
+      <c r="BD48" s="0"/>
+      <c r="BE48" s="0"/>
+      <c r="BF48" s="0"/>
+      <c r="BG48" s="0"/>
+      <c r="BH48" s="0"/>
+      <c r="BI48" s="0"/>
+      <c r="BJ48" s="0"/>
+      <c r="BK48" s="0"/>
+      <c r="BL48" s="0"/>
+      <c r="BM48" s="0"/>
+      <c r="BN48" s="0"/>
+      <c r="BO48" s="0"/>
+      <c r="BP48" s="0"/>
+      <c r="BQ48" s="0"/>
+      <c r="BR48" s="0"/>
+      <c r="BS48" s="0"/>
+      <c r="BT48" s="0"/>
+      <c r="BU48" s="0"/>
+      <c r="BV48" s="0"/>
+      <c r="BW48" s="0"/>
+      <c r="BX48" s="0"/>
+      <c r="BY48" s="0"/>
+      <c r="BZ48" s="0"/>
+      <c r="CA48" s="0"/>
+      <c r="CB48" s="0"/>
+      <c r="CC48" s="0"/>
+      <c r="CD48" s="0"/>
+      <c r="CE48" s="0"/>
+      <c r="CF48" s="0"/>
+      <c r="CG48" s="0"/>
+      <c r="CH48" s="0"/>
+      <c r="CI48" s="0"/>
+      <c r="CJ48" s="0"/>
+      <c r="CK48" s="0"/>
+      <c r="CL48" s="0"/>
+      <c r="CM48" s="0"/>
+      <c r="CN48" s="0"/>
+      <c r="CO48" s="0"/>
+      <c r="CP48" s="0"/>
+      <c r="CQ48" s="0"/>
+      <c r="CR48" s="0"/>
+      <c r="CS48" s="0"/>
+      <c r="CT48" s="0"/>
+      <c r="CU48" s="0"/>
+      <c r="CV48" s="0"/>
+      <c r="CW48" s="0"/>
+      <c r="CX48" s="0"/>
+      <c r="CY48" s="0"/>
+      <c r="CZ48" s="0"/>
+      <c r="DA48" s="0"/>
+      <c r="DB48" s="0"/>
+      <c r="DC48" s="0"/>
+      <c r="DD48" s="0"/>
+      <c r="DE48" s="0"/>
+      <c r="DF48" s="0"/>
+      <c r="DG48" s="0"/>
+      <c r="DH48" s="0"/>
+      <c r="DI48" s="0"/>
+      <c r="DJ48" s="0"/>
+      <c r="DK48" s="0"/>
+      <c r="DL48" s="0"/>
+      <c r="DM48" s="0"/>
+      <c r="DN48" s="0"/>
+      <c r="DO48" s="0"/>
+      <c r="DP48" s="0"/>
+      <c r="DQ48" s="0"/>
+      <c r="DR48" s="0"/>
+      <c r="DS48" s="0"/>
+      <c r="DT48" s="0"/>
+      <c r="DU48" s="0"/>
+      <c r="DV48" s="0"/>
+      <c r="DW48" s="0"/>
+      <c r="DX48" s="0"/>
+      <c r="DY48" s="0"/>
+      <c r="DZ48" s="0"/>
+      <c r="EA48" s="0"/>
+      <c r="EB48" s="0"/>
+      <c r="EC48" s="0"/>
+      <c r="ED48" s="0"/>
+      <c r="EE48" s="0"/>
+      <c r="EF48" s="0"/>
+      <c r="EG48" s="0"/>
+      <c r="EH48" s="0"/>
+      <c r="EI48" s="0"/>
+      <c r="EJ48" s="0"/>
+      <c r="EK48" s="0"/>
+      <c r="EL48" s="0"/>
+      <c r="EM48" s="0"/>
+      <c r="EN48" s="0"/>
+      <c r="EO48" s="0"/>
+      <c r="EP48" s="0"/>
+      <c r="EQ48" s="0"/>
+      <c r="ER48" s="0"/>
+      <c r="ES48" s="0"/>
+      <c r="ET48" s="0"/>
+      <c r="EU48" s="0"/>
+      <c r="EV48" s="0"/>
+      <c r="EW48" s="0"/>
+      <c r="EX48" s="0"/>
+      <c r="EY48" s="0"/>
+      <c r="EZ48" s="0"/>
+      <c r="FA48" s="0"/>
+      <c r="FB48" s="0"/>
+      <c r="FC48" s="0"/>
+      <c r="FD48" s="0"/>
+      <c r="FE48" s="0"/>
+      <c r="FF48" s="0"/>
+      <c r="FG48" s="0"/>
+      <c r="FH48" s="0"/>
+      <c r="FI48" s="0"/>
+      <c r="FJ48" s="0"/>
+      <c r="FK48" s="0"/>
+      <c r="FL48" s="0"/>
+      <c r="FM48" s="0"/>
+      <c r="FN48" s="0"/>
+      <c r="FO48" s="0"/>
+      <c r="FP48" s="0"/>
+      <c r="FQ48" s="0"/>
+      <c r="FR48" s="0"/>
+      <c r="FS48" s="0"/>
+      <c r="FT48" s="0"/>
+      <c r="FU48" s="0"/>
+      <c r="FV48" s="0"/>
+      <c r="FW48" s="0"/>
+      <c r="FX48" s="0"/>
+      <c r="FY48" s="0"/>
+      <c r="FZ48" s="0"/>
+      <c r="GA48" s="0"/>
+      <c r="GB48" s="0"/>
+      <c r="GC48" s="0"/>
+      <c r="GD48" s="0"/>
+      <c r="GE48" s="0"/>
+      <c r="GF48" s="0"/>
+      <c r="GG48" s="0"/>
+      <c r="GH48" s="0"/>
+      <c r="GI48" s="0"/>
+      <c r="GJ48" s="0"/>
+      <c r="GK48" s="0"/>
+      <c r="GL48" s="0"/>
+      <c r="GM48" s="0"/>
+      <c r="GN48" s="0"/>
+      <c r="GO48" s="0"/>
+      <c r="GP48" s="0"/>
+      <c r="GQ48" s="0"/>
+      <c r="GR48" s="0"/>
+      <c r="GS48" s="0"/>
+      <c r="GT48" s="0"/>
+      <c r="GU48" s="0"/>
+      <c r="GV48" s="0"/>
+      <c r="GW48" s="0"/>
+      <c r="GX48" s="0"/>
+      <c r="GY48" s="0"/>
+      <c r="GZ48" s="0"/>
+      <c r="HA48" s="0"/>
+      <c r="HB48" s="0"/>
+      <c r="HC48" s="0"/>
+      <c r="HD48" s="0"/>
+      <c r="HE48" s="0"/>
+      <c r="HF48" s="0"/>
+      <c r="HG48" s="0"/>
+      <c r="HH48" s="0"/>
+      <c r="HI48" s="0"/>
+      <c r="HJ48" s="0"/>
+      <c r="HK48" s="0"/>
+      <c r="HL48" s="0"/>
+      <c r="HM48" s="0"/>
+      <c r="HN48" s="0"/>
+      <c r="HO48" s="0"/>
+      <c r="HP48" s="0"/>
+      <c r="HQ48" s="0"/>
+      <c r="HR48" s="0"/>
+      <c r="HS48" s="0"/>
+      <c r="HT48" s="0"/>
+      <c r="HU48" s="0"/>
+      <c r="HV48" s="0"/>
+      <c r="HW48" s="0"/>
+      <c r="HX48" s="0"/>
+      <c r="HY48" s="0"/>
+      <c r="HZ48" s="0"/>
+      <c r="IA48" s="0"/>
+      <c r="IB48" s="0"/>
+      <c r="IC48" s="0"/>
+      <c r="ID48" s="0"/>
+      <c r="IE48" s="0"/>
+      <c r="IF48" s="0"/>
+      <c r="IG48" s="0"/>
+      <c r="IH48" s="0"/>
+      <c r="II48" s="0"/>
+      <c r="IJ48" s="0"/>
+      <c r="IK48" s="0"/>
+      <c r="IL48" s="0"/>
+      <c r="IM48" s="0"/>
+      <c r="IN48" s="0"/>
+      <c r="IO48" s="0"/>
+      <c r="IP48" s="0"/>
+      <c r="IQ48" s="0"/>
+      <c r="IR48" s="0"/>
+      <c r="IS48" s="0"/>
+      <c r="IT48" s="0"/>
+      <c r="IU48" s="0"/>
+      <c r="IV48" s="0"/>
+      <c r="IW48" s="0"/>
+      <c r="IX48" s="0"/>
+      <c r="IY48" s="0"/>
+      <c r="IZ48" s="0"/>
+      <c r="JA48" s="0"/>
+      <c r="JB48" s="0"/>
+      <c r="JC48" s="0"/>
+      <c r="JD48" s="0"/>
+      <c r="JE48" s="0"/>
+      <c r="JF48" s="0"/>
+      <c r="JG48" s="0"/>
+      <c r="JH48" s="0"/>
+      <c r="JI48" s="0"/>
+      <c r="JJ48" s="0"/>
+      <c r="JK48" s="0"/>
+      <c r="JL48" s="0"/>
+      <c r="JM48" s="0"/>
+      <c r="JN48" s="0"/>
+      <c r="JO48" s="0"/>
+      <c r="JP48" s="0"/>
+      <c r="JQ48" s="0"/>
+      <c r="JR48" s="0"/>
+      <c r="JS48" s="0"/>
+      <c r="JT48" s="0"/>
+      <c r="JU48" s="0"/>
+      <c r="JV48" s="0"/>
+      <c r="JW48" s="0"/>
+      <c r="JX48" s="0"/>
+      <c r="JY48" s="0"/>
+      <c r="JZ48" s="0"/>
+      <c r="KA48" s="0"/>
+      <c r="KB48" s="0"/>
+      <c r="KC48" s="0"/>
+      <c r="KD48" s="0"/>
+      <c r="KE48" s="0"/>
+      <c r="KF48" s="0"/>
+      <c r="KG48" s="0"/>
+      <c r="KH48" s="0"/>
+      <c r="KI48" s="0"/>
+      <c r="KJ48" s="0"/>
+      <c r="KK48" s="0"/>
+      <c r="KL48" s="0"/>
+      <c r="KM48" s="0"/>
+      <c r="KN48" s="0"/>
+      <c r="KO48" s="0"/>
+      <c r="KP48" s="0"/>
+      <c r="KQ48" s="0"/>
+      <c r="KR48" s="0"/>
+      <c r="KS48" s="0"/>
+      <c r="KT48" s="0"/>
+      <c r="KU48" s="0"/>
+      <c r="KV48" s="0"/>
+      <c r="KW48" s="0"/>
+      <c r="KX48" s="0"/>
+      <c r="KY48" s="0"/>
+      <c r="KZ48" s="0"/>
+      <c r="LA48" s="0"/>
+      <c r="LB48" s="0"/>
+      <c r="LC48" s="0"/>
+      <c r="LD48" s="0"/>
+      <c r="LE48" s="0"/>
+      <c r="LF48" s="0"/>
+      <c r="LG48" s="0"/>
+      <c r="LH48" s="0"/>
+      <c r="LI48" s="0"/>
+      <c r="LJ48" s="0"/>
+      <c r="LK48" s="0"/>
+      <c r="LL48" s="0"/>
+      <c r="LM48" s="0"/>
+      <c r="LN48" s="0"/>
+      <c r="LO48" s="0"/>
+      <c r="LP48" s="0"/>
+      <c r="LQ48" s="0"/>
+      <c r="LR48" s="0"/>
+      <c r="LS48" s="0"/>
+      <c r="LT48" s="0"/>
+      <c r="LU48" s="0"/>
+      <c r="LV48" s="0"/>
+      <c r="LW48" s="0"/>
+      <c r="LX48" s="0"/>
+      <c r="LY48" s="0"/>
+      <c r="LZ48" s="0"/>
+      <c r="MA48" s="0"/>
+      <c r="MB48" s="0"/>
+      <c r="MC48" s="0"/>
+      <c r="MD48" s="0"/>
+      <c r="ME48" s="0"/>
+      <c r="MF48" s="0"/>
+      <c r="MG48" s="0"/>
+      <c r="MH48" s="0"/>
+      <c r="MI48" s="0"/>
+      <c r="MJ48" s="0"/>
+      <c r="MK48" s="0"/>
+      <c r="ML48" s="0"/>
+      <c r="MM48" s="0"/>
+      <c r="MN48" s="0"/>
+      <c r="MO48" s="0"/>
+      <c r="MP48" s="0"/>
+      <c r="MQ48" s="0"/>
+      <c r="MR48" s="0"/>
+      <c r="MS48" s="0"/>
+      <c r="MT48" s="0"/>
+      <c r="MU48" s="0"/>
+      <c r="MV48" s="0"/>
+      <c r="MW48" s="0"/>
+      <c r="MX48" s="0"/>
+      <c r="MY48" s="0"/>
+      <c r="MZ48" s="0"/>
+      <c r="NA48" s="0"/>
+      <c r="NB48" s="0"/>
+      <c r="NC48" s="0"/>
+      <c r="ND48" s="0"/>
+      <c r="NE48" s="0"/>
+      <c r="NF48" s="0"/>
+      <c r="NG48" s="0"/>
+      <c r="NH48" s="0"/>
+      <c r="NI48" s="0"/>
+      <c r="NJ48" s="0"/>
+      <c r="NK48" s="0"/>
+      <c r="NL48" s="0"/>
+      <c r="NM48" s="0"/>
+      <c r="NN48" s="0"/>
+      <c r="NO48" s="0"/>
+      <c r="NP48" s="0"/>
+      <c r="NQ48" s="0"/>
+      <c r="NR48" s="0"/>
+      <c r="NS48" s="0"/>
+      <c r="NT48" s="0"/>
+      <c r="NU48" s="0"/>
+      <c r="NV48" s="0"/>
+      <c r="NW48" s="0"/>
+      <c r="NX48" s="0"/>
+      <c r="NY48" s="0"/>
+      <c r="NZ48" s="0"/>
+      <c r="OA48" s="0"/>
+      <c r="OB48" s="0"/>
+      <c r="OC48" s="0"/>
+      <c r="OD48" s="0"/>
+      <c r="OE48" s="0"/>
+      <c r="OF48" s="0"/>
+      <c r="OG48" s="0"/>
+      <c r="OH48" s="0"/>
+      <c r="OI48" s="0"/>
+      <c r="OJ48" s="0"/>
+      <c r="OK48" s="0"/>
+      <c r="OL48" s="0"/>
+      <c r="OM48" s="0"/>
+      <c r="ON48" s="0"/>
+      <c r="OO48" s="0"/>
+      <c r="OP48" s="0"/>
+      <c r="OQ48" s="0"/>
+      <c r="OR48" s="0"/>
+      <c r="OS48" s="0"/>
+      <c r="OT48" s="0"/>
+      <c r="OU48" s="0"/>
+      <c r="OV48" s="0"/>
+      <c r="OW48" s="0"/>
+      <c r="OX48" s="0"/>
+      <c r="OY48" s="0"/>
+      <c r="OZ48" s="0"/>
+      <c r="PA48" s="0"/>
+      <c r="PB48" s="0"/>
+      <c r="PC48" s="0"/>
+      <c r="PD48" s="0"/>
+      <c r="PE48" s="0"/>
+      <c r="PF48" s="0"/>
+      <c r="PG48" s="0"/>
+      <c r="PH48" s="0"/>
+      <c r="PI48" s="0"/>
+      <c r="PJ48" s="0"/>
+      <c r="PK48" s="0"/>
+      <c r="PL48" s="0"/>
+      <c r="PM48" s="0"/>
+      <c r="PN48" s="0"/>
+      <c r="PO48" s="0"/>
+      <c r="PP48" s="0"/>
+      <c r="PQ48" s="0"/>
+      <c r="PR48" s="0"/>
+      <c r="PS48" s="0"/>
+      <c r="PT48" s="0"/>
+      <c r="PU48" s="0"/>
+      <c r="PV48" s="0"/>
+      <c r="PW48" s="0"/>
+      <c r="PX48" s="0"/>
+      <c r="PY48" s="0"/>
+      <c r="PZ48" s="0"/>
+      <c r="QA48" s="0"/>
+      <c r="QB48" s="0"/>
+      <c r="QC48" s="0"/>
+      <c r="QD48" s="0"/>
+      <c r="QE48" s="0"/>
+      <c r="QF48" s="0"/>
+      <c r="QG48" s="0"/>
+      <c r="QH48" s="0"/>
+      <c r="QI48" s="0"/>
+      <c r="QJ48" s="0"/>
+      <c r="QK48" s="0"/>
+      <c r="QL48" s="0"/>
+      <c r="QM48" s="0"/>
+      <c r="QN48" s="0"/>
+      <c r="QO48" s="0"/>
+      <c r="QP48" s="0"/>
+      <c r="QQ48" s="0"/>
+      <c r="QR48" s="0"/>
+      <c r="QS48" s="0"/>
+      <c r="QT48" s="0"/>
+      <c r="QU48" s="0"/>
+      <c r="QV48" s="0"/>
+      <c r="QW48" s="0"/>
+      <c r="QX48" s="0"/>
+      <c r="QY48" s="0"/>
+      <c r="QZ48" s="0"/>
+      <c r="RA48" s="0"/>
+      <c r="RB48" s="0"/>
+      <c r="RC48" s="0"/>
+      <c r="RD48" s="0"/>
+      <c r="RE48" s="0"/>
+      <c r="RF48" s="0"/>
+      <c r="RG48" s="0"/>
+      <c r="RH48" s="0"/>
+      <c r="RI48" s="0"/>
+      <c r="RJ48" s="0"/>
+      <c r="RK48" s="0"/>
+      <c r="RL48" s="0"/>
+      <c r="RM48" s="0"/>
+      <c r="RN48" s="0"/>
+      <c r="RO48" s="0"/>
+      <c r="RP48" s="0"/>
+      <c r="RQ48" s="0"/>
+      <c r="RR48" s="0"/>
+      <c r="RS48" s="0"/>
+      <c r="RT48" s="0"/>
+      <c r="RU48" s="0"/>
+      <c r="RV48" s="0"/>
+      <c r="RW48" s="0"/>
+      <c r="RX48" s="0"/>
+      <c r="RY48" s="0"/>
+      <c r="RZ48" s="0"/>
+      <c r="SA48" s="0"/>
+      <c r="SB48" s="0"/>
+      <c r="SC48" s="0"/>
+      <c r="SD48" s="0"/>
+      <c r="SE48" s="0"/>
+      <c r="SF48" s="0"/>
+      <c r="SG48" s="0"/>
+      <c r="SH48" s="0"/>
+      <c r="SI48" s="0"/>
+      <c r="SJ48" s="0"/>
+      <c r="SK48" s="0"/>
+      <c r="SL48" s="0"/>
+      <c r="SM48" s="0"/>
+      <c r="SN48" s="0"/>
+      <c r="SO48" s="0"/>
+      <c r="SP48" s="0"/>
+      <c r="SQ48" s="0"/>
+      <c r="SR48" s="0"/>
+      <c r="SS48" s="0"/>
+      <c r="ST48" s="0"/>
+      <c r="SU48" s="0"/>
+      <c r="SV48" s="0"/>
+      <c r="SW48" s="0"/>
+      <c r="SX48" s="0"/>
+      <c r="SY48" s="0"/>
+      <c r="SZ48" s="0"/>
+      <c r="TA48" s="0"/>
+      <c r="TB48" s="0"/>
+      <c r="TC48" s="0"/>
+      <c r="TD48" s="0"/>
+      <c r="TE48" s="0"/>
+      <c r="TF48" s="0"/>
+      <c r="TG48" s="0"/>
+      <c r="TH48" s="0"/>
+      <c r="TI48" s="0"/>
+      <c r="TJ48" s="0"/>
+      <c r="TK48" s="0"/>
+      <c r="TL48" s="0"/>
+      <c r="TM48" s="0"/>
+      <c r="TN48" s="0"/>
+      <c r="TO48" s="0"/>
+      <c r="TP48" s="0"/>
+      <c r="TQ48" s="0"/>
+      <c r="TR48" s="0"/>
+      <c r="TS48" s="0"/>
+      <c r="TT48" s="0"/>
+      <c r="TU48" s="0"/>
+      <c r="TV48" s="0"/>
+      <c r="TW48" s="0"/>
+      <c r="TX48" s="0"/>
+      <c r="TY48" s="0"/>
+      <c r="TZ48" s="0"/>
+      <c r="UA48" s="0"/>
+      <c r="UB48" s="0"/>
+      <c r="UC48" s="0"/>
+      <c r="UD48" s="0"/>
+      <c r="UE48" s="0"/>
+      <c r="UF48" s="0"/>
+      <c r="UG48" s="0"/>
+      <c r="UH48" s="0"/>
+      <c r="UI48" s="0"/>
+      <c r="UJ48" s="0"/>
+      <c r="UK48" s="0"/>
+      <c r="UL48" s="0"/>
+      <c r="UM48" s="0"/>
+      <c r="UN48" s="0"/>
+      <c r="UO48" s="0"/>
+      <c r="UP48" s="0"/>
+      <c r="UQ48" s="0"/>
+      <c r="UR48" s="0"/>
+      <c r="US48" s="0"/>
+      <c r="UT48" s="0"/>
+      <c r="UU48" s="0"/>
+      <c r="UV48" s="0"/>
+      <c r="UW48" s="0"/>
+      <c r="UX48" s="0"/>
+      <c r="UY48" s="0"/>
+      <c r="UZ48" s="0"/>
+      <c r="VA48" s="0"/>
+      <c r="VB48" s="0"/>
+      <c r="VC48" s="0"/>
+      <c r="VD48" s="0"/>
+      <c r="VE48" s="0"/>
+      <c r="VF48" s="0"/>
+      <c r="VG48" s="0"/>
+      <c r="VH48" s="0"/>
+      <c r="VI48" s="0"/>
+      <c r="VJ48" s="0"/>
+      <c r="VK48" s="0"/>
+      <c r="VL48" s="0"/>
+      <c r="VM48" s="0"/>
+      <c r="VN48" s="0"/>
+      <c r="VO48" s="0"/>
+      <c r="VP48" s="0"/>
+      <c r="VQ48" s="0"/>
+      <c r="VR48" s="0"/>
+      <c r="VS48" s="0"/>
+      <c r="VT48" s="0"/>
+      <c r="VU48" s="0"/>
+      <c r="VV48" s="0"/>
+      <c r="VW48" s="0"/>
+      <c r="VX48" s="0"/>
+      <c r="VY48" s="0"/>
+      <c r="VZ48" s="0"/>
+      <c r="WA48" s="0"/>
+      <c r="WB48" s="0"/>
+      <c r="WC48" s="0"/>
+      <c r="WD48" s="0"/>
+      <c r="WE48" s="0"/>
+      <c r="WF48" s="0"/>
+      <c r="WG48" s="0"/>
+      <c r="WH48" s="0"/>
+      <c r="WI48" s="0"/>
+      <c r="WJ48" s="0"/>
+      <c r="WK48" s="0"/>
+      <c r="WL48" s="0"/>
+      <c r="WM48" s="0"/>
+      <c r="WN48" s="0"/>
+      <c r="WO48" s="0"/>
+      <c r="WP48" s="0"/>
+      <c r="WQ48" s="0"/>
+      <c r="WR48" s="0"/>
+      <c r="WS48" s="0"/>
+      <c r="WT48" s="0"/>
+      <c r="WU48" s="0"/>
+      <c r="WV48" s="0"/>
+      <c r="WW48" s="0"/>
+      <c r="WX48" s="0"/>
+      <c r="WY48" s="0"/>
+      <c r="WZ48" s="0"/>
+      <c r="XA48" s="0"/>
+      <c r="XB48" s="0"/>
+      <c r="XC48" s="0"/>
+      <c r="XD48" s="0"/>
+      <c r="XE48" s="0"/>
+      <c r="XF48" s="0"/>
+      <c r="XG48" s="0"/>
+      <c r="XH48" s="0"/>
+      <c r="XI48" s="0"/>
+      <c r="XJ48" s="0"/>
+      <c r="XK48" s="0"/>
+      <c r="XL48" s="0"/>
+      <c r="XM48" s="0"/>
+      <c r="XN48" s="0"/>
+      <c r="XO48" s="0"/>
+      <c r="XP48" s="0"/>
+      <c r="XQ48" s="0"/>
+      <c r="XR48" s="0"/>
+      <c r="XS48" s="0"/>
+      <c r="XT48" s="0"/>
+      <c r="XU48" s="0"/>
+      <c r="XV48" s="0"/>
+      <c r="XW48" s="0"/>
+      <c r="XX48" s="0"/>
+      <c r="XY48" s="0"/>
+      <c r="XZ48" s="0"/>
+      <c r="YA48" s="0"/>
+      <c r="YB48" s="0"/>
+      <c r="YC48" s="0"/>
+      <c r="YD48" s="0"/>
+      <c r="YE48" s="0"/>
+      <c r="YF48" s="0"/>
+      <c r="YG48" s="0"/>
+      <c r="YH48" s="0"/>
+      <c r="YI48" s="0"/>
+      <c r="YJ48" s="0"/>
+      <c r="YK48" s="0"/>
+      <c r="YL48" s="0"/>
+      <c r="YM48" s="0"/>
+      <c r="YN48" s="0"/>
+      <c r="YO48" s="0"/>
+      <c r="YP48" s="0"/>
+      <c r="YQ48" s="0"/>
+      <c r="YR48" s="0"/>
+      <c r="YS48" s="0"/>
+      <c r="YT48" s="0"/>
+      <c r="YU48" s="0"/>
+      <c r="YV48" s="0"/>
+      <c r="YW48" s="0"/>
+      <c r="YX48" s="0"/>
+      <c r="YY48" s="0"/>
+      <c r="YZ48" s="0"/>
+      <c r="ZA48" s="0"/>
+      <c r="ZB48" s="0"/>
+      <c r="ZC48" s="0"/>
+      <c r="ZD48" s="0"/>
+      <c r="ZE48" s="0"/>
+      <c r="ZF48" s="0"/>
+      <c r="ZG48" s="0"/>
+      <c r="ZH48" s="0"/>
+      <c r="ZI48" s="0"/>
+      <c r="ZJ48" s="0"/>
+      <c r="ZK48" s="0"/>
+      <c r="ZL48" s="0"/>
+      <c r="ZM48" s="0"/>
+      <c r="ZN48" s="0"/>
+      <c r="ZO48" s="0"/>
+      <c r="ZP48" s="0"/>
+      <c r="ZQ48" s="0"/>
+      <c r="ZR48" s="0"/>
+      <c r="ZS48" s="0"/>
+      <c r="ZT48" s="0"/>
+      <c r="ZU48" s="0"/>
+      <c r="ZV48" s="0"/>
+      <c r="ZW48" s="0"/>
+      <c r="ZX48" s="0"/>
+      <c r="ZY48" s="0"/>
+      <c r="ZZ48" s="0"/>
+      <c r="AAA48" s="0"/>
+      <c r="AAB48" s="0"/>
+      <c r="AAC48" s="0"/>
+      <c r="AAD48" s="0"/>
+      <c r="AAE48" s="0"/>
+      <c r="AAF48" s="0"/>
+      <c r="AAG48" s="0"/>
+      <c r="AAH48" s="0"/>
+      <c r="AAI48" s="0"/>
+      <c r="AAJ48" s="0"/>
+      <c r="AAK48" s="0"/>
+      <c r="AAL48" s="0"/>
+      <c r="AAM48" s="0"/>
+      <c r="AAN48" s="0"/>
+      <c r="AAO48" s="0"/>
+      <c r="AAP48" s="0"/>
+      <c r="AAQ48" s="0"/>
+      <c r="AAR48" s="0"/>
+      <c r="AAS48" s="0"/>
+      <c r="AAT48" s="0"/>
+      <c r="AAU48" s="0"/>
+      <c r="AAV48" s="0"/>
+      <c r="AAW48" s="0"/>
+      <c r="AAX48" s="0"/>
+      <c r="AAY48" s="0"/>
+      <c r="AAZ48" s="0"/>
+      <c r="ABA48" s="0"/>
+      <c r="ABB48" s="0"/>
+      <c r="ABC48" s="0"/>
+      <c r="ABD48" s="0"/>
+      <c r="ABE48" s="0"/>
+      <c r="ABF48" s="0"/>
+      <c r="ABG48" s="0"/>
+      <c r="ABH48" s="0"/>
+      <c r="ABI48" s="0"/>
+      <c r="ABJ48" s="0"/>
+      <c r="ABK48" s="0"/>
+      <c r="ABL48" s="0"/>
+      <c r="ABM48" s="0"/>
+      <c r="ABN48" s="0"/>
+      <c r="ABO48" s="0"/>
+      <c r="ABP48" s="0"/>
+      <c r="ABQ48" s="0"/>
+      <c r="ABR48" s="0"/>
+      <c r="ABS48" s="0"/>
+      <c r="ABT48" s="0"/>
+      <c r="ABU48" s="0"/>
+      <c r="ABV48" s="0"/>
+      <c r="ABW48" s="0"/>
+      <c r="ABX48" s="0"/>
+      <c r="ABY48" s="0"/>
+      <c r="ABZ48" s="0"/>
+      <c r="ACA48" s="0"/>
+      <c r="ACB48" s="0"/>
+      <c r="ACC48" s="0"/>
+      <c r="ACD48" s="0"/>
+      <c r="ACE48" s="0"/>
+      <c r="ACF48" s="0"/>
+      <c r="ACG48" s="0"/>
+      <c r="ACH48" s="0"/>
+      <c r="ACI48" s="0"/>
+      <c r="ACJ48" s="0"/>
+      <c r="ACK48" s="0"/>
+      <c r="ACL48" s="0"/>
+      <c r="ACM48" s="0"/>
+      <c r="ACN48" s="0"/>
+      <c r="ACO48" s="0"/>
+      <c r="ACP48" s="0"/>
+      <c r="ACQ48" s="0"/>
+      <c r="ACR48" s="0"/>
+      <c r="ACS48" s="0"/>
+      <c r="ACT48" s="0"/>
+      <c r="ACU48" s="0"/>
+      <c r="ACV48" s="0"/>
+      <c r="ACW48" s="0"/>
+      <c r="ACX48" s="0"/>
+      <c r="ACY48" s="0"/>
+      <c r="ACZ48" s="0"/>
+      <c r="ADA48" s="0"/>
+      <c r="ADB48" s="0"/>
+      <c r="ADC48" s="0"/>
+      <c r="ADD48" s="0"/>
+      <c r="ADE48" s="0"/>
+      <c r="ADF48" s="0"/>
+      <c r="ADG48" s="0"/>
+      <c r="ADH48" s="0"/>
+      <c r="ADI48" s="0"/>
+      <c r="ADJ48" s="0"/>
+      <c r="ADK48" s="0"/>
+      <c r="ADL48" s="0"/>
+      <c r="ADM48" s="0"/>
+      <c r="ADN48" s="0"/>
+      <c r="ADO48" s="0"/>
+      <c r="ADP48" s="0"/>
+      <c r="ADQ48" s="0"/>
+      <c r="ADR48" s="0"/>
+      <c r="ADS48" s="0"/>
+      <c r="ADT48" s="0"/>
+      <c r="ADU48" s="0"/>
+      <c r="ADV48" s="0"/>
+      <c r="ADW48" s="0"/>
+      <c r="ADX48" s="0"/>
+      <c r="ADY48" s="0"/>
+      <c r="ADZ48" s="0"/>
+      <c r="AEA48" s="0"/>
+      <c r="AEB48" s="0"/>
+      <c r="AEC48" s="0"/>
+      <c r="AED48" s="0"/>
+      <c r="AEE48" s="0"/>
+      <c r="AEF48" s="0"/>
+      <c r="AEG48" s="0"/>
+      <c r="AEH48" s="0"/>
+      <c r="AEI48" s="0"/>
+      <c r="AEJ48" s="0"/>
+      <c r="AEK48" s="0"/>
+      <c r="AEL48" s="0"/>
+      <c r="AEM48" s="0"/>
+      <c r="AEN48" s="0"/>
+      <c r="AEO48" s="0"/>
+      <c r="AEP48" s="0"/>
+      <c r="AEQ48" s="0"/>
+      <c r="AER48" s="0"/>
+      <c r="AES48" s="0"/>
+      <c r="AET48" s="0"/>
+      <c r="AEU48" s="0"/>
+      <c r="AEV48" s="0"/>
+      <c r="AEW48" s="0"/>
+      <c r="AEX48" s="0"/>
+      <c r="AEY48" s="0"/>
+      <c r="AEZ48" s="0"/>
+      <c r="AFA48" s="0"/>
+      <c r="AFB48" s="0"/>
+      <c r="AFC48" s="0"/>
+      <c r="AFD48" s="0"/>
+      <c r="AFE48" s="0"/>
+      <c r="AFF48" s="0"/>
+      <c r="AFG48" s="0"/>
+      <c r="AFH48" s="0"/>
+      <c r="AFI48" s="0"/>
+      <c r="AFJ48" s="0"/>
+      <c r="AFK48" s="0"/>
+      <c r="AFL48" s="0"/>
+      <c r="AFM48" s="0"/>
+      <c r="AFN48" s="0"/>
+      <c r="AFO48" s="0"/>
+      <c r="AFP48" s="0"/>
+      <c r="AFQ48" s="0"/>
+      <c r="AFR48" s="0"/>
+      <c r="AFS48" s="0"/>
+      <c r="AFT48" s="0"/>
+      <c r="AFU48" s="0"/>
+      <c r="AFV48" s="0"/>
+      <c r="AFW48" s="0"/>
+      <c r="AFX48" s="0"/>
+      <c r="AFY48" s="0"/>
+      <c r="AFZ48" s="0"/>
+      <c r="AGA48" s="0"/>
+      <c r="AGB48" s="0"/>
+      <c r="AGC48" s="0"/>
+      <c r="AGD48" s="0"/>
+      <c r="AGE48" s="0"/>
+      <c r="AGF48" s="0"/>
+      <c r="AGG48" s="0"/>
+      <c r="AGH48" s="0"/>
+      <c r="AGI48" s="0"/>
+      <c r="AGJ48" s="0"/>
+      <c r="AGK48" s="0"/>
+      <c r="AGL48" s="0"/>
+      <c r="AGM48" s="0"/>
+      <c r="AGN48" s="0"/>
+      <c r="AGO48" s="0"/>
+      <c r="AGP48" s="0"/>
+      <c r="AGQ48" s="0"/>
+      <c r="AGR48" s="0"/>
+      <c r="AGS48" s="0"/>
+      <c r="AGT48" s="0"/>
+      <c r="AGU48" s="0"/>
+      <c r="AGV48" s="0"/>
+      <c r="AGW48" s="0"/>
+      <c r="AGX48" s="0"/>
+      <c r="AGY48" s="0"/>
+      <c r="AGZ48" s="0"/>
+      <c r="AHA48" s="0"/>
+      <c r="AHB48" s="0"/>
+      <c r="AHC48" s="0"/>
+      <c r="AHD48" s="0"/>
+      <c r="AHE48" s="0"/>
+      <c r="AHF48" s="0"/>
+      <c r="AHG48" s="0"/>
+      <c r="AHH48" s="0"/>
+      <c r="AHI48" s="0"/>
+      <c r="AHJ48" s="0"/>
+      <c r="AHK48" s="0"/>
+      <c r="AHL48" s="0"/>
+      <c r="AHM48" s="0"/>
+      <c r="AHN48" s="0"/>
+      <c r="AHO48" s="0"/>
+      <c r="AHP48" s="0"/>
+      <c r="AHQ48" s="0"/>
+      <c r="AHR48" s="0"/>
+      <c r="AHS48" s="0"/>
+      <c r="AHT48" s="0"/>
+      <c r="AHU48" s="0"/>
+      <c r="AHV48" s="0"/>
+      <c r="AHW48" s="0"/>
+      <c r="AHX48" s="0"/>
+      <c r="AHY48" s="0"/>
+      <c r="AHZ48" s="0"/>
+      <c r="AIA48" s="0"/>
+      <c r="AIB48" s="0"/>
+      <c r="AIC48" s="0"/>
+      <c r="AID48" s="0"/>
+      <c r="AIE48" s="0"/>
+      <c r="AIF48" s="0"/>
+      <c r="AIG48" s="0"/>
+      <c r="AIH48" s="0"/>
+      <c r="AII48" s="0"/>
+      <c r="AIJ48" s="0"/>
+      <c r="AIK48" s="0"/>
+      <c r="AIL48" s="0"/>
+      <c r="AIM48" s="0"/>
+      <c r="AIN48" s="0"/>
+      <c r="AIO48" s="0"/>
+      <c r="AIP48" s="0"/>
+      <c r="AIQ48" s="0"/>
+      <c r="AIR48" s="0"/>
+      <c r="AIS48" s="0"/>
+      <c r="AIT48" s="0"/>
+      <c r="AIU48" s="0"/>
+      <c r="AIV48" s="0"/>
+      <c r="AIW48" s="0"/>
+      <c r="AIX48" s="0"/>
+      <c r="AIY48" s="0"/>
+      <c r="AIZ48" s="0"/>
+      <c r="AJA48" s="0"/>
+      <c r="AJB48" s="0"/>
+      <c r="AJC48" s="0"/>
+      <c r="AJD48" s="0"/>
+      <c r="AJE48" s="0"/>
+      <c r="AJF48" s="0"/>
+      <c r="AJG48" s="0"/>
+      <c r="AJH48" s="0"/>
+      <c r="AJI48" s="0"/>
+      <c r="AJJ48" s="0"/>
+      <c r="AJK48" s="0"/>
+      <c r="AJL48" s="0"/>
+      <c r="AJM48" s="0"/>
+      <c r="AJN48" s="0"/>
+      <c r="AJO48" s="0"/>
+      <c r="AJP48" s="0"/>
+      <c r="AJQ48" s="0"/>
+      <c r="AJR48" s="0"/>
+      <c r="AJS48" s="0"/>
+      <c r="AJT48" s="0"/>
+      <c r="AJU48" s="0"/>
+      <c r="AJV48" s="0"/>
+      <c r="AJW48" s="0"/>
+      <c r="AJX48" s="0"/>
+      <c r="AJY48" s="0"/>
+      <c r="AJZ48" s="0"/>
+      <c r="AKA48" s="0"/>
+      <c r="AKB48" s="0"/>
+      <c r="AKC48" s="0"/>
+      <c r="AKD48" s="0"/>
+      <c r="AKE48" s="0"/>
+      <c r="AKF48" s="0"/>
+      <c r="AKG48" s="0"/>
+      <c r="AKH48" s="0"/>
+      <c r="AKI48" s="0"/>
+      <c r="AKJ48" s="0"/>
+      <c r="AKK48" s="0"/>
+      <c r="AKL48" s="0"/>
+      <c r="AKM48" s="0"/>
+      <c r="AKN48" s="0"/>
+      <c r="AKO48" s="0"/>
+      <c r="AKP48" s="0"/>
+      <c r="AKQ48" s="0"/>
+      <c r="AKR48" s="0"/>
+      <c r="AKS48" s="0"/>
+      <c r="AKT48" s="0"/>
+      <c r="AKU48" s="0"/>
+      <c r="AKV48" s="0"/>
+      <c r="AKW48" s="0"/>
+      <c r="AKX48" s="0"/>
+      <c r="AKY48" s="0"/>
+      <c r="AKZ48" s="0"/>
+      <c r="ALA48" s="0"/>
+      <c r="ALB48" s="0"/>
+      <c r="ALC48" s="0"/>
+      <c r="ALD48" s="0"/>
+      <c r="ALE48" s="0"/>
+      <c r="ALF48" s="0"/>
+      <c r="ALG48" s="0"/>
+      <c r="ALH48" s="0"/>
+      <c r="ALI48" s="0"/>
+      <c r="ALJ48" s="0"/>
+      <c r="ALK48" s="0"/>
+      <c r="ALL48" s="0"/>
+      <c r="ALM48" s="0"/>
+      <c r="ALN48" s="0"/>
+      <c r="ALO48" s="0"/>
+      <c r="ALP48" s="0"/>
+      <c r="ALQ48" s="0"/>
+      <c r="ALR48" s="0"/>
+      <c r="ALS48" s="0"/>
+      <c r="ALT48" s="0"/>
+      <c r="ALU48" s="0"/>
+      <c r="ALV48" s="0"/>
+      <c r="ALW48" s="0"/>
+      <c r="ALX48" s="0"/>
+      <c r="ALY48" s="0"/>
+      <c r="ALZ48" s="0"/>
+      <c r="AMA48" s="0"/>
+      <c r="AMB48" s="0"/>
+      <c r="AMC48" s="0"/>
+      <c r="AMD48" s="0"/>
+      <c r="AME48" s="0"/>
+      <c r="AMF48" s="0"/>
+      <c r="AMG48" s="0"/>
+      <c r="AMH48" s="0"/>
+      <c r="AMI48" s="0"/>
+      <c r="AMJ48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="12" t="n">
+        <v>9460873421</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="14" t="n">
+        <v>34055</v>
+      </c>
+      <c r="H49" s="8" t="n">
+        <v>51991301817</v>
+      </c>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="0"/>
+      <c r="S49" s="0"/>
+      <c r="T49" s="0"/>
+      <c r="U49" s="0"/>
+      <c r="V49" s="0"/>
+      <c r="W49" s="0"/>
+      <c r="X49" s="0"/>
+      <c r="Y49" s="0"/>
+      <c r="Z49" s="0"/>
+      <c r="AA49" s="0"/>
+      <c r="AB49" s="0"/>
+      <c r="AC49" s="0"/>
+      <c r="AD49" s="0"/>
+      <c r="AE49" s="0"/>
+      <c r="AF49" s="0"/>
+      <c r="AG49" s="0"/>
+      <c r="AH49" s="0"/>
+      <c r="AI49" s="0"/>
+      <c r="AJ49" s="0"/>
+      <c r="AK49" s="0"/>
+      <c r="AL49" s="0"/>
+      <c r="AM49" s="0"/>
+      <c r="AN49" s="0"/>
+      <c r="AO49" s="0"/>
+      <c r="AP49" s="0"/>
+      <c r="AQ49" s="0"/>
+      <c r="AR49" s="0"/>
+      <c r="AS49" s="0"/>
+      <c r="AT49" s="0"/>
+      <c r="AU49" s="0"/>
+      <c r="AV49" s="0"/>
+      <c r="AW49" s="0"/>
+      <c r="AX49" s="0"/>
+      <c r="AY49" s="0"/>
+      <c r="AZ49" s="0"/>
+      <c r="BA49" s="0"/>
+      <c r="BB49" s="0"/>
+      <c r="BC49" s="0"/>
+      <c r="BD49" s="0"/>
+      <c r="BE49" s="0"/>
+      <c r="BF49" s="0"/>
+      <c r="BG49" s="0"/>
+      <c r="BH49" s="0"/>
+      <c r="BI49" s="0"/>
+      <c r="BJ49" s="0"/>
+      <c r="BK49" s="0"/>
+      <c r="BL49" s="0"/>
+      <c r="BM49" s="0"/>
+      <c r="BN49" s="0"/>
+      <c r="BO49" s="0"/>
+      <c r="BP49" s="0"/>
+      <c r="BQ49" s="0"/>
+      <c r="BR49" s="0"/>
+      <c r="BS49" s="0"/>
+      <c r="BT49" s="0"/>
+      <c r="BU49" s="0"/>
+      <c r="BV49" s="0"/>
+      <c r="BW49" s="0"/>
+      <c r="BX49" s="0"/>
+      <c r="BY49" s="0"/>
+      <c r="BZ49" s="0"/>
+      <c r="CA49" s="0"/>
+      <c r="CB49" s="0"/>
+      <c r="CC49" s="0"/>
+      <c r="CD49" s="0"/>
+      <c r="CE49" s="0"/>
+      <c r="CF49" s="0"/>
+      <c r="CG49" s="0"/>
+      <c r="CH49" s="0"/>
+      <c r="CI49" s="0"/>
+      <c r="CJ49" s="0"/>
+      <c r="CK49" s="0"/>
+      <c r="CL49" s="0"/>
+      <c r="CM49" s="0"/>
+      <c r="CN49" s="0"/>
+      <c r="CO49" s="0"/>
+      <c r="CP49" s="0"/>
+      <c r="CQ49" s="0"/>
+      <c r="CR49" s="0"/>
+      <c r="CS49" s="0"/>
+      <c r="CT49" s="0"/>
+      <c r="CU49" s="0"/>
+      <c r="CV49" s="0"/>
+      <c r="CW49" s="0"/>
+      <c r="CX49" s="0"/>
+      <c r="CY49" s="0"/>
+      <c r="CZ49" s="0"/>
+      <c r="DA49" s="0"/>
+      <c r="DB49" s="0"/>
+      <c r="DC49" s="0"/>
+      <c r="DD49" s="0"/>
+      <c r="DE49" s="0"/>
+      <c r="DF49" s="0"/>
+      <c r="DG49" s="0"/>
+      <c r="DH49" s="0"/>
+      <c r="DI49" s="0"/>
+      <c r="DJ49" s="0"/>
+      <c r="DK49" s="0"/>
+      <c r="DL49" s="0"/>
+      <c r="DM49" s="0"/>
+      <c r="DN49" s="0"/>
+      <c r="DO49" s="0"/>
+      <c r="DP49" s="0"/>
+      <c r="DQ49" s="0"/>
+      <c r="DR49" s="0"/>
+      <c r="DS49" s="0"/>
+      <c r="DT49" s="0"/>
+      <c r="DU49" s="0"/>
+      <c r="DV49" s="0"/>
+      <c r="DW49" s="0"/>
+      <c r="DX49" s="0"/>
+      <c r="DY49" s="0"/>
+      <c r="DZ49" s="0"/>
+      <c r="EA49" s="0"/>
+      <c r="EB49" s="0"/>
+      <c r="EC49" s="0"/>
+      <c r="ED49" s="0"/>
+      <c r="EE49" s="0"/>
+      <c r="EF49" s="0"/>
+      <c r="EG49" s="0"/>
+      <c r="EH49" s="0"/>
+      <c r="EI49" s="0"/>
+      <c r="EJ49" s="0"/>
+      <c r="EK49" s="0"/>
+      <c r="EL49" s="0"/>
+      <c r="EM49" s="0"/>
+      <c r="EN49" s="0"/>
+      <c r="EO49" s="0"/>
+      <c r="EP49" s="0"/>
+      <c r="EQ49" s="0"/>
+      <c r="ER49" s="0"/>
+      <c r="ES49" s="0"/>
+      <c r="ET49" s="0"/>
+      <c r="EU49" s="0"/>
+      <c r="EV49" s="0"/>
+      <c r="EW49" s="0"/>
+      <c r="EX49" s="0"/>
+      <c r="EY49" s="0"/>
+      <c r="EZ49" s="0"/>
+      <c r="FA49" s="0"/>
+      <c r="FB49" s="0"/>
+      <c r="FC49" s="0"/>
+      <c r="FD49" s="0"/>
+      <c r="FE49" s="0"/>
+      <c r="FF49" s="0"/>
+      <c r="FG49" s="0"/>
+      <c r="FH49" s="0"/>
+      <c r="FI49" s="0"/>
+      <c r="FJ49" s="0"/>
+      <c r="FK49" s="0"/>
+      <c r="FL49" s="0"/>
+      <c r="FM49" s="0"/>
+      <c r="FN49" s="0"/>
+      <c r="FO49" s="0"/>
+      <c r="FP49" s="0"/>
+      <c r="FQ49" s="0"/>
+      <c r="FR49" s="0"/>
+      <c r="FS49" s="0"/>
+      <c r="FT49" s="0"/>
+      <c r="FU49" s="0"/>
+      <c r="FV49" s="0"/>
+      <c r="FW49" s="0"/>
+      <c r="FX49" s="0"/>
+      <c r="FY49" s="0"/>
+      <c r="FZ49" s="0"/>
+      <c r="GA49" s="0"/>
+      <c r="GB49" s="0"/>
+      <c r="GC49" s="0"/>
+      <c r="GD49" s="0"/>
+      <c r="GE49" s="0"/>
+      <c r="GF49" s="0"/>
+      <c r="GG49" s="0"/>
+      <c r="GH49" s="0"/>
+      <c r="GI49" s="0"/>
+      <c r="GJ49" s="0"/>
+      <c r="GK49" s="0"/>
+      <c r="GL49" s="0"/>
+      <c r="GM49" s="0"/>
+      <c r="GN49" s="0"/>
+      <c r="GO49" s="0"/>
+      <c r="GP49" s="0"/>
+      <c r="GQ49" s="0"/>
+      <c r="GR49" s="0"/>
+      <c r="GS49" s="0"/>
+      <c r="GT49" s="0"/>
+      <c r="GU49" s="0"/>
+      <c r="GV49" s="0"/>
+      <c r="GW49" s="0"/>
+      <c r="GX49" s="0"/>
+      <c r="GY49" s="0"/>
+      <c r="GZ49" s="0"/>
+      <c r="HA49" s="0"/>
+      <c r="HB49" s="0"/>
+      <c r="HC49" s="0"/>
+      <c r="HD49" s="0"/>
+      <c r="HE49" s="0"/>
+      <c r="HF49" s="0"/>
+      <c r="HG49" s="0"/>
+      <c r="HH49" s="0"/>
+      <c r="HI49" s="0"/>
+      <c r="HJ49" s="0"/>
+      <c r="HK49" s="0"/>
+      <c r="HL49" s="0"/>
+      <c r="HM49" s="0"/>
+      <c r="HN49" s="0"/>
+      <c r="HO49" s="0"/>
+      <c r="HP49" s="0"/>
+      <c r="HQ49" s="0"/>
+      <c r="HR49" s="0"/>
+      <c r="HS49" s="0"/>
+      <c r="HT49" s="0"/>
+      <c r="HU49" s="0"/>
+      <c r="HV49" s="0"/>
+      <c r="HW49" s="0"/>
+      <c r="HX49" s="0"/>
+      <c r="HY49" s="0"/>
+      <c r="HZ49" s="0"/>
+      <c r="IA49" s="0"/>
+      <c r="IB49" s="0"/>
+      <c r="IC49" s="0"/>
+      <c r="ID49" s="0"/>
+      <c r="IE49" s="0"/>
+      <c r="IF49" s="0"/>
+      <c r="IG49" s="0"/>
+      <c r="IH49" s="0"/>
+      <c r="II49" s="0"/>
+      <c r="IJ49" s="0"/>
+      <c r="IK49" s="0"/>
+      <c r="IL49" s="0"/>
+      <c r="IM49" s="0"/>
+      <c r="IN49" s="0"/>
+      <c r="IO49" s="0"/>
+      <c r="IP49" s="0"/>
+      <c r="IQ49" s="0"/>
+      <c r="IR49" s="0"/>
+      <c r="IS49" s="0"/>
+      <c r="IT49" s="0"/>
+      <c r="IU49" s="0"/>
+      <c r="IV49" s="0"/>
+      <c r="IW49" s="0"/>
+      <c r="IX49" s="0"/>
+      <c r="IY49" s="0"/>
+      <c r="IZ49" s="0"/>
+      <c r="JA49" s="0"/>
+      <c r="JB49" s="0"/>
+      <c r="JC49" s="0"/>
+      <c r="JD49" s="0"/>
+      <c r="JE49" s="0"/>
+      <c r="JF49" s="0"/>
+      <c r="JG49" s="0"/>
+      <c r="JH49" s="0"/>
+      <c r="JI49" s="0"/>
+      <c r="JJ49" s="0"/>
+      <c r="JK49" s="0"/>
+      <c r="JL49" s="0"/>
+      <c r="JM49" s="0"/>
+      <c r="JN49" s="0"/>
+      <c r="JO49" s="0"/>
+      <c r="JP49" s="0"/>
+      <c r="JQ49" s="0"/>
+      <c r="JR49" s="0"/>
+      <c r="JS49" s="0"/>
+      <c r="JT49" s="0"/>
+      <c r="JU49" s="0"/>
+      <c r="JV49" s="0"/>
+      <c r="JW49" s="0"/>
+      <c r="JX49" s="0"/>
+      <c r="JY49" s="0"/>
+      <c r="JZ49" s="0"/>
+      <c r="KA49" s="0"/>
+      <c r="KB49" s="0"/>
+      <c r="KC49" s="0"/>
+      <c r="KD49" s="0"/>
+      <c r="KE49" s="0"/>
+      <c r="KF49" s="0"/>
+      <c r="KG49" s="0"/>
+      <c r="KH49" s="0"/>
+      <c r="KI49" s="0"/>
+      <c r="KJ49" s="0"/>
+      <c r="KK49" s="0"/>
+      <c r="KL49" s="0"/>
+      <c r="KM49" s="0"/>
+      <c r="KN49" s="0"/>
+      <c r="KO49" s="0"/>
+      <c r="KP49" s="0"/>
+      <c r="KQ49" s="0"/>
+      <c r="KR49" s="0"/>
+      <c r="KS49" s="0"/>
+      <c r="KT49" s="0"/>
+      <c r="KU49" s="0"/>
+      <c r="KV49" s="0"/>
+      <c r="KW49" s="0"/>
+      <c r="KX49" s="0"/>
+      <c r="KY49" s="0"/>
+      <c r="KZ49" s="0"/>
+      <c r="LA49" s="0"/>
+      <c r="LB49" s="0"/>
+      <c r="LC49" s="0"/>
+      <c r="LD49" s="0"/>
+      <c r="LE49" s="0"/>
+      <c r="LF49" s="0"/>
+      <c r="LG49" s="0"/>
+      <c r="LH49" s="0"/>
+      <c r="LI49" s="0"/>
+      <c r="LJ49" s="0"/>
+      <c r="LK49" s="0"/>
+      <c r="LL49" s="0"/>
+      <c r="LM49" s="0"/>
+      <c r="LN49" s="0"/>
+      <c r="LO49" s="0"/>
+      <c r="LP49" s="0"/>
+      <c r="LQ49" s="0"/>
+      <c r="LR49" s="0"/>
+      <c r="LS49" s="0"/>
+      <c r="LT49" s="0"/>
+      <c r="LU49" s="0"/>
+      <c r="LV49" s="0"/>
+      <c r="LW49" s="0"/>
+      <c r="LX49" s="0"/>
+      <c r="LY49" s="0"/>
+      <c r="LZ49" s="0"/>
+      <c r="MA49" s="0"/>
+      <c r="MB49" s="0"/>
+      <c r="MC49" s="0"/>
+      <c r="MD49" s="0"/>
+      <c r="ME49" s="0"/>
+      <c r="MF49" s="0"/>
+      <c r="MG49" s="0"/>
+      <c r="MH49" s="0"/>
+      <c r="MI49" s="0"/>
+      <c r="MJ49" s="0"/>
+      <c r="MK49" s="0"/>
+      <c r="ML49" s="0"/>
+      <c r="MM49" s="0"/>
+      <c r="MN49" s="0"/>
+      <c r="MO49" s="0"/>
+      <c r="MP49" s="0"/>
+      <c r="MQ49" s="0"/>
+      <c r="MR49" s="0"/>
+      <c r="MS49" s="0"/>
+      <c r="MT49" s="0"/>
+      <c r="MU49" s="0"/>
+      <c r="MV49" s="0"/>
+      <c r="MW49" s="0"/>
+      <c r="MX49" s="0"/>
+      <c r="MY49" s="0"/>
+      <c r="MZ49" s="0"/>
+      <c r="NA49" s="0"/>
+      <c r="NB49" s="0"/>
+      <c r="NC49" s="0"/>
+      <c r="ND49" s="0"/>
+      <c r="NE49" s="0"/>
+      <c r="NF49" s="0"/>
+      <c r="NG49" s="0"/>
+      <c r="NH49" s="0"/>
+      <c r="NI49" s="0"/>
+      <c r="NJ49" s="0"/>
+      <c r="NK49" s="0"/>
+      <c r="NL49" s="0"/>
+      <c r="NM49" s="0"/>
+      <c r="NN49" s="0"/>
+      <c r="NO49" s="0"/>
+      <c r="NP49" s="0"/>
+      <c r="NQ49" s="0"/>
+      <c r="NR49" s="0"/>
+      <c r="NS49" s="0"/>
+      <c r="NT49" s="0"/>
+      <c r="NU49" s="0"/>
+      <c r="NV49" s="0"/>
+      <c r="NW49" s="0"/>
+      <c r="NX49" s="0"/>
+      <c r="NY49" s="0"/>
+      <c r="NZ49" s="0"/>
+      <c r="OA49" s="0"/>
+      <c r="OB49" s="0"/>
+      <c r="OC49" s="0"/>
+      <c r="OD49" s="0"/>
+      <c r="OE49" s="0"/>
+      <c r="OF49" s="0"/>
+      <c r="OG49" s="0"/>
+      <c r="OH49" s="0"/>
+      <c r="OI49" s="0"/>
+      <c r="OJ49" s="0"/>
+      <c r="OK49" s="0"/>
+      <c r="OL49" s="0"/>
+      <c r="OM49" s="0"/>
+      <c r="ON49" s="0"/>
+      <c r="OO49" s="0"/>
+      <c r="OP49" s="0"/>
+      <c r="OQ49" s="0"/>
+      <c r="OR49" s="0"/>
+      <c r="OS49" s="0"/>
+      <c r="OT49" s="0"/>
+      <c r="OU49" s="0"/>
+      <c r="OV49" s="0"/>
+      <c r="OW49" s="0"/>
+      <c r="OX49" s="0"/>
+      <c r="OY49" s="0"/>
+      <c r="OZ49" s="0"/>
+      <c r="PA49" s="0"/>
+      <c r="PB49" s="0"/>
+      <c r="PC49" s="0"/>
+      <c r="PD49" s="0"/>
+      <c r="PE49" s="0"/>
+      <c r="PF49" s="0"/>
+      <c r="PG49" s="0"/>
+      <c r="PH49" s="0"/>
+      <c r="PI49" s="0"/>
+      <c r="PJ49" s="0"/>
+      <c r="PK49" s="0"/>
+      <c r="PL49" s="0"/>
+      <c r="PM49" s="0"/>
+      <c r="PN49" s="0"/>
+      <c r="PO49" s="0"/>
+      <c r="PP49" s="0"/>
+      <c r="PQ49" s="0"/>
+      <c r="PR49" s="0"/>
+      <c r="PS49" s="0"/>
+      <c r="PT49" s="0"/>
+      <c r="PU49" s="0"/>
+      <c r="PV49" s="0"/>
+      <c r="PW49" s="0"/>
+      <c r="PX49" s="0"/>
+      <c r="PY49" s="0"/>
+      <c r="PZ49" s="0"/>
+      <c r="QA49" s="0"/>
+      <c r="QB49" s="0"/>
+      <c r="QC49" s="0"/>
+      <c r="QD49" s="0"/>
+      <c r="QE49" s="0"/>
+      <c r="QF49" s="0"/>
+      <c r="QG49" s="0"/>
+      <c r="QH49" s="0"/>
+      <c r="QI49" s="0"/>
+      <c r="QJ49" s="0"/>
+      <c r="QK49" s="0"/>
+      <c r="QL49" s="0"/>
+      <c r="QM49" s="0"/>
+      <c r="QN49" s="0"/>
+      <c r="QO49" s="0"/>
+      <c r="QP49" s="0"/>
+      <c r="QQ49" s="0"/>
+      <c r="QR49" s="0"/>
+      <c r="QS49" s="0"/>
+      <c r="QT49" s="0"/>
+      <c r="QU49" s="0"/>
+      <c r="QV49" s="0"/>
+      <c r="QW49" s="0"/>
+      <c r="QX49" s="0"/>
+      <c r="QY49" s="0"/>
+      <c r="QZ49" s="0"/>
+      <c r="RA49" s="0"/>
+      <c r="RB49" s="0"/>
+      <c r="RC49" s="0"/>
+      <c r="RD49" s="0"/>
+      <c r="RE49" s="0"/>
+      <c r="RF49" s="0"/>
+      <c r="RG49" s="0"/>
+      <c r="RH49" s="0"/>
+      <c r="RI49" s="0"/>
+      <c r="RJ49" s="0"/>
+      <c r="RK49" s="0"/>
+      <c r="RL49" s="0"/>
+      <c r="RM49" s="0"/>
+      <c r="RN49" s="0"/>
+      <c r="RO49" s="0"/>
+      <c r="RP49" s="0"/>
+      <c r="RQ49" s="0"/>
+      <c r="RR49" s="0"/>
+      <c r="RS49" s="0"/>
+      <c r="RT49" s="0"/>
+      <c r="RU49" s="0"/>
+      <c r="RV49" s="0"/>
+      <c r="RW49" s="0"/>
+      <c r="RX49" s="0"/>
+      <c r="RY49" s="0"/>
+      <c r="RZ49" s="0"/>
+      <c r="SA49" s="0"/>
+      <c r="SB49" s="0"/>
+      <c r="SC49" s="0"/>
+      <c r="SD49" s="0"/>
+      <c r="SE49" s="0"/>
+      <c r="SF49" s="0"/>
+      <c r="SG49" s="0"/>
+      <c r="SH49" s="0"/>
+      <c r="SI49" s="0"/>
+      <c r="SJ49" s="0"/>
+      <c r="SK49" s="0"/>
+      <c r="SL49" s="0"/>
+      <c r="SM49" s="0"/>
+      <c r="SN49" s="0"/>
+      <c r="SO49" s="0"/>
+      <c r="SP49" s="0"/>
+      <c r="SQ49" s="0"/>
+      <c r="SR49" s="0"/>
+      <c r="SS49" s="0"/>
+      <c r="ST49" s="0"/>
+      <c r="SU49" s="0"/>
+      <c r="SV49" s="0"/>
+      <c r="SW49" s="0"/>
+      <c r="SX49" s="0"/>
+      <c r="SY49" s="0"/>
+      <c r="SZ49" s="0"/>
+      <c r="TA49" s="0"/>
+      <c r="TB49" s="0"/>
+      <c r="TC49" s="0"/>
+      <c r="TD49" s="0"/>
+      <c r="TE49" s="0"/>
+      <c r="TF49" s="0"/>
+      <c r="TG49" s="0"/>
+      <c r="TH49" s="0"/>
+      <c r="TI49" s="0"/>
+      <c r="TJ49" s="0"/>
+      <c r="TK49" s="0"/>
+      <c r="TL49" s="0"/>
+      <c r="TM49" s="0"/>
+      <c r="TN49" s="0"/>
+      <c r="TO49" s="0"/>
+      <c r="TP49" s="0"/>
+      <c r="TQ49" s="0"/>
+      <c r="TR49" s="0"/>
+      <c r="TS49" s="0"/>
+      <c r="TT49" s="0"/>
+      <c r="TU49" s="0"/>
+      <c r="TV49" s="0"/>
+      <c r="TW49" s="0"/>
+      <c r="TX49" s="0"/>
+      <c r="TY49" s="0"/>
+      <c r="TZ49" s="0"/>
+      <c r="UA49" s="0"/>
+      <c r="UB49" s="0"/>
+      <c r="UC49" s="0"/>
+      <c r="UD49" s="0"/>
+      <c r="UE49" s="0"/>
+      <c r="UF49" s="0"/>
+      <c r="UG49" s="0"/>
+      <c r="UH49" s="0"/>
+      <c r="UI49" s="0"/>
+      <c r="UJ49" s="0"/>
+      <c r="UK49" s="0"/>
+      <c r="UL49" s="0"/>
+      <c r="UM49" s="0"/>
+      <c r="UN49" s="0"/>
+      <c r="UO49" s="0"/>
+      <c r="UP49" s="0"/>
+      <c r="UQ49" s="0"/>
+      <c r="UR49" s="0"/>
+      <c r="US49" s="0"/>
+      <c r="UT49" s="0"/>
+      <c r="UU49" s="0"/>
+      <c r="UV49" s="0"/>
+      <c r="UW49" s="0"/>
+      <c r="UX49" s="0"/>
+      <c r="UY49" s="0"/>
+      <c r="UZ49" s="0"/>
+      <c r="VA49" s="0"/>
+      <c r="VB49" s="0"/>
+      <c r="VC49" s="0"/>
+      <c r="VD49" s="0"/>
+      <c r="VE49" s="0"/>
+      <c r="VF49" s="0"/>
+      <c r="VG49" s="0"/>
+      <c r="VH49" s="0"/>
+      <c r="VI49" s="0"/>
+      <c r="VJ49" s="0"/>
+      <c r="VK49" s="0"/>
+      <c r="VL49" s="0"/>
+      <c r="VM49" s="0"/>
+      <c r="VN49" s="0"/>
+      <c r="VO49" s="0"/>
+      <c r="VP49" s="0"/>
+      <c r="VQ49" s="0"/>
+      <c r="VR49" s="0"/>
+      <c r="VS49" s="0"/>
+      <c r="VT49" s="0"/>
+      <c r="VU49" s="0"/>
+      <c r="VV49" s="0"/>
+      <c r="VW49" s="0"/>
+      <c r="VX49" s="0"/>
+      <c r="VY49" s="0"/>
+      <c r="VZ49" s="0"/>
+      <c r="WA49" s="0"/>
+      <c r="WB49" s="0"/>
+      <c r="WC49" s="0"/>
+      <c r="WD49" s="0"/>
+      <c r="WE49" s="0"/>
+      <c r="WF49" s="0"/>
+      <c r="WG49" s="0"/>
+      <c r="WH49" s="0"/>
+      <c r="WI49" s="0"/>
+      <c r="WJ49" s="0"/>
+      <c r="WK49" s="0"/>
+      <c r="WL49" s="0"/>
+      <c r="WM49" s="0"/>
+      <c r="WN49" s="0"/>
+      <c r="WO49" s="0"/>
+      <c r="WP49" s="0"/>
+      <c r="WQ49" s="0"/>
+      <c r="WR49" s="0"/>
+      <c r="WS49" s="0"/>
+      <c r="WT49" s="0"/>
+      <c r="WU49" s="0"/>
+      <c r="WV49" s="0"/>
+      <c r="WW49" s="0"/>
+      <c r="WX49" s="0"/>
+      <c r="WY49" s="0"/>
+      <c r="WZ49" s="0"/>
+      <c r="XA49" s="0"/>
+      <c r="XB49" s="0"/>
+      <c r="XC49" s="0"/>
+      <c r="XD49" s="0"/>
+      <c r="XE49" s="0"/>
+      <c r="XF49" s="0"/>
+      <c r="XG49" s="0"/>
+      <c r="XH49" s="0"/>
+      <c r="XI49" s="0"/>
+      <c r="XJ49" s="0"/>
+      <c r="XK49" s="0"/>
+      <c r="XL49" s="0"/>
+      <c r="XM49" s="0"/>
+      <c r="XN49" s="0"/>
+      <c r="XO49" s="0"/>
+      <c r="XP49" s="0"/>
+      <c r="XQ49" s="0"/>
+      <c r="XR49" s="0"/>
+      <c r="XS49" s="0"/>
+      <c r="XT49" s="0"/>
+      <c r="XU49" s="0"/>
+      <c r="XV49" s="0"/>
+      <c r="XW49" s="0"/>
+      <c r="XX49" s="0"/>
+      <c r="XY49" s="0"/>
+      <c r="XZ49" s="0"/>
+      <c r="YA49" s="0"/>
+      <c r="YB49" s="0"/>
+      <c r="YC49" s="0"/>
+      <c r="YD49" s="0"/>
+      <c r="YE49" s="0"/>
+      <c r="YF49" s="0"/>
+      <c r="YG49" s="0"/>
+      <c r="YH49" s="0"/>
+      <c r="YI49" s="0"/>
+      <c r="YJ49" s="0"/>
+      <c r="YK49" s="0"/>
+      <c r="YL49" s="0"/>
+      <c r="YM49" s="0"/>
+      <c r="YN49" s="0"/>
+      <c r="YO49" s="0"/>
+      <c r="YP49" s="0"/>
+      <c r="YQ49" s="0"/>
+      <c r="YR49" s="0"/>
+      <c r="YS49" s="0"/>
+      <c r="YT49" s="0"/>
+      <c r="YU49" s="0"/>
+      <c r="YV49" s="0"/>
+      <c r="YW49" s="0"/>
+      <c r="YX49" s="0"/>
+      <c r="YY49" s="0"/>
+      <c r="YZ49" s="0"/>
+      <c r="ZA49" s="0"/>
+      <c r="ZB49" s="0"/>
+      <c r="ZC49" s="0"/>
+      <c r="ZD49" s="0"/>
+      <c r="ZE49" s="0"/>
+      <c r="ZF49" s="0"/>
+      <c r="ZG49" s="0"/>
+      <c r="ZH49" s="0"/>
+      <c r="ZI49" s="0"/>
+      <c r="ZJ49" s="0"/>
+      <c r="ZK49" s="0"/>
+      <c r="ZL49" s="0"/>
+      <c r="ZM49" s="0"/>
+      <c r="ZN49" s="0"/>
+      <c r="ZO49" s="0"/>
+      <c r="ZP49" s="0"/>
+      <c r="ZQ49" s="0"/>
+      <c r="ZR49" s="0"/>
+      <c r="ZS49" s="0"/>
+      <c r="ZT49" s="0"/>
+      <c r="ZU49" s="0"/>
+      <c r="ZV49" s="0"/>
+      <c r="ZW49" s="0"/>
+      <c r="ZX49" s="0"/>
+      <c r="ZY49" s="0"/>
+      <c r="ZZ49" s="0"/>
+      <c r="AAA49" s="0"/>
+      <c r="AAB49" s="0"/>
+      <c r="AAC49" s="0"/>
+      <c r="AAD49" s="0"/>
+      <c r="AAE49" s="0"/>
+      <c r="AAF49" s="0"/>
+      <c r="AAG49" s="0"/>
+      <c r="AAH49" s="0"/>
+      <c r="AAI49" s="0"/>
+      <c r="AAJ49" s="0"/>
+      <c r="AAK49" s="0"/>
+      <c r="AAL49" s="0"/>
+      <c r="AAM49" s="0"/>
+      <c r="AAN49" s="0"/>
+      <c r="AAO49" s="0"/>
+      <c r="AAP49" s="0"/>
+      <c r="AAQ49" s="0"/>
+      <c r="AAR49" s="0"/>
+      <c r="AAS49" s="0"/>
+      <c r="AAT49" s="0"/>
+      <c r="AAU49" s="0"/>
+      <c r="AAV49" s="0"/>
+      <c r="AAW49" s="0"/>
+      <c r="AAX49" s="0"/>
+      <c r="AAY49" s="0"/>
+      <c r="AAZ49" s="0"/>
+      <c r="ABA49" s="0"/>
+      <c r="ABB49" s="0"/>
+      <c r="ABC49" s="0"/>
+      <c r="ABD49" s="0"/>
+      <c r="ABE49" s="0"/>
+      <c r="ABF49" s="0"/>
+      <c r="ABG49" s="0"/>
+      <c r="ABH49" s="0"/>
+      <c r="ABI49" s="0"/>
+      <c r="ABJ49" s="0"/>
+      <c r="ABK49" s="0"/>
+      <c r="ABL49" s="0"/>
+      <c r="ABM49" s="0"/>
+      <c r="ABN49" s="0"/>
+      <c r="ABO49" s="0"/>
+      <c r="ABP49" s="0"/>
+      <c r="ABQ49" s="0"/>
+      <c r="ABR49" s="0"/>
+      <c r="ABS49" s="0"/>
+      <c r="ABT49" s="0"/>
+      <c r="ABU49" s="0"/>
+      <c r="ABV49" s="0"/>
+      <c r="ABW49" s="0"/>
+      <c r="ABX49" s="0"/>
+      <c r="ABY49" s="0"/>
+      <c r="ABZ49" s="0"/>
+      <c r="ACA49" s="0"/>
+      <c r="ACB49" s="0"/>
+      <c r="ACC49" s="0"/>
+      <c r="ACD49" s="0"/>
+      <c r="ACE49" s="0"/>
+      <c r="ACF49" s="0"/>
+      <c r="ACG49" s="0"/>
+      <c r="ACH49" s="0"/>
+      <c r="ACI49" s="0"/>
+      <c r="ACJ49" s="0"/>
+      <c r="ACK49" s="0"/>
+      <c r="ACL49" s="0"/>
+      <c r="ACM49" s="0"/>
+      <c r="ACN49" s="0"/>
+      <c r="ACO49" s="0"/>
+      <c r="ACP49" s="0"/>
+      <c r="ACQ49" s="0"/>
+      <c r="ACR49" s="0"/>
+      <c r="ACS49" s="0"/>
+      <c r="ACT49" s="0"/>
+      <c r="ACU49" s="0"/>
+      <c r="ACV49" s="0"/>
+      <c r="ACW49" s="0"/>
+      <c r="ACX49" s="0"/>
+      <c r="ACY49" s="0"/>
+      <c r="ACZ49" s="0"/>
+      <c r="ADA49" s="0"/>
+      <c r="ADB49" s="0"/>
+      <c r="ADC49" s="0"/>
+      <c r="ADD49" s="0"/>
+      <c r="ADE49" s="0"/>
+      <c r="ADF49" s="0"/>
+      <c r="ADG49" s="0"/>
+      <c r="ADH49" s="0"/>
+      <c r="ADI49" s="0"/>
+      <c r="ADJ49" s="0"/>
+      <c r="ADK49" s="0"/>
+      <c r="ADL49" s="0"/>
+      <c r="ADM49" s="0"/>
+      <c r="ADN49" s="0"/>
+      <c r="ADO49" s="0"/>
+      <c r="ADP49" s="0"/>
+      <c r="ADQ49" s="0"/>
+      <c r="ADR49" s="0"/>
+      <c r="ADS49" s="0"/>
+      <c r="ADT49" s="0"/>
+      <c r="ADU49" s="0"/>
+      <c r="ADV49" s="0"/>
+      <c r="ADW49" s="0"/>
+      <c r="ADX49" s="0"/>
+      <c r="ADY49" s="0"/>
+      <c r="ADZ49" s="0"/>
+      <c r="AEA49" s="0"/>
+      <c r="AEB49" s="0"/>
+      <c r="AEC49" s="0"/>
+      <c r="AED49" s="0"/>
+      <c r="AEE49" s="0"/>
+      <c r="AEF49" s="0"/>
+      <c r="AEG49" s="0"/>
+      <c r="AEH49" s="0"/>
+      <c r="AEI49" s="0"/>
+      <c r="AEJ49" s="0"/>
+      <c r="AEK49" s="0"/>
+      <c r="AEL49" s="0"/>
+      <c r="AEM49" s="0"/>
+      <c r="AEN49" s="0"/>
+      <c r="AEO49" s="0"/>
+      <c r="AEP49" s="0"/>
+      <c r="AEQ49" s="0"/>
+      <c r="AER49" s="0"/>
+      <c r="AES49" s="0"/>
+      <c r="AET49" s="0"/>
+      <c r="AEU49" s="0"/>
+      <c r="AEV49" s="0"/>
+      <c r="AEW49" s="0"/>
+      <c r="AEX49" s="0"/>
+      <c r="AEY49" s="0"/>
+      <c r="AEZ49" s="0"/>
+      <c r="AFA49" s="0"/>
+      <c r="AFB49" s="0"/>
+      <c r="AFC49" s="0"/>
+      <c r="AFD49" s="0"/>
+      <c r="AFE49" s="0"/>
+      <c r="AFF49" s="0"/>
+      <c r="AFG49" s="0"/>
+      <c r="AFH49" s="0"/>
+      <c r="AFI49" s="0"/>
+      <c r="AFJ49" s="0"/>
+      <c r="AFK49" s="0"/>
+      <c r="AFL49" s="0"/>
+      <c r="AFM49" s="0"/>
+      <c r="AFN49" s="0"/>
+      <c r="AFO49" s="0"/>
+      <c r="AFP49" s="0"/>
+      <c r="AFQ49" s="0"/>
+      <c r="AFR49" s="0"/>
+      <c r="AFS49" s="0"/>
+      <c r="AFT49" s="0"/>
+      <c r="AFU49" s="0"/>
+      <c r="AFV49" s="0"/>
+      <c r="AFW49" s="0"/>
+      <c r="AFX49" s="0"/>
+      <c r="AFY49" s="0"/>
+      <c r="AFZ49" s="0"/>
+      <c r="AGA49" s="0"/>
+      <c r="AGB49" s="0"/>
+      <c r="AGC49" s="0"/>
+      <c r="AGD49" s="0"/>
+      <c r="AGE49" s="0"/>
+      <c r="AGF49" s="0"/>
+      <c r="AGG49" s="0"/>
+      <c r="AGH49" s="0"/>
+      <c r="AGI49" s="0"/>
+      <c r="AGJ49" s="0"/>
+      <c r="AGK49" s="0"/>
+      <c r="AGL49" s="0"/>
+      <c r="AGM49" s="0"/>
+      <c r="AGN49" s="0"/>
+      <c r="AGO49" s="0"/>
+      <c r="AGP49" s="0"/>
+      <c r="AGQ49" s="0"/>
+      <c r="AGR49" s="0"/>
+      <c r="AGS49" s="0"/>
+      <c r="AGT49" s="0"/>
+      <c r="AGU49" s="0"/>
+      <c r="AGV49" s="0"/>
+      <c r="AGW49" s="0"/>
+      <c r="AGX49" s="0"/>
+      <c r="AGY49" s="0"/>
+      <c r="AGZ49" s="0"/>
+      <c r="AHA49" s="0"/>
+      <c r="AHB49" s="0"/>
+      <c r="AHC49" s="0"/>
+      <c r="AHD49" s="0"/>
+      <c r="AHE49" s="0"/>
+      <c r="AHF49" s="0"/>
+      <c r="AHG49" s="0"/>
+      <c r="AHH49" s="0"/>
+      <c r="AHI49" s="0"/>
+      <c r="AHJ49" s="0"/>
+      <c r="AHK49" s="0"/>
+      <c r="AHL49" s="0"/>
+      <c r="AHM49" s="0"/>
+      <c r="AHN49" s="0"/>
+      <c r="AHO49" s="0"/>
+      <c r="AHP49" s="0"/>
+      <c r="AHQ49" s="0"/>
+      <c r="AHR49" s="0"/>
+      <c r="AHS49" s="0"/>
+      <c r="AHT49" s="0"/>
+      <c r="AHU49" s="0"/>
+      <c r="AHV49" s="0"/>
+      <c r="AHW49" s="0"/>
+      <c r="AHX49" s="0"/>
+      <c r="AHY49" s="0"/>
+      <c r="AHZ49" s="0"/>
+      <c r="AIA49" s="0"/>
+      <c r="AIB49" s="0"/>
+      <c r="AIC49" s="0"/>
+      <c r="AID49" s="0"/>
+      <c r="AIE49" s="0"/>
+      <c r="AIF49" s="0"/>
+      <c r="AIG49" s="0"/>
+      <c r="AIH49" s="0"/>
+      <c r="AII49" s="0"/>
+      <c r="AIJ49" s="0"/>
+      <c r="AIK49" s="0"/>
+      <c r="AIL49" s="0"/>
+      <c r="AIM49" s="0"/>
+      <c r="AIN49" s="0"/>
+      <c r="AIO49" s="0"/>
+      <c r="AIP49" s="0"/>
+      <c r="AIQ49" s="0"/>
+      <c r="AIR49" s="0"/>
+      <c r="AIS49" s="0"/>
+      <c r="AIT49" s="0"/>
+      <c r="AIU49" s="0"/>
+      <c r="AIV49" s="0"/>
+      <c r="AIW49" s="0"/>
+      <c r="AIX49" s="0"/>
+      <c r="AIY49" s="0"/>
+      <c r="AIZ49" s="0"/>
+      <c r="AJA49" s="0"/>
+      <c r="AJB49" s="0"/>
+      <c r="AJC49" s="0"/>
+      <c r="AJD49" s="0"/>
+      <c r="AJE49" s="0"/>
+      <c r="AJF49" s="0"/>
+      <c r="AJG49" s="0"/>
+      <c r="AJH49" s="0"/>
+      <c r="AJI49" s="0"/>
+      <c r="AJJ49" s="0"/>
+      <c r="AJK49" s="0"/>
+      <c r="AJL49" s="0"/>
+      <c r="AJM49" s="0"/>
+      <c r="AJN49" s="0"/>
+      <c r="AJO49" s="0"/>
+      <c r="AJP49" s="0"/>
+      <c r="AJQ49" s="0"/>
+      <c r="AJR49" s="0"/>
+      <c r="AJS49" s="0"/>
+      <c r="AJT49" s="0"/>
+      <c r="AJU49" s="0"/>
+      <c r="AJV49" s="0"/>
+      <c r="AJW49" s="0"/>
+      <c r="AJX49" s="0"/>
+      <c r="AJY49" s="0"/>
+      <c r="AJZ49" s="0"/>
+      <c r="AKA49" s="0"/>
+      <c r="AKB49" s="0"/>
+      <c r="AKC49" s="0"/>
+      <c r="AKD49" s="0"/>
+      <c r="AKE49" s="0"/>
+      <c r="AKF49" s="0"/>
+      <c r="AKG49" s="0"/>
+      <c r="AKH49" s="0"/>
+      <c r="AKI49" s="0"/>
+      <c r="AKJ49" s="0"/>
+      <c r="AKK49" s="0"/>
+      <c r="AKL49" s="0"/>
+      <c r="AKM49" s="0"/>
+      <c r="AKN49" s="0"/>
+      <c r="AKO49" s="0"/>
+      <c r="AKP49" s="0"/>
+      <c r="AKQ49" s="0"/>
+      <c r="AKR49" s="0"/>
+      <c r="AKS49" s="0"/>
+      <c r="AKT49" s="0"/>
+      <c r="AKU49" s="0"/>
+      <c r="AKV49" s="0"/>
+      <c r="AKW49" s="0"/>
+      <c r="AKX49" s="0"/>
+      <c r="AKY49" s="0"/>
+      <c r="AKZ49" s="0"/>
+      <c r="ALA49" s="0"/>
+      <c r="ALB49" s="0"/>
+      <c r="ALC49" s="0"/>
+      <c r="ALD49" s="0"/>
+      <c r="ALE49" s="0"/>
+      <c r="ALF49" s="0"/>
+      <c r="ALG49" s="0"/>
+      <c r="ALH49" s="0"/>
+      <c r="ALI49" s="0"/>
+      <c r="ALJ49" s="0"/>
+      <c r="ALK49" s="0"/>
+      <c r="ALL49" s="0"/>
+      <c r="ALM49" s="0"/>
+      <c r="ALN49" s="0"/>
+      <c r="ALO49" s="0"/>
+      <c r="ALP49" s="0"/>
+      <c r="ALQ49" s="0"/>
+      <c r="ALR49" s="0"/>
+      <c r="ALS49" s="0"/>
+      <c r="ALT49" s="0"/>
+      <c r="ALU49" s="0"/>
+      <c r="ALV49" s="0"/>
+      <c r="ALW49" s="0"/>
+      <c r="ALX49" s="0"/>
+      <c r="ALY49" s="0"/>
+      <c r="ALZ49" s="0"/>
+      <c r="AMA49" s="0"/>
+      <c r="AMB49" s="0"/>
+      <c r="AMC49" s="0"/>
+      <c r="AMD49" s="0"/>
+      <c r="AME49" s="0"/>
+      <c r="AMF49" s="0"/>
+      <c r="AMG49" s="0"/>
+      <c r="AMH49" s="0"/>
+      <c r="AMI49" s="0"/>
+      <c r="AMJ49" s="0"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D568">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D568">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
@@ -45855,7 +49981,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D568">
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
@@ -45863,12 +49989,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D568">
     <cfRule type="duplicateValues" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D568">
     <cfRule type="duplicateValues" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>0</formula>
     </cfRule>
@@ -45876,17 +50002,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D568">
     <cfRule type="duplicateValues" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D568">
     <cfRule type="duplicateValues" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C563">
+  <conditionalFormatting sqref="D568">
     <cfRule type="duplicateValues" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
@@ -45894,7 +50020,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D354">
     <cfRule type="duplicateValues" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>0</formula>
     </cfRule>
@@ -45902,12 +50028,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D354">
     <cfRule type="duplicateValues" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D354">
     <cfRule type="duplicateValues" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>0</formula>
     </cfRule>
@@ -45915,12 +50041,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D354">
     <cfRule type="duplicateValues" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D354">
     <cfRule type="duplicateValues" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
@@ -45928,17 +50054,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D354">
     <cfRule type="duplicateValues" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D354">
     <cfRule type="duplicateValues" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349">
+  <conditionalFormatting sqref="D354">
     <cfRule type="duplicateValues" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>0</formula>
     </cfRule>
@@ -45969,67 +50095,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t xml:space="preserve">NIVEL/CANAL</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">n.adaide.santos@aec.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENTE AUTORIZADO</t>
   </si>
   <si>
     <t xml:space="preserve">COMERCIAL</t>
@@ -255,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -268,20 +271,6 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -313,7 +302,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,52 +315,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -478,23 +451,23 @@
   <dimension ref="1:49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.25"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1540,28 +1513,28 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="7" t="n">
         <v>10604168403</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="9" t="n">
         <v>34218</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I2" s="0"/>
@@ -2582,26 +2555,26 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="n">
         <v>31944</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I3" s="0"/>
@@ -3622,28 +3595,28 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
+      <c r="A4" s="1" t="s">
+        <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="7" t="n">
         <v>70159931479</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>18</v>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="9" t="n">
         <v>34436</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I4" s="0"/>
@@ -4664,28 +4637,28 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="7" t="n">
         <v>2917600403</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="9" t="n">
         <v>27678</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I5" s="0"/>
@@ -5706,28 +5679,28 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="7" t="n">
         <v>9249138431</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>22</v>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="9" t="n">
         <v>32373</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I6" s="0"/>
@@ -6748,28 +6721,28 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="7" t="n">
         <v>12532343451</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>24</v>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="9" t="n">
         <v>35926</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I7" s="0"/>
@@ -7790,28 +7763,28 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="7" t="n">
         <v>11523845465</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>26</v>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
       </c>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="9" t="n">
         <v>34705</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I8" s="0"/>
@@ -8832,28 +8805,28 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>27</v>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="7" t="n">
         <v>1581072414</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>28</v>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="9" t="n">
         <v>32575</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I9" s="0"/>
@@ -9874,28 +9847,28 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="7" t="n">
         <v>10161857400</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>30</v>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="9" t="n">
         <v>33127</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I10" s="0"/>
@@ -10916,13 +10889,10 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -11941,13 +11911,10 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -12966,13 +12933,10 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -13991,13 +13955,10 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -15016,13 +14977,10 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -16041,28 +15999,28 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="7" t="n">
         <v>10144034727</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>32</v>
+      <c r="F16" s="8" t="s">
+        <v>33</v>
       </c>
-      <c r="G16" s="14" t="n">
+      <c r="G16" s="9" t="n">
         <v>31722</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I16" s="0"/>
@@ -17083,28 +17041,28 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="7" t="n">
         <v>5985368416</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>34</v>
+      <c r="F17" s="8" t="s">
+        <v>35</v>
       </c>
-      <c r="G17" s="14" t="n">
+      <c r="G17" s="9" t="n">
         <v>31827</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I17" s="0"/>
@@ -18125,28 +18083,28 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>35</v>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="7" t="n">
         <v>70028986474</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>36</v>
+      <c r="F18" s="8" t="s">
+        <v>37</v>
       </c>
-      <c r="G18" s="14" t="n">
+      <c r="G18" s="9" t="n">
         <v>34532</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I18" s="0"/>
@@ -19167,28 +19125,28 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>37</v>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="7" t="n">
         <v>6920673452</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>38</v>
+      <c r="F19" s="8" t="s">
+        <v>39</v>
       </c>
-      <c r="G19" s="14" t="n">
+      <c r="G19" s="9" t="n">
         <v>31751</v>
       </c>
-      <c r="H19" s="8" t="n">
+      <c r="H19" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I19" s="0"/>
@@ -20209,28 +20167,28 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>39</v>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="7" t="n">
         <v>2131</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>40</v>
+      <c r="F20" s="8" t="s">
+        <v>41</v>
       </c>
-      <c r="G20" s="14" t="n">
+      <c r="G20" s="9" t="n">
         <v>30749</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I20" s="0"/>
@@ -21250,14 +21208,1037 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="0"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
+      <c r="AD21" s="0"/>
+      <c r="AE21" s="0"/>
+      <c r="AF21" s="0"/>
+      <c r="AG21" s="0"/>
+      <c r="AH21" s="0"/>
+      <c r="AI21" s="0"/>
+      <c r="AJ21" s="0"/>
+      <c r="AK21" s="0"/>
+      <c r="AL21" s="0"/>
+      <c r="AM21" s="0"/>
+      <c r="AN21" s="0"/>
+      <c r="AO21" s="0"/>
+      <c r="AP21" s="0"/>
+      <c r="AQ21" s="0"/>
+      <c r="AR21" s="0"/>
+      <c r="AS21" s="0"/>
+      <c r="AT21" s="0"/>
+      <c r="AU21" s="0"/>
+      <c r="AV21" s="0"/>
+      <c r="AW21" s="0"/>
+      <c r="AX21" s="0"/>
+      <c r="AY21" s="0"/>
+      <c r="AZ21" s="0"/>
+      <c r="BA21" s="0"/>
+      <c r="BB21" s="0"/>
+      <c r="BC21" s="0"/>
+      <c r="BD21" s="0"/>
+      <c r="BE21" s="0"/>
+      <c r="BF21" s="0"/>
+      <c r="BG21" s="0"/>
+      <c r="BH21" s="0"/>
+      <c r="BI21" s="0"/>
+      <c r="BJ21" s="0"/>
+      <c r="BK21" s="0"/>
+      <c r="BL21" s="0"/>
+      <c r="BM21" s="0"/>
+      <c r="BN21" s="0"/>
+      <c r="BO21" s="0"/>
+      <c r="BP21" s="0"/>
+      <c r="BQ21" s="0"/>
+      <c r="BR21" s="0"/>
+      <c r="BS21" s="0"/>
+      <c r="BT21" s="0"/>
+      <c r="BU21" s="0"/>
+      <c r="BV21" s="0"/>
+      <c r="BW21" s="0"/>
+      <c r="BX21" s="0"/>
+      <c r="BY21" s="0"/>
+      <c r="BZ21" s="0"/>
+      <c r="CA21" s="0"/>
+      <c r="CB21" s="0"/>
+      <c r="CC21" s="0"/>
+      <c r="CD21" s="0"/>
+      <c r="CE21" s="0"/>
+      <c r="CF21" s="0"/>
+      <c r="CG21" s="0"/>
+      <c r="CH21" s="0"/>
+      <c r="CI21" s="0"/>
+      <c r="CJ21" s="0"/>
+      <c r="CK21" s="0"/>
+      <c r="CL21" s="0"/>
+      <c r="CM21" s="0"/>
+      <c r="CN21" s="0"/>
+      <c r="CO21" s="0"/>
+      <c r="CP21" s="0"/>
+      <c r="CQ21" s="0"/>
+      <c r="CR21" s="0"/>
+      <c r="CS21" s="0"/>
+      <c r="CT21" s="0"/>
+      <c r="CU21" s="0"/>
+      <c r="CV21" s="0"/>
+      <c r="CW21" s="0"/>
+      <c r="CX21" s="0"/>
+      <c r="CY21" s="0"/>
+      <c r="CZ21" s="0"/>
+      <c r="DA21" s="0"/>
+      <c r="DB21" s="0"/>
+      <c r="DC21" s="0"/>
+      <c r="DD21" s="0"/>
+      <c r="DE21" s="0"/>
+      <c r="DF21" s="0"/>
+      <c r="DG21" s="0"/>
+      <c r="DH21" s="0"/>
+      <c r="DI21" s="0"/>
+      <c r="DJ21" s="0"/>
+      <c r="DK21" s="0"/>
+      <c r="DL21" s="0"/>
+      <c r="DM21" s="0"/>
+      <c r="DN21" s="0"/>
+      <c r="DO21" s="0"/>
+      <c r="DP21" s="0"/>
+      <c r="DQ21" s="0"/>
+      <c r="DR21" s="0"/>
+      <c r="DS21" s="0"/>
+      <c r="DT21" s="0"/>
+      <c r="DU21" s="0"/>
+      <c r="DV21" s="0"/>
+      <c r="DW21" s="0"/>
+      <c r="DX21" s="0"/>
+      <c r="DY21" s="0"/>
+      <c r="DZ21" s="0"/>
+      <c r="EA21" s="0"/>
+      <c r="EB21" s="0"/>
+      <c r="EC21" s="0"/>
+      <c r="ED21" s="0"/>
+      <c r="EE21" s="0"/>
+      <c r="EF21" s="0"/>
+      <c r="EG21" s="0"/>
+      <c r="EH21" s="0"/>
+      <c r="EI21" s="0"/>
+      <c r="EJ21" s="0"/>
+      <c r="EK21" s="0"/>
+      <c r="EL21" s="0"/>
+      <c r="EM21" s="0"/>
+      <c r="EN21" s="0"/>
+      <c r="EO21" s="0"/>
+      <c r="EP21" s="0"/>
+      <c r="EQ21" s="0"/>
+      <c r="ER21" s="0"/>
+      <c r="ES21" s="0"/>
+      <c r="ET21" s="0"/>
+      <c r="EU21" s="0"/>
+      <c r="EV21" s="0"/>
+      <c r="EW21" s="0"/>
+      <c r="EX21" s="0"/>
+      <c r="EY21" s="0"/>
+      <c r="EZ21" s="0"/>
+      <c r="FA21" s="0"/>
+      <c r="FB21" s="0"/>
+      <c r="FC21" s="0"/>
+      <c r="FD21" s="0"/>
+      <c r="FE21" s="0"/>
+      <c r="FF21" s="0"/>
+      <c r="FG21" s="0"/>
+      <c r="FH21" s="0"/>
+      <c r="FI21" s="0"/>
+      <c r="FJ21" s="0"/>
+      <c r="FK21" s="0"/>
+      <c r="FL21" s="0"/>
+      <c r="FM21" s="0"/>
+      <c r="FN21" s="0"/>
+      <c r="FO21" s="0"/>
+      <c r="FP21" s="0"/>
+      <c r="FQ21" s="0"/>
+      <c r="FR21" s="0"/>
+      <c r="FS21" s="0"/>
+      <c r="FT21" s="0"/>
+      <c r="FU21" s="0"/>
+      <c r="FV21" s="0"/>
+      <c r="FW21" s="0"/>
+      <c r="FX21" s="0"/>
+      <c r="FY21" s="0"/>
+      <c r="FZ21" s="0"/>
+      <c r="GA21" s="0"/>
+      <c r="GB21" s="0"/>
+      <c r="GC21" s="0"/>
+      <c r="GD21" s="0"/>
+      <c r="GE21" s="0"/>
+      <c r="GF21" s="0"/>
+      <c r="GG21" s="0"/>
+      <c r="GH21" s="0"/>
+      <c r="GI21" s="0"/>
+      <c r="GJ21" s="0"/>
+      <c r="GK21" s="0"/>
+      <c r="GL21" s="0"/>
+      <c r="GM21" s="0"/>
+      <c r="GN21" s="0"/>
+      <c r="GO21" s="0"/>
+      <c r="GP21" s="0"/>
+      <c r="GQ21" s="0"/>
+      <c r="GR21" s="0"/>
+      <c r="GS21" s="0"/>
+      <c r="GT21" s="0"/>
+      <c r="GU21" s="0"/>
+      <c r="GV21" s="0"/>
+      <c r="GW21" s="0"/>
+      <c r="GX21" s="0"/>
+      <c r="GY21" s="0"/>
+      <c r="GZ21" s="0"/>
+      <c r="HA21" s="0"/>
+      <c r="HB21" s="0"/>
+      <c r="HC21" s="0"/>
+      <c r="HD21" s="0"/>
+      <c r="HE21" s="0"/>
+      <c r="HF21" s="0"/>
+      <c r="HG21" s="0"/>
+      <c r="HH21" s="0"/>
+      <c r="HI21" s="0"/>
+      <c r="HJ21" s="0"/>
+      <c r="HK21" s="0"/>
+      <c r="HL21" s="0"/>
+      <c r="HM21" s="0"/>
+      <c r="HN21" s="0"/>
+      <c r="HO21" s="0"/>
+      <c r="HP21" s="0"/>
+      <c r="HQ21" s="0"/>
+      <c r="HR21" s="0"/>
+      <c r="HS21" s="0"/>
+      <c r="HT21" s="0"/>
+      <c r="HU21" s="0"/>
+      <c r="HV21" s="0"/>
+      <c r="HW21" s="0"/>
+      <c r="HX21" s="0"/>
+      <c r="HY21" s="0"/>
+      <c r="HZ21" s="0"/>
+      <c r="IA21" s="0"/>
+      <c r="IB21" s="0"/>
+      <c r="IC21" s="0"/>
+      <c r="ID21" s="0"/>
+      <c r="IE21" s="0"/>
+      <c r="IF21" s="0"/>
+      <c r="IG21" s="0"/>
+      <c r="IH21" s="0"/>
+      <c r="II21" s="0"/>
+      <c r="IJ21" s="0"/>
+      <c r="IK21" s="0"/>
+      <c r="IL21" s="0"/>
+      <c r="IM21" s="0"/>
+      <c r="IN21" s="0"/>
+      <c r="IO21" s="0"/>
+      <c r="IP21" s="0"/>
+      <c r="IQ21" s="0"/>
+      <c r="IR21" s="0"/>
+      <c r="IS21" s="0"/>
+      <c r="IT21" s="0"/>
+      <c r="IU21" s="0"/>
+      <c r="IV21" s="0"/>
+      <c r="IW21" s="0"/>
+      <c r="IX21" s="0"/>
+      <c r="IY21" s="0"/>
+      <c r="IZ21" s="0"/>
+      <c r="JA21" s="0"/>
+      <c r="JB21" s="0"/>
+      <c r="JC21" s="0"/>
+      <c r="JD21" s="0"/>
+      <c r="JE21" s="0"/>
+      <c r="JF21" s="0"/>
+      <c r="JG21" s="0"/>
+      <c r="JH21" s="0"/>
+      <c r="JI21" s="0"/>
+      <c r="JJ21" s="0"/>
+      <c r="JK21" s="0"/>
+      <c r="JL21" s="0"/>
+      <c r="JM21" s="0"/>
+      <c r="JN21" s="0"/>
+      <c r="JO21" s="0"/>
+      <c r="JP21" s="0"/>
+      <c r="JQ21" s="0"/>
+      <c r="JR21" s="0"/>
+      <c r="JS21" s="0"/>
+      <c r="JT21" s="0"/>
+      <c r="JU21" s="0"/>
+      <c r="JV21" s="0"/>
+      <c r="JW21" s="0"/>
+      <c r="JX21" s="0"/>
+      <c r="JY21" s="0"/>
+      <c r="JZ21" s="0"/>
+      <c r="KA21" s="0"/>
+      <c r="KB21" s="0"/>
+      <c r="KC21" s="0"/>
+      <c r="KD21" s="0"/>
+      <c r="KE21" s="0"/>
+      <c r="KF21" s="0"/>
+      <c r="KG21" s="0"/>
+      <c r="KH21" s="0"/>
+      <c r="KI21" s="0"/>
+      <c r="KJ21" s="0"/>
+      <c r="KK21" s="0"/>
+      <c r="KL21" s="0"/>
+      <c r="KM21" s="0"/>
+      <c r="KN21" s="0"/>
+      <c r="KO21" s="0"/>
+      <c r="KP21" s="0"/>
+      <c r="KQ21" s="0"/>
+      <c r="KR21" s="0"/>
+      <c r="KS21" s="0"/>
+      <c r="KT21" s="0"/>
+      <c r="KU21" s="0"/>
+      <c r="KV21" s="0"/>
+      <c r="KW21" s="0"/>
+      <c r="KX21" s="0"/>
+      <c r="KY21" s="0"/>
+      <c r="KZ21" s="0"/>
+      <c r="LA21" s="0"/>
+      <c r="LB21" s="0"/>
+      <c r="LC21" s="0"/>
+      <c r="LD21" s="0"/>
+      <c r="LE21" s="0"/>
+      <c r="LF21" s="0"/>
+      <c r="LG21" s="0"/>
+      <c r="LH21" s="0"/>
+      <c r="LI21" s="0"/>
+      <c r="LJ21" s="0"/>
+      <c r="LK21" s="0"/>
+      <c r="LL21" s="0"/>
+      <c r="LM21" s="0"/>
+      <c r="LN21" s="0"/>
+      <c r="LO21" s="0"/>
+      <c r="LP21" s="0"/>
+      <c r="LQ21" s="0"/>
+      <c r="LR21" s="0"/>
+      <c r="LS21" s="0"/>
+      <c r="LT21" s="0"/>
+      <c r="LU21" s="0"/>
+      <c r="LV21" s="0"/>
+      <c r="LW21" s="0"/>
+      <c r="LX21" s="0"/>
+      <c r="LY21" s="0"/>
+      <c r="LZ21" s="0"/>
+      <c r="MA21" s="0"/>
+      <c r="MB21" s="0"/>
+      <c r="MC21" s="0"/>
+      <c r="MD21" s="0"/>
+      <c r="ME21" s="0"/>
+      <c r="MF21" s="0"/>
+      <c r="MG21" s="0"/>
+      <c r="MH21" s="0"/>
+      <c r="MI21" s="0"/>
+      <c r="MJ21" s="0"/>
+      <c r="MK21" s="0"/>
+      <c r="ML21" s="0"/>
+      <c r="MM21" s="0"/>
+      <c r="MN21" s="0"/>
+      <c r="MO21" s="0"/>
+      <c r="MP21" s="0"/>
+      <c r="MQ21" s="0"/>
+      <c r="MR21" s="0"/>
+      <c r="MS21" s="0"/>
+      <c r="MT21" s="0"/>
+      <c r="MU21" s="0"/>
+      <c r="MV21" s="0"/>
+      <c r="MW21" s="0"/>
+      <c r="MX21" s="0"/>
+      <c r="MY21" s="0"/>
+      <c r="MZ21" s="0"/>
+      <c r="NA21" s="0"/>
+      <c r="NB21" s="0"/>
+      <c r="NC21" s="0"/>
+      <c r="ND21" s="0"/>
+      <c r="NE21" s="0"/>
+      <c r="NF21" s="0"/>
+      <c r="NG21" s="0"/>
+      <c r="NH21" s="0"/>
+      <c r="NI21" s="0"/>
+      <c r="NJ21" s="0"/>
+      <c r="NK21" s="0"/>
+      <c r="NL21" s="0"/>
+      <c r="NM21" s="0"/>
+      <c r="NN21" s="0"/>
+      <c r="NO21" s="0"/>
+      <c r="NP21" s="0"/>
+      <c r="NQ21" s="0"/>
+      <c r="NR21" s="0"/>
+      <c r="NS21" s="0"/>
+      <c r="NT21" s="0"/>
+      <c r="NU21" s="0"/>
+      <c r="NV21" s="0"/>
+      <c r="NW21" s="0"/>
+      <c r="NX21" s="0"/>
+      <c r="NY21" s="0"/>
+      <c r="NZ21" s="0"/>
+      <c r="OA21" s="0"/>
+      <c r="OB21" s="0"/>
+      <c r="OC21" s="0"/>
+      <c r="OD21" s="0"/>
+      <c r="OE21" s="0"/>
+      <c r="OF21" s="0"/>
+      <c r="OG21" s="0"/>
+      <c r="OH21" s="0"/>
+      <c r="OI21" s="0"/>
+      <c r="OJ21" s="0"/>
+      <c r="OK21" s="0"/>
+      <c r="OL21" s="0"/>
+      <c r="OM21" s="0"/>
+      <c r="ON21" s="0"/>
+      <c r="OO21" s="0"/>
+      <c r="OP21" s="0"/>
+      <c r="OQ21" s="0"/>
+      <c r="OR21" s="0"/>
+      <c r="OS21" s="0"/>
+      <c r="OT21" s="0"/>
+      <c r="OU21" s="0"/>
+      <c r="OV21" s="0"/>
+      <c r="OW21" s="0"/>
+      <c r="OX21" s="0"/>
+      <c r="OY21" s="0"/>
+      <c r="OZ21" s="0"/>
+      <c r="PA21" s="0"/>
+      <c r="PB21" s="0"/>
+      <c r="PC21" s="0"/>
+      <c r="PD21" s="0"/>
+      <c r="PE21" s="0"/>
+      <c r="PF21" s="0"/>
+      <c r="PG21" s="0"/>
+      <c r="PH21" s="0"/>
+      <c r="PI21" s="0"/>
+      <c r="PJ21" s="0"/>
+      <c r="PK21" s="0"/>
+      <c r="PL21" s="0"/>
+      <c r="PM21" s="0"/>
+      <c r="PN21" s="0"/>
+      <c r="PO21" s="0"/>
+      <c r="PP21" s="0"/>
+      <c r="PQ21" s="0"/>
+      <c r="PR21" s="0"/>
+      <c r="PS21" s="0"/>
+      <c r="PT21" s="0"/>
+      <c r="PU21" s="0"/>
+      <c r="PV21" s="0"/>
+      <c r="PW21" s="0"/>
+      <c r="PX21" s="0"/>
+      <c r="PY21" s="0"/>
+      <c r="PZ21" s="0"/>
+      <c r="QA21" s="0"/>
+      <c r="QB21" s="0"/>
+      <c r="QC21" s="0"/>
+      <c r="QD21" s="0"/>
+      <c r="QE21" s="0"/>
+      <c r="QF21" s="0"/>
+      <c r="QG21" s="0"/>
+      <c r="QH21" s="0"/>
+      <c r="QI21" s="0"/>
+      <c r="QJ21" s="0"/>
+      <c r="QK21" s="0"/>
+      <c r="QL21" s="0"/>
+      <c r="QM21" s="0"/>
+      <c r="QN21" s="0"/>
+      <c r="QO21" s="0"/>
+      <c r="QP21" s="0"/>
+      <c r="QQ21" s="0"/>
+      <c r="QR21" s="0"/>
+      <c r="QS21" s="0"/>
+      <c r="QT21" s="0"/>
+      <c r="QU21" s="0"/>
+      <c r="QV21" s="0"/>
+      <c r="QW21" s="0"/>
+      <c r="QX21" s="0"/>
+      <c r="QY21" s="0"/>
+      <c r="QZ21" s="0"/>
+      <c r="RA21" s="0"/>
+      <c r="RB21" s="0"/>
+      <c r="RC21" s="0"/>
+      <c r="RD21" s="0"/>
+      <c r="RE21" s="0"/>
+      <c r="RF21" s="0"/>
+      <c r="RG21" s="0"/>
+      <c r="RH21" s="0"/>
+      <c r="RI21" s="0"/>
+      <c r="RJ21" s="0"/>
+      <c r="RK21" s="0"/>
+      <c r="RL21" s="0"/>
+      <c r="RM21" s="0"/>
+      <c r="RN21" s="0"/>
+      <c r="RO21" s="0"/>
+      <c r="RP21" s="0"/>
+      <c r="RQ21" s="0"/>
+      <c r="RR21" s="0"/>
+      <c r="RS21" s="0"/>
+      <c r="RT21" s="0"/>
+      <c r="RU21" s="0"/>
+      <c r="RV21" s="0"/>
+      <c r="RW21" s="0"/>
+      <c r="RX21" s="0"/>
+      <c r="RY21" s="0"/>
+      <c r="RZ21" s="0"/>
+      <c r="SA21" s="0"/>
+      <c r="SB21" s="0"/>
+      <c r="SC21" s="0"/>
+      <c r="SD21" s="0"/>
+      <c r="SE21" s="0"/>
+      <c r="SF21" s="0"/>
+      <c r="SG21" s="0"/>
+      <c r="SH21" s="0"/>
+      <c r="SI21" s="0"/>
+      <c r="SJ21" s="0"/>
+      <c r="SK21" s="0"/>
+      <c r="SL21" s="0"/>
+      <c r="SM21" s="0"/>
+      <c r="SN21" s="0"/>
+      <c r="SO21" s="0"/>
+      <c r="SP21" s="0"/>
+      <c r="SQ21" s="0"/>
+      <c r="SR21" s="0"/>
+      <c r="SS21" s="0"/>
+      <c r="ST21" s="0"/>
+      <c r="SU21" s="0"/>
+      <c r="SV21" s="0"/>
+      <c r="SW21" s="0"/>
+      <c r="SX21" s="0"/>
+      <c r="SY21" s="0"/>
+      <c r="SZ21" s="0"/>
+      <c r="TA21" s="0"/>
+      <c r="TB21" s="0"/>
+      <c r="TC21" s="0"/>
+      <c r="TD21" s="0"/>
+      <c r="TE21" s="0"/>
+      <c r="TF21" s="0"/>
+      <c r="TG21" s="0"/>
+      <c r="TH21" s="0"/>
+      <c r="TI21" s="0"/>
+      <c r="TJ21" s="0"/>
+      <c r="TK21" s="0"/>
+      <c r="TL21" s="0"/>
+      <c r="TM21" s="0"/>
+      <c r="TN21" s="0"/>
+      <c r="TO21" s="0"/>
+      <c r="TP21" s="0"/>
+      <c r="TQ21" s="0"/>
+      <c r="TR21" s="0"/>
+      <c r="TS21" s="0"/>
+      <c r="TT21" s="0"/>
+      <c r="TU21" s="0"/>
+      <c r="TV21" s="0"/>
+      <c r="TW21" s="0"/>
+      <c r="TX21" s="0"/>
+      <c r="TY21" s="0"/>
+      <c r="TZ21" s="0"/>
+      <c r="UA21" s="0"/>
+      <c r="UB21" s="0"/>
+      <c r="UC21" s="0"/>
+      <c r="UD21" s="0"/>
+      <c r="UE21" s="0"/>
+      <c r="UF21" s="0"/>
+      <c r="UG21" s="0"/>
+      <c r="UH21" s="0"/>
+      <c r="UI21" s="0"/>
+      <c r="UJ21" s="0"/>
+      <c r="UK21" s="0"/>
+      <c r="UL21" s="0"/>
+      <c r="UM21" s="0"/>
+      <c r="UN21" s="0"/>
+      <c r="UO21" s="0"/>
+      <c r="UP21" s="0"/>
+      <c r="UQ21" s="0"/>
+      <c r="UR21" s="0"/>
+      <c r="US21" s="0"/>
+      <c r="UT21" s="0"/>
+      <c r="UU21" s="0"/>
+      <c r="UV21" s="0"/>
+      <c r="UW21" s="0"/>
+      <c r="UX21" s="0"/>
+      <c r="UY21" s="0"/>
+      <c r="UZ21" s="0"/>
+      <c r="VA21" s="0"/>
+      <c r="VB21" s="0"/>
+      <c r="VC21" s="0"/>
+      <c r="VD21" s="0"/>
+      <c r="VE21" s="0"/>
+      <c r="VF21" s="0"/>
+      <c r="VG21" s="0"/>
+      <c r="VH21" s="0"/>
+      <c r="VI21" s="0"/>
+      <c r="VJ21" s="0"/>
+      <c r="VK21" s="0"/>
+      <c r="VL21" s="0"/>
+      <c r="VM21" s="0"/>
+      <c r="VN21" s="0"/>
+      <c r="VO21" s="0"/>
+      <c r="VP21" s="0"/>
+      <c r="VQ21" s="0"/>
+      <c r="VR21" s="0"/>
+      <c r="VS21" s="0"/>
+      <c r="VT21" s="0"/>
+      <c r="VU21" s="0"/>
+      <c r="VV21" s="0"/>
+      <c r="VW21" s="0"/>
+      <c r="VX21" s="0"/>
+      <c r="VY21" s="0"/>
+      <c r="VZ21" s="0"/>
+      <c r="WA21" s="0"/>
+      <c r="WB21" s="0"/>
+      <c r="WC21" s="0"/>
+      <c r="WD21" s="0"/>
+      <c r="WE21" s="0"/>
+      <c r="WF21" s="0"/>
+      <c r="WG21" s="0"/>
+      <c r="WH21" s="0"/>
+      <c r="WI21" s="0"/>
+      <c r="WJ21" s="0"/>
+      <c r="WK21" s="0"/>
+      <c r="WL21" s="0"/>
+      <c r="WM21" s="0"/>
+      <c r="WN21" s="0"/>
+      <c r="WO21" s="0"/>
+      <c r="WP21" s="0"/>
+      <c r="WQ21" s="0"/>
+      <c r="WR21" s="0"/>
+      <c r="WS21" s="0"/>
+      <c r="WT21" s="0"/>
+      <c r="WU21" s="0"/>
+      <c r="WV21" s="0"/>
+      <c r="WW21" s="0"/>
+      <c r="WX21" s="0"/>
+      <c r="WY21" s="0"/>
+      <c r="WZ21" s="0"/>
+      <c r="XA21" s="0"/>
+      <c r="XB21" s="0"/>
+      <c r="XC21" s="0"/>
+      <c r="XD21" s="0"/>
+      <c r="XE21" s="0"/>
+      <c r="XF21" s="0"/>
+      <c r="XG21" s="0"/>
+      <c r="XH21" s="0"/>
+      <c r="XI21" s="0"/>
+      <c r="XJ21" s="0"/>
+      <c r="XK21" s="0"/>
+      <c r="XL21" s="0"/>
+      <c r="XM21" s="0"/>
+      <c r="XN21" s="0"/>
+      <c r="XO21" s="0"/>
+      <c r="XP21" s="0"/>
+      <c r="XQ21" s="0"/>
+      <c r="XR21" s="0"/>
+      <c r="XS21" s="0"/>
+      <c r="XT21" s="0"/>
+      <c r="XU21" s="0"/>
+      <c r="XV21" s="0"/>
+      <c r="XW21" s="0"/>
+      <c r="XX21" s="0"/>
+      <c r="XY21" s="0"/>
+      <c r="XZ21" s="0"/>
+      <c r="YA21" s="0"/>
+      <c r="YB21" s="0"/>
+      <c r="YC21" s="0"/>
+      <c r="YD21" s="0"/>
+      <c r="YE21" s="0"/>
+      <c r="YF21" s="0"/>
+      <c r="YG21" s="0"/>
+      <c r="YH21" s="0"/>
+      <c r="YI21" s="0"/>
+      <c r="YJ21" s="0"/>
+      <c r="YK21" s="0"/>
+      <c r="YL21" s="0"/>
+      <c r="YM21" s="0"/>
+      <c r="YN21" s="0"/>
+      <c r="YO21" s="0"/>
+      <c r="YP21" s="0"/>
+      <c r="YQ21" s="0"/>
+      <c r="YR21" s="0"/>
+      <c r="YS21" s="0"/>
+      <c r="YT21" s="0"/>
+      <c r="YU21" s="0"/>
+      <c r="YV21" s="0"/>
+      <c r="YW21" s="0"/>
+      <c r="YX21" s="0"/>
+      <c r="YY21" s="0"/>
+      <c r="YZ21" s="0"/>
+      <c r="ZA21" s="0"/>
+      <c r="ZB21" s="0"/>
+      <c r="ZC21" s="0"/>
+      <c r="ZD21" s="0"/>
+      <c r="ZE21" s="0"/>
+      <c r="ZF21" s="0"/>
+      <c r="ZG21" s="0"/>
+      <c r="ZH21" s="0"/>
+      <c r="ZI21" s="0"/>
+      <c r="ZJ21" s="0"/>
+      <c r="ZK21" s="0"/>
+      <c r="ZL21" s="0"/>
+      <c r="ZM21" s="0"/>
+      <c r="ZN21" s="0"/>
+      <c r="ZO21" s="0"/>
+      <c r="ZP21" s="0"/>
+      <c r="ZQ21" s="0"/>
+      <c r="ZR21" s="0"/>
+      <c r="ZS21" s="0"/>
+      <c r="ZT21" s="0"/>
+      <c r="ZU21" s="0"/>
+      <c r="ZV21" s="0"/>
+      <c r="ZW21" s="0"/>
+      <c r="ZX21" s="0"/>
+      <c r="ZY21" s="0"/>
+      <c r="ZZ21" s="0"/>
+      <c r="AAA21" s="0"/>
+      <c r="AAB21" s="0"/>
+      <c r="AAC21" s="0"/>
+      <c r="AAD21" s="0"/>
+      <c r="AAE21" s="0"/>
+      <c r="AAF21" s="0"/>
+      <c r="AAG21" s="0"/>
+      <c r="AAH21" s="0"/>
+      <c r="AAI21" s="0"/>
+      <c r="AAJ21" s="0"/>
+      <c r="AAK21" s="0"/>
+      <c r="AAL21" s="0"/>
+      <c r="AAM21" s="0"/>
+      <c r="AAN21" s="0"/>
+      <c r="AAO21" s="0"/>
+      <c r="AAP21" s="0"/>
+      <c r="AAQ21" s="0"/>
+      <c r="AAR21" s="0"/>
+      <c r="AAS21" s="0"/>
+      <c r="AAT21" s="0"/>
+      <c r="AAU21" s="0"/>
+      <c r="AAV21" s="0"/>
+      <c r="AAW21" s="0"/>
+      <c r="AAX21" s="0"/>
+      <c r="AAY21" s="0"/>
+      <c r="AAZ21" s="0"/>
+      <c r="ABA21" s="0"/>
+      <c r="ABB21" s="0"/>
+      <c r="ABC21" s="0"/>
+      <c r="ABD21" s="0"/>
+      <c r="ABE21" s="0"/>
+      <c r="ABF21" s="0"/>
+      <c r="ABG21" s="0"/>
+      <c r="ABH21" s="0"/>
+      <c r="ABI21" s="0"/>
+      <c r="ABJ21" s="0"/>
+      <c r="ABK21" s="0"/>
+      <c r="ABL21" s="0"/>
+      <c r="ABM21" s="0"/>
+      <c r="ABN21" s="0"/>
+      <c r="ABO21" s="0"/>
+      <c r="ABP21" s="0"/>
+      <c r="ABQ21" s="0"/>
+      <c r="ABR21" s="0"/>
+      <c r="ABS21" s="0"/>
+      <c r="ABT21" s="0"/>
+      <c r="ABU21" s="0"/>
+      <c r="ABV21" s="0"/>
+      <c r="ABW21" s="0"/>
+      <c r="ABX21" s="0"/>
+      <c r="ABY21" s="0"/>
+      <c r="ABZ21" s="0"/>
+      <c r="ACA21" s="0"/>
+      <c r="ACB21" s="0"/>
+      <c r="ACC21" s="0"/>
+      <c r="ACD21" s="0"/>
+      <c r="ACE21" s="0"/>
+      <c r="ACF21" s="0"/>
+      <c r="ACG21" s="0"/>
+      <c r="ACH21" s="0"/>
+      <c r="ACI21" s="0"/>
+      <c r="ACJ21" s="0"/>
+      <c r="ACK21" s="0"/>
+      <c r="ACL21" s="0"/>
+      <c r="ACM21" s="0"/>
+      <c r="ACN21" s="0"/>
+      <c r="ACO21" s="0"/>
+      <c r="ACP21" s="0"/>
+      <c r="ACQ21" s="0"/>
+      <c r="ACR21" s="0"/>
+      <c r="ACS21" s="0"/>
+      <c r="ACT21" s="0"/>
+      <c r="ACU21" s="0"/>
+      <c r="ACV21" s="0"/>
+      <c r="ACW21" s="0"/>
+      <c r="ACX21" s="0"/>
+      <c r="ACY21" s="0"/>
+      <c r="ACZ21" s="0"/>
+      <c r="ADA21" s="0"/>
+      <c r="ADB21" s="0"/>
+      <c r="ADC21" s="0"/>
+      <c r="ADD21" s="0"/>
+      <c r="ADE21" s="0"/>
+      <c r="ADF21" s="0"/>
+      <c r="ADG21" s="0"/>
+      <c r="ADH21" s="0"/>
+      <c r="ADI21" s="0"/>
+      <c r="ADJ21" s="0"/>
+      <c r="ADK21" s="0"/>
+      <c r="ADL21" s="0"/>
+      <c r="ADM21" s="0"/>
+      <c r="ADN21" s="0"/>
+      <c r="ADO21" s="0"/>
+      <c r="ADP21" s="0"/>
+      <c r="ADQ21" s="0"/>
+      <c r="ADR21" s="0"/>
+      <c r="ADS21" s="0"/>
+      <c r="ADT21" s="0"/>
+      <c r="ADU21" s="0"/>
+      <c r="ADV21" s="0"/>
+      <c r="ADW21" s="0"/>
+      <c r="ADX21" s="0"/>
+      <c r="ADY21" s="0"/>
+      <c r="ADZ21" s="0"/>
+      <c r="AEA21" s="0"/>
+      <c r="AEB21" s="0"/>
+      <c r="AEC21" s="0"/>
+      <c r="AED21" s="0"/>
+      <c r="AEE21" s="0"/>
+      <c r="AEF21" s="0"/>
+      <c r="AEG21" s="0"/>
+      <c r="AEH21" s="0"/>
+      <c r="AEI21" s="0"/>
+      <c r="AEJ21" s="0"/>
+      <c r="AEK21" s="0"/>
+      <c r="AEL21" s="0"/>
+      <c r="AEM21" s="0"/>
+      <c r="AEN21" s="0"/>
+      <c r="AEO21" s="0"/>
+      <c r="AEP21" s="0"/>
+      <c r="AEQ21" s="0"/>
+      <c r="AER21" s="0"/>
+      <c r="AES21" s="0"/>
+      <c r="AET21" s="0"/>
+      <c r="AEU21" s="0"/>
+      <c r="AEV21" s="0"/>
+      <c r="AEW21" s="0"/>
+      <c r="AEX21" s="0"/>
+      <c r="AEY21" s="0"/>
+      <c r="AEZ21" s="0"/>
+      <c r="AFA21" s="0"/>
+      <c r="AFB21" s="0"/>
+      <c r="AFC21" s="0"/>
+      <c r="AFD21" s="0"/>
+      <c r="AFE21" s="0"/>
+      <c r="AFF21" s="0"/>
+      <c r="AFG21" s="0"/>
+      <c r="AFH21" s="0"/>
+      <c r="AFI21" s="0"/>
+      <c r="AFJ21" s="0"/>
+      <c r="AFK21" s="0"/>
+      <c r="AFL21" s="0"/>
+      <c r="AFM21" s="0"/>
+      <c r="AFN21" s="0"/>
+      <c r="AFO21" s="0"/>
+      <c r="AFP21" s="0"/>
+      <c r="AFQ21" s="0"/>
+      <c r="AFR21" s="0"/>
+      <c r="AFS21" s="0"/>
+      <c r="AFT21" s="0"/>
+      <c r="AFU21" s="0"/>
+      <c r="AFV21" s="0"/>
+      <c r="AFW21" s="0"/>
+      <c r="AFX21" s="0"/>
+      <c r="AFY21" s="0"/>
+      <c r="AFZ21" s="0"/>
+      <c r="AGA21" s="0"/>
+      <c r="AGB21" s="0"/>
+      <c r="AGC21" s="0"/>
+      <c r="AGD21" s="0"/>
+      <c r="AGE21" s="0"/>
+      <c r="AGF21" s="0"/>
+      <c r="AGG21" s="0"/>
+      <c r="AGH21" s="0"/>
+      <c r="AGI21" s="0"/>
+      <c r="AGJ21" s="0"/>
+      <c r="AGK21" s="0"/>
+      <c r="AGL21" s="0"/>
+      <c r="AGM21" s="0"/>
+      <c r="AGN21" s="0"/>
+      <c r="AGO21" s="0"/>
+      <c r="AGP21" s="0"/>
+      <c r="AGQ21" s="0"/>
+      <c r="AGR21" s="0"/>
+      <c r="AGS21" s="0"/>
+      <c r="AGT21" s="0"/>
+      <c r="AGU21" s="0"/>
+      <c r="AGV21" s="0"/>
+      <c r="AGW21" s="0"/>
+      <c r="AGX21" s="0"/>
+      <c r="AGY21" s="0"/>
+      <c r="AGZ21" s="0"/>
+      <c r="AHA21" s="0"/>
+      <c r="AHB21" s="0"/>
+      <c r="AHC21" s="0"/>
+      <c r="AHD21" s="0"/>
+      <c r="AHE21" s="0"/>
+      <c r="AHF21" s="0"/>
+      <c r="AHG21" s="0"/>
+      <c r="AHH21" s="0"/>
+      <c r="AHI21" s="0"/>
+      <c r="AHJ21" s="0"/>
+      <c r="AHK21" s="0"/>
+      <c r="AHL21" s="0"/>
+      <c r="AHM21" s="0"/>
+      <c r="AHN21" s="0"/>
+      <c r="AHO21" s="0"/>
+      <c r="AHP21" s="0"/>
+      <c r="AHQ21" s="0"/>
+      <c r="AHR21" s="0"/>
+      <c r="AHS21" s="0"/>
+      <c r="AHT21" s="0"/>
+      <c r="AHU21" s="0"/>
+      <c r="AHV21" s="0"/>
+      <c r="AHW21" s="0"/>
+      <c r="AHX21" s="0"/>
+      <c r="AHY21" s="0"/>
+      <c r="AHZ21" s="0"/>
+      <c r="AIA21" s="0"/>
+      <c r="AIB21" s="0"/>
+      <c r="AIC21" s="0"/>
+      <c r="AID21" s="0"/>
+      <c r="AIE21" s="0"/>
+      <c r="AIF21" s="0"/>
+      <c r="AIG21" s="0"/>
+      <c r="AIH21" s="0"/>
+      <c r="AII21" s="0"/>
+      <c r="AIJ21" s="0"/>
+      <c r="AIK21" s="0"/>
+      <c r="AIL21" s="0"/>
+      <c r="AIM21" s="0"/>
+      <c r="AIN21" s="0"/>
+      <c r="AIO21" s="0"/>
+      <c r="AIP21" s="0"/>
+      <c r="AIQ21" s="0"/>
+      <c r="AIR21" s="0"/>
+      <c r="AIS21" s="0"/>
+      <c r="AIT21" s="0"/>
+      <c r="AIU21" s="0"/>
+      <c r="AIV21" s="0"/>
+      <c r="AIW21" s="0"/>
+      <c r="AIX21" s="0"/>
+      <c r="AIY21" s="0"/>
+      <c r="AIZ21" s="0"/>
+      <c r="AJA21" s="0"/>
+      <c r="AJB21" s="0"/>
+      <c r="AJC21" s="0"/>
+      <c r="AJD21" s="0"/>
+      <c r="AJE21" s="0"/>
+      <c r="AJF21" s="0"/>
+      <c r="AJG21" s="0"/>
+      <c r="AJH21" s="0"/>
+      <c r="AJI21" s="0"/>
+      <c r="AJJ21" s="0"/>
+      <c r="AJK21" s="0"/>
+      <c r="AJL21" s="0"/>
+      <c r="AJM21" s="0"/>
+      <c r="AJN21" s="0"/>
+      <c r="AJO21" s="0"/>
+      <c r="AJP21" s="0"/>
+      <c r="AJQ21" s="0"/>
+      <c r="AJR21" s="0"/>
+      <c r="AJS21" s="0"/>
+      <c r="AJT21" s="0"/>
+      <c r="AJU21" s="0"/>
+      <c r="AJV21" s="0"/>
+      <c r="AJW21" s="0"/>
+      <c r="AJX21" s="0"/>
+      <c r="AJY21" s="0"/>
+      <c r="AJZ21" s="0"/>
+      <c r="AKA21" s="0"/>
+      <c r="AKB21" s="0"/>
+      <c r="AKC21" s="0"/>
+      <c r="AKD21" s="0"/>
+      <c r="AKE21" s="0"/>
+      <c r="AKF21" s="0"/>
+      <c r="AKG21" s="0"/>
+      <c r="AKH21" s="0"/>
+      <c r="AKI21" s="0"/>
+      <c r="AKJ21" s="0"/>
+      <c r="AKK21" s="0"/>
+      <c r="AKL21" s="0"/>
+      <c r="AKM21" s="0"/>
+      <c r="AKN21" s="0"/>
+      <c r="AKO21" s="0"/>
+      <c r="AKP21" s="0"/>
+      <c r="AKQ21" s="0"/>
+      <c r="AKR21" s="0"/>
+      <c r="AKS21" s="0"/>
+      <c r="AKT21" s="0"/>
+      <c r="AKU21" s="0"/>
+      <c r="AKV21" s="0"/>
+      <c r="AKW21" s="0"/>
+      <c r="AKX21" s="0"/>
+      <c r="AKY21" s="0"/>
+      <c r="AKZ21" s="0"/>
+      <c r="ALA21" s="0"/>
+      <c r="ALB21" s="0"/>
+      <c r="ALC21" s="0"/>
+      <c r="ALD21" s="0"/>
+      <c r="ALE21" s="0"/>
+      <c r="ALF21" s="0"/>
+      <c r="ALG21" s="0"/>
+      <c r="ALH21" s="0"/>
+      <c r="ALI21" s="0"/>
+      <c r="ALJ21" s="0"/>
+      <c r="ALK21" s="0"/>
+      <c r="ALL21" s="0"/>
+      <c r="ALM21" s="0"/>
+      <c r="ALN21" s="0"/>
+      <c r="ALO21" s="0"/>
+      <c r="ALP21" s="0"/>
+      <c r="ALQ21" s="0"/>
+      <c r="ALR21" s="0"/>
+      <c r="ALS21" s="0"/>
+      <c r="ALT21" s="0"/>
+      <c r="ALU21" s="0"/>
+      <c r="ALV21" s="0"/>
+      <c r="ALW21" s="0"/>
+      <c r="ALX21" s="0"/>
+      <c r="ALY21" s="0"/>
+      <c r="ALZ21" s="0"/>
+      <c r="AMA21" s="0"/>
+      <c r="AMB21" s="0"/>
+      <c r="AMC21" s="0"/>
+      <c r="AMD21" s="0"/>
+      <c r="AME21" s="0"/>
+      <c r="AMF21" s="0"/>
+      <c r="AMG21" s="0"/>
+      <c r="AMH21" s="0"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
     <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -22276,13 +23257,10 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -23301,13 +24279,10 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
@@ -24326,13 +25301,10 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -25351,13 +26323,10 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
@@ -26376,13 +27345,10 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
@@ -27401,13 +28367,10 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
@@ -28426,13 +29389,10 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
@@ -29451,13 +30411,10 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
@@ -30476,13 +31433,10 @@
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
@@ -31501,13 +32455,10 @@
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
@@ -32526,13 +33477,10 @@
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
@@ -33551,13 +34499,10 @@
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
@@ -34576,13 +35521,10 @@
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -35601,13 +36543,10 @@
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
@@ -36626,13 +37565,10 @@
       <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
@@ -37651,13 +38587,10 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -38676,13 +39609,10 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -39701,13 +40631,10 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="8"/>
+      <c r="C40" s="10"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9"/>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -40726,13 +41653,10 @@
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="8"/>
+      <c r="C41" s="10"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
@@ -41751,13 +42675,10 @@
       <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="8"/>
+      <c r="C42" s="10"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
@@ -42776,13 +43697,10 @@
       <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="8"/>
+      <c r="C43" s="10"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
@@ -43801,13 +44719,10 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="8"/>
+      <c r="C44" s="10"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -44826,13 +45741,10 @@
       <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="8"/>
+      <c r="C45" s="10"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9"/>
       <c r="I45" s="0"/>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
@@ -45851,13 +46763,10 @@
       <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="8"/>
+      <c r="C46" s="10"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
@@ -46876,13 +47785,10 @@
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="8"/>
+      <c r="C47" s="10"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
@@ -47901,13 +48807,10 @@
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="8"/>
+      <c r="C48" s="10"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
@@ -48926,28 +49829,28 @@
       <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>41</v>
+      <c r="D49" s="1" t="s">
+        <v>42</v>
       </c>
-      <c r="E49" s="12" t="n">
+      <c r="E49" s="7" t="n">
         <v>9460873421</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>42</v>
+      <c r="F49" s="8" t="s">
+        <v>43</v>
       </c>
-      <c r="G49" s="14" t="n">
+      <c r="G49" s="9" t="n">
         <v>34055</v>
       </c>
-      <c r="H49" s="8" t="n">
+      <c r="H49" s="1" t="n">
         <v>51991301817</v>
       </c>
       <c r="I49" s="0"/>
@@ -50095,16 +50998,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>9</v>
@@ -50112,35 +51012,35 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50150,12 +51050,12 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -451,12 +451,12 @@
   <dimension ref="1:49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4489795918367"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4183673469388"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4948979591837"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.3571428571429"/>
@@ -50993,7 +50993,7 @@
   <dimension ref="D4:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="4:4 E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -450,24 +450,17 @@
   </sheetPr>
   <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="A:H"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.25"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="36.1224489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="6.88265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3594,7 +3587,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4636,7 +4629,7 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -5678,7 +5671,7 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -6720,7 +6713,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -7762,7 +7755,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -8804,7 +8797,7 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -9846,7 +9839,7 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -10888,11 +10881,15 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -11910,11 +11907,15 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -12932,11 +12933,15 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -13954,11 +13959,15 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -14976,11 +14985,15 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -15998,7 +16011,7 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -17040,7 +17053,7 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -18082,7 +18095,7 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -19124,7 +19137,7 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -20166,7 +20179,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -22234,11 +22247,15 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -23256,11 +23273,15 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -24278,11 +24299,15 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
@@ -25300,11 +25325,15 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -26322,11 +26351,15 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
@@ -27344,11 +27377,15 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="7"/>
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
@@ -28366,11 +28403,15 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
@@ -29388,11 +29429,15 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
@@ -30410,11 +30455,15 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
@@ -31432,11 +31481,15 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
@@ -32454,11 +32507,15 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
@@ -33476,11 +33533,15 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
@@ -34498,11 +34559,15 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
@@ -35520,11 +35585,15 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -36542,11 +36611,15 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
@@ -37564,11 +37637,15 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="7"/>
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
@@ -38586,11 +38663,15 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="7"/>
       <c r="F38" s="8"/>
       <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -39608,11 +39689,15 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
       <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -40630,11 +40715,15 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -41652,11 +41741,15 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
       <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
@@ -42674,11 +42767,15 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
       <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
@@ -43696,11 +43793,15 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
       <c r="G43" s="9"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
@@ -44718,11 +44819,15 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
       <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -45740,11 +45845,15 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
       <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="0"/>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
@@ -46762,11 +46871,15 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="7"/>
       <c r="F46" s="8"/>
       <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
@@ -47784,11 +47897,15 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="7"/>
       <c r="F47" s="8"/>
       <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
@@ -48806,11 +48923,15 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8"/>
       <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
@@ -49828,7 +49949,7 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -50993,13 +51114,16 @@
   <dimension ref="D4:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="4:4 E15"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="A:H"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -155,7 +155,7 @@
     <t xml:space="preserve">ANALICE DA CONCEICAO</t>
   </si>
   <si>
-    <t xml:space="preserve">n.analice.conceica.com.br</t>
+    <t xml:space="preserve">ADMIN@XBRAIN.COM.BR</t>
   </si>
   <si>
     <t xml:space="preserve">AGENTE AUTORIZADO NACIONAL</t>
@@ -450,17 +450,17 @@
   </sheetPr>
   <dimension ref="1:49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="A:H"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="36.1224489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19151,7 +19151,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>6920673452</v>
+        <v>28667582506</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>39</v>
@@ -51096,6 +51096,9 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F49" r:id="rId1" display="ADMIN@XBRAIN.COM.BR"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -51114,16 +51117,16 @@
   <dimension ref="D4:F13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="A:H"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">VENDEDOR</t>
   </si>
   <si>
-    <t xml:space="preserve">AGENTE_AUTORIZADO</t>
+    <t xml:space="preserve">fghfghf</t>
   </si>
   <si>
     <t xml:space="preserve">ADAIDE SAMANTA DA SILVA SANTOS</t>
@@ -451,16 +451,16 @@
   <dimension ref="1:49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="6.75"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="6.75"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -51122,11 +51122,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t xml:space="preserve">NIVEL/CANAL</t>
   </si>
@@ -50,22 +50,10 @@
     <t xml:space="preserve">TELEFONE </t>
   </si>
   <si>
-    <t xml:space="preserve">RECEPTIVO</t>
+    <t xml:space="preserve">AGENTE AUTORIZADO</t>
   </si>
   <si>
     <t xml:space="preserve">VENDEDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fghfghf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAIDE SAMANTA DA SILVA SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.adaide.santos@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGENTE AUTORIZADO</t>
   </si>
   <si>
     <t xml:space="preserve">COMERCIAL</t>
@@ -84,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">n.adriana.lbezerra@aec.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTIVO</t>
   </si>
   <si>
     <t xml:space="preserve">ALAN DAVISON BARROS SILVA</t>
@@ -197,7 +188,7 @@
     <numFmt numFmtId="165" formatCode="000000000\-00"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,14 +214,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -298,11 +281,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,15 +310,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,19 +427,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:49"/>
+  <dimension ref="1:48"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1512,20 +1491,18 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>10604168403</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="n">
-        <v>34218</v>
+      <c r="G2" s="8" t="n">
+        <v>31944</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>51991301817</v>
@@ -2547,7 +2524,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2555,17 +2532,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="6" t="n">
+        <v>70159931479</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9" t="n">
-        <v>31944</v>
+      <c r="G3" s="8" t="n">
+        <v>34436</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>51991301817</v>
@@ -3589,25 +3568,25 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>2917600403</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>70159931479</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>34436</v>
+      <c r="G4" s="8" t="n">
+        <v>27678</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>51991301817</v>
@@ -4631,25 +4610,25 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>9249138431</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>2917600403</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>27678</v>
+      <c r="G5" s="8" t="n">
+        <v>32373</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>51991301817</v>
@@ -5673,25 +5652,25 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>12532343451</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>9249138431</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>32373</v>
+      <c r="G6" s="8" t="n">
+        <v>35926</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>51991301817</v>
@@ -6715,25 +6694,25 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>11523845465</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7" t="n">
-        <v>12532343451</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>35926</v>
+      <c r="G7" s="8" t="n">
+        <v>34705</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>51991301817</v>
@@ -7757,25 +7736,25 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1581072414</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="7" t="n">
-        <v>11523845465</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>34705</v>
+      <c r="G8" s="8" t="n">
+        <v>32575</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>51991301817</v>
@@ -8799,25 +8778,25 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>10161857400</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>1581072414</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>32575</v>
+      <c r="G9" s="8" t="n">
+        <v>33127</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>51991301817</v>
@@ -9840,30 +9819,14 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>10161857400</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>33127</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
@@ -10882,14 +10845,14 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -11908,14 +11871,14 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -12934,14 +12897,14 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -13960,14 +13923,14 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -14986,14 +14949,30 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>10144034727</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <v>31722</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>51991301817</v>
+      </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -16013,25 +15992,25 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>5985368416</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="7" t="n">
-        <v>10144034727</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>31722</v>
+      <c r="G16" s="8" t="n">
+        <v>31827</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>51991301817</v>
@@ -17055,25 +17034,25 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>70028986474</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="7" t="n">
-        <v>5985368416</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <v>31827</v>
+      <c r="G17" s="8" t="n">
+        <v>34532</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>51991301817</v>
@@ -18097,25 +18076,25 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>28667582506</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="7" t="n">
-        <v>70028986474</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>34532</v>
+      <c r="G18" s="8" t="n">
+        <v>31751</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>51991301817</v>
@@ -19139,25 +19118,25 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>2131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="7" t="n">
-        <v>28667582506</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <v>31751</v>
+      <c r="G19" s="8" t="n">
+        <v>30749</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>51991301817</v>
@@ -20180,30 +20159,14 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="7" t="n">
-        <v>2131</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>30749</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>51991301817</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
@@ -21222,14 +21185,14 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -22248,14 +22211,14 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
@@ -23274,14 +23237,14 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -24300,14 +24263,14 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
@@ -25326,14 +25289,14 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -26352,14 +26315,14 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
@@ -27378,14 +27341,14 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
@@ -28404,14 +28367,14 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
@@ -29430,14 +29393,14 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
@@ -30456,14 +30419,14 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="0"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
@@ -31482,14 +31445,14 @@
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
@@ -32508,14 +32471,14 @@
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
@@ -33534,14 +33497,14 @@
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
@@ -34560,14 +34523,14 @@
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
@@ -35586,14 +35549,14 @@
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -36612,14 +36575,14 @@
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
@@ -37638,14 +37601,14 @@
       <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
@@ -38664,14 +38627,14 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
@@ -39690,14 +39653,14 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -40716,14 +40679,14 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -41742,14 +41705,14 @@
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
       <c r="K41" s="0"/>
@@ -42768,14 +42731,14 @@
       <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
@@ -43794,14 +43757,14 @@
       <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
       <c r="K43" s="0"/>
@@ -44820,14 +44783,14 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -45846,14 +45809,14 @@
       <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="0"/>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
@@ -46872,14 +46835,14 @@
       <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
@@ -47898,14 +47861,14 @@
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
@@ -48924,14 +48887,30 @@
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
+      <c r="A48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>9460873421</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>34055</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>51991301817</v>
+      </c>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
@@ -49949,1055 +49928,13 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="7" t="n">
-        <v>9460873421</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="9" t="n">
-        <v>34055</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>51991301817</v>
-      </c>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="0"/>
-      <c r="L49" s="0"/>
-      <c r="M49" s="0"/>
-      <c r="N49" s="0"/>
-      <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
-      <c r="R49" s="0"/>
-      <c r="S49" s="0"/>
-      <c r="T49" s="0"/>
-      <c r="U49" s="0"/>
-      <c r="V49" s="0"/>
-      <c r="W49" s="0"/>
-      <c r="X49" s="0"/>
-      <c r="Y49" s="0"/>
-      <c r="Z49" s="0"/>
-      <c r="AA49" s="0"/>
-      <c r="AB49" s="0"/>
-      <c r="AC49" s="0"/>
-      <c r="AD49" s="0"/>
-      <c r="AE49" s="0"/>
-      <c r="AF49" s="0"/>
-      <c r="AG49" s="0"/>
-      <c r="AH49" s="0"/>
-      <c r="AI49" s="0"/>
-      <c r="AJ49" s="0"/>
-      <c r="AK49" s="0"/>
-      <c r="AL49" s="0"/>
-      <c r="AM49" s="0"/>
-      <c r="AN49" s="0"/>
-      <c r="AO49" s="0"/>
-      <c r="AP49" s="0"/>
-      <c r="AQ49" s="0"/>
-      <c r="AR49" s="0"/>
-      <c r="AS49" s="0"/>
-      <c r="AT49" s="0"/>
-      <c r="AU49" s="0"/>
-      <c r="AV49" s="0"/>
-      <c r="AW49" s="0"/>
-      <c r="AX49" s="0"/>
-      <c r="AY49" s="0"/>
-      <c r="AZ49" s="0"/>
-      <c r="BA49" s="0"/>
-      <c r="BB49" s="0"/>
-      <c r="BC49" s="0"/>
-      <c r="BD49" s="0"/>
-      <c r="BE49" s="0"/>
-      <c r="BF49" s="0"/>
-      <c r="BG49" s="0"/>
-      <c r="BH49" s="0"/>
-      <c r="BI49" s="0"/>
-      <c r="BJ49" s="0"/>
-      <c r="BK49" s="0"/>
-      <c r="BL49" s="0"/>
-      <c r="BM49" s="0"/>
-      <c r="BN49" s="0"/>
-      <c r="BO49" s="0"/>
-      <c r="BP49" s="0"/>
-      <c r="BQ49" s="0"/>
-      <c r="BR49" s="0"/>
-      <c r="BS49" s="0"/>
-      <c r="BT49" s="0"/>
-      <c r="BU49" s="0"/>
-      <c r="BV49" s="0"/>
-      <c r="BW49" s="0"/>
-      <c r="BX49" s="0"/>
-      <c r="BY49" s="0"/>
-      <c r="BZ49" s="0"/>
-      <c r="CA49" s="0"/>
-      <c r="CB49" s="0"/>
-      <c r="CC49" s="0"/>
-      <c r="CD49" s="0"/>
-      <c r="CE49" s="0"/>
-      <c r="CF49" s="0"/>
-      <c r="CG49" s="0"/>
-      <c r="CH49" s="0"/>
-      <c r="CI49" s="0"/>
-      <c r="CJ49" s="0"/>
-      <c r="CK49" s="0"/>
-      <c r="CL49" s="0"/>
-      <c r="CM49" s="0"/>
-      <c r="CN49" s="0"/>
-      <c r="CO49" s="0"/>
-      <c r="CP49" s="0"/>
-      <c r="CQ49" s="0"/>
-      <c r="CR49" s="0"/>
-      <c r="CS49" s="0"/>
-      <c r="CT49" s="0"/>
-      <c r="CU49" s="0"/>
-      <c r="CV49" s="0"/>
-      <c r="CW49" s="0"/>
-      <c r="CX49" s="0"/>
-      <c r="CY49" s="0"/>
-      <c r="CZ49" s="0"/>
-      <c r="DA49" s="0"/>
-      <c r="DB49" s="0"/>
-      <c r="DC49" s="0"/>
-      <c r="DD49" s="0"/>
-      <c r="DE49" s="0"/>
-      <c r="DF49" s="0"/>
-      <c r="DG49" s="0"/>
-      <c r="DH49" s="0"/>
-      <c r="DI49" s="0"/>
-      <c r="DJ49" s="0"/>
-      <c r="DK49" s="0"/>
-      <c r="DL49" s="0"/>
-      <c r="DM49" s="0"/>
-      <c r="DN49" s="0"/>
-      <c r="DO49" s="0"/>
-      <c r="DP49" s="0"/>
-      <c r="DQ49" s="0"/>
-      <c r="DR49" s="0"/>
-      <c r="DS49" s="0"/>
-      <c r="DT49" s="0"/>
-      <c r="DU49" s="0"/>
-      <c r="DV49" s="0"/>
-      <c r="DW49" s="0"/>
-      <c r="DX49" s="0"/>
-      <c r="DY49" s="0"/>
-      <c r="DZ49" s="0"/>
-      <c r="EA49" s="0"/>
-      <c r="EB49" s="0"/>
-      <c r="EC49" s="0"/>
-      <c r="ED49" s="0"/>
-      <c r="EE49" s="0"/>
-      <c r="EF49" s="0"/>
-      <c r="EG49" s="0"/>
-      <c r="EH49" s="0"/>
-      <c r="EI49" s="0"/>
-      <c r="EJ49" s="0"/>
-      <c r="EK49" s="0"/>
-      <c r="EL49" s="0"/>
-      <c r="EM49" s="0"/>
-      <c r="EN49" s="0"/>
-      <c r="EO49" s="0"/>
-      <c r="EP49" s="0"/>
-      <c r="EQ49" s="0"/>
-      <c r="ER49" s="0"/>
-      <c r="ES49" s="0"/>
-      <c r="ET49" s="0"/>
-      <c r="EU49" s="0"/>
-      <c r="EV49" s="0"/>
-      <c r="EW49" s="0"/>
-      <c r="EX49" s="0"/>
-      <c r="EY49" s="0"/>
-      <c r="EZ49" s="0"/>
-      <c r="FA49" s="0"/>
-      <c r="FB49" s="0"/>
-      <c r="FC49" s="0"/>
-      <c r="FD49" s="0"/>
-      <c r="FE49" s="0"/>
-      <c r="FF49" s="0"/>
-      <c r="FG49" s="0"/>
-      <c r="FH49" s="0"/>
-      <c r="FI49" s="0"/>
-      <c r="FJ49" s="0"/>
-      <c r="FK49" s="0"/>
-      <c r="FL49" s="0"/>
-      <c r="FM49" s="0"/>
-      <c r="FN49" s="0"/>
-      <c r="FO49" s="0"/>
-      <c r="FP49" s="0"/>
-      <c r="FQ49" s="0"/>
-      <c r="FR49" s="0"/>
-      <c r="FS49" s="0"/>
-      <c r="FT49" s="0"/>
-      <c r="FU49" s="0"/>
-      <c r="FV49" s="0"/>
-      <c r="FW49" s="0"/>
-      <c r="FX49" s="0"/>
-      <c r="FY49" s="0"/>
-      <c r="FZ49" s="0"/>
-      <c r="GA49" s="0"/>
-      <c r="GB49" s="0"/>
-      <c r="GC49" s="0"/>
-      <c r="GD49" s="0"/>
-      <c r="GE49" s="0"/>
-      <c r="GF49" s="0"/>
-      <c r="GG49" s="0"/>
-      <c r="GH49" s="0"/>
-      <c r="GI49" s="0"/>
-      <c r="GJ49" s="0"/>
-      <c r="GK49" s="0"/>
-      <c r="GL49" s="0"/>
-      <c r="GM49" s="0"/>
-      <c r="GN49" s="0"/>
-      <c r="GO49" s="0"/>
-      <c r="GP49" s="0"/>
-      <c r="GQ49" s="0"/>
-      <c r="GR49" s="0"/>
-      <c r="GS49" s="0"/>
-      <c r="GT49" s="0"/>
-      <c r="GU49" s="0"/>
-      <c r="GV49" s="0"/>
-      <c r="GW49" s="0"/>
-      <c r="GX49" s="0"/>
-      <c r="GY49" s="0"/>
-      <c r="GZ49" s="0"/>
-      <c r="HA49" s="0"/>
-      <c r="HB49" s="0"/>
-      <c r="HC49" s="0"/>
-      <c r="HD49" s="0"/>
-      <c r="HE49" s="0"/>
-      <c r="HF49" s="0"/>
-      <c r="HG49" s="0"/>
-      <c r="HH49" s="0"/>
-      <c r="HI49" s="0"/>
-      <c r="HJ49" s="0"/>
-      <c r="HK49" s="0"/>
-      <c r="HL49" s="0"/>
-      <c r="HM49" s="0"/>
-      <c r="HN49" s="0"/>
-      <c r="HO49" s="0"/>
-      <c r="HP49" s="0"/>
-      <c r="HQ49" s="0"/>
-      <c r="HR49" s="0"/>
-      <c r="HS49" s="0"/>
-      <c r="HT49" s="0"/>
-      <c r="HU49" s="0"/>
-      <c r="HV49" s="0"/>
-      <c r="HW49" s="0"/>
-      <c r="HX49" s="0"/>
-      <c r="HY49" s="0"/>
-      <c r="HZ49" s="0"/>
-      <c r="IA49" s="0"/>
-      <c r="IB49" s="0"/>
-      <c r="IC49" s="0"/>
-      <c r="ID49" s="0"/>
-      <c r="IE49" s="0"/>
-      <c r="IF49" s="0"/>
-      <c r="IG49" s="0"/>
-      <c r="IH49" s="0"/>
-      <c r="II49" s="0"/>
-      <c r="IJ49" s="0"/>
-      <c r="IK49" s="0"/>
-      <c r="IL49" s="0"/>
-      <c r="IM49" s="0"/>
-      <c r="IN49" s="0"/>
-      <c r="IO49" s="0"/>
-      <c r="IP49" s="0"/>
-      <c r="IQ49" s="0"/>
-      <c r="IR49" s="0"/>
-      <c r="IS49" s="0"/>
-      <c r="IT49" s="0"/>
-      <c r="IU49" s="0"/>
-      <c r="IV49" s="0"/>
-      <c r="IW49" s="0"/>
-      <c r="IX49" s="0"/>
-      <c r="IY49" s="0"/>
-      <c r="IZ49" s="0"/>
-      <c r="JA49" s="0"/>
-      <c r="JB49" s="0"/>
-      <c r="JC49" s="0"/>
-      <c r="JD49" s="0"/>
-      <c r="JE49" s="0"/>
-      <c r="JF49" s="0"/>
-      <c r="JG49" s="0"/>
-      <c r="JH49" s="0"/>
-      <c r="JI49" s="0"/>
-      <c r="JJ49" s="0"/>
-      <c r="JK49" s="0"/>
-      <c r="JL49" s="0"/>
-      <c r="JM49" s="0"/>
-      <c r="JN49" s="0"/>
-      <c r="JO49" s="0"/>
-      <c r="JP49" s="0"/>
-      <c r="JQ49" s="0"/>
-      <c r="JR49" s="0"/>
-      <c r="JS49" s="0"/>
-      <c r="JT49" s="0"/>
-      <c r="JU49" s="0"/>
-      <c r="JV49" s="0"/>
-      <c r="JW49" s="0"/>
-      <c r="JX49" s="0"/>
-      <c r="JY49" s="0"/>
-      <c r="JZ49" s="0"/>
-      <c r="KA49" s="0"/>
-      <c r="KB49" s="0"/>
-      <c r="KC49" s="0"/>
-      <c r="KD49" s="0"/>
-      <c r="KE49" s="0"/>
-      <c r="KF49" s="0"/>
-      <c r="KG49" s="0"/>
-      <c r="KH49" s="0"/>
-      <c r="KI49" s="0"/>
-      <c r="KJ49" s="0"/>
-      <c r="KK49" s="0"/>
-      <c r="KL49" s="0"/>
-      <c r="KM49" s="0"/>
-      <c r="KN49" s="0"/>
-      <c r="KO49" s="0"/>
-      <c r="KP49" s="0"/>
-      <c r="KQ49" s="0"/>
-      <c r="KR49" s="0"/>
-      <c r="KS49" s="0"/>
-      <c r="KT49" s="0"/>
-      <c r="KU49" s="0"/>
-      <c r="KV49" s="0"/>
-      <c r="KW49" s="0"/>
-      <c r="KX49" s="0"/>
-      <c r="KY49" s="0"/>
-      <c r="KZ49" s="0"/>
-      <c r="LA49" s="0"/>
-      <c r="LB49" s="0"/>
-      <c r="LC49" s="0"/>
-      <c r="LD49" s="0"/>
-      <c r="LE49" s="0"/>
-      <c r="LF49" s="0"/>
-      <c r="LG49" s="0"/>
-      <c r="LH49" s="0"/>
-      <c r="LI49" s="0"/>
-      <c r="LJ49" s="0"/>
-      <c r="LK49" s="0"/>
-      <c r="LL49" s="0"/>
-      <c r="LM49" s="0"/>
-      <c r="LN49" s="0"/>
-      <c r="LO49" s="0"/>
-      <c r="LP49" s="0"/>
-      <c r="LQ49" s="0"/>
-      <c r="LR49" s="0"/>
-      <c r="LS49" s="0"/>
-      <c r="LT49" s="0"/>
-      <c r="LU49" s="0"/>
-      <c r="LV49" s="0"/>
-      <c r="LW49" s="0"/>
-      <c r="LX49" s="0"/>
-      <c r="LY49" s="0"/>
-      <c r="LZ49" s="0"/>
-      <c r="MA49" s="0"/>
-      <c r="MB49" s="0"/>
-      <c r="MC49" s="0"/>
-      <c r="MD49" s="0"/>
-      <c r="ME49" s="0"/>
-      <c r="MF49" s="0"/>
-      <c r="MG49" s="0"/>
-      <c r="MH49" s="0"/>
-      <c r="MI49" s="0"/>
-      <c r="MJ49" s="0"/>
-      <c r="MK49" s="0"/>
-      <c r="ML49" s="0"/>
-      <c r="MM49" s="0"/>
-      <c r="MN49" s="0"/>
-      <c r="MO49" s="0"/>
-      <c r="MP49" s="0"/>
-      <c r="MQ49" s="0"/>
-      <c r="MR49" s="0"/>
-      <c r="MS49" s="0"/>
-      <c r="MT49" s="0"/>
-      <c r="MU49" s="0"/>
-      <c r="MV49" s="0"/>
-      <c r="MW49" s="0"/>
-      <c r="MX49" s="0"/>
-      <c r="MY49" s="0"/>
-      <c r="MZ49" s="0"/>
-      <c r="NA49" s="0"/>
-      <c r="NB49" s="0"/>
-      <c r="NC49" s="0"/>
-      <c r="ND49" s="0"/>
-      <c r="NE49" s="0"/>
-      <c r="NF49" s="0"/>
-      <c r="NG49" s="0"/>
-      <c r="NH49" s="0"/>
-      <c r="NI49" s="0"/>
-      <c r="NJ49" s="0"/>
-      <c r="NK49" s="0"/>
-      <c r="NL49" s="0"/>
-      <c r="NM49" s="0"/>
-      <c r="NN49" s="0"/>
-      <c r="NO49" s="0"/>
-      <c r="NP49" s="0"/>
-      <c r="NQ49" s="0"/>
-      <c r="NR49" s="0"/>
-      <c r="NS49" s="0"/>
-      <c r="NT49" s="0"/>
-      <c r="NU49" s="0"/>
-      <c r="NV49" s="0"/>
-      <c r="NW49" s="0"/>
-      <c r="NX49" s="0"/>
-      <c r="NY49" s="0"/>
-      <c r="NZ49" s="0"/>
-      <c r="OA49" s="0"/>
-      <c r="OB49" s="0"/>
-      <c r="OC49" s="0"/>
-      <c r="OD49" s="0"/>
-      <c r="OE49" s="0"/>
-      <c r="OF49" s="0"/>
-      <c r="OG49" s="0"/>
-      <c r="OH49" s="0"/>
-      <c r="OI49" s="0"/>
-      <c r="OJ49" s="0"/>
-      <c r="OK49" s="0"/>
-      <c r="OL49" s="0"/>
-      <c r="OM49" s="0"/>
-      <c r="ON49" s="0"/>
-      <c r="OO49" s="0"/>
-      <c r="OP49" s="0"/>
-      <c r="OQ49" s="0"/>
-      <c r="OR49" s="0"/>
-      <c r="OS49" s="0"/>
-      <c r="OT49" s="0"/>
-      <c r="OU49" s="0"/>
-      <c r="OV49" s="0"/>
-      <c r="OW49" s="0"/>
-      <c r="OX49" s="0"/>
-      <c r="OY49" s="0"/>
-      <c r="OZ49" s="0"/>
-      <c r="PA49" s="0"/>
-      <c r="PB49" s="0"/>
-      <c r="PC49" s="0"/>
-      <c r="PD49" s="0"/>
-      <c r="PE49" s="0"/>
-      <c r="PF49" s="0"/>
-      <c r="PG49" s="0"/>
-      <c r="PH49" s="0"/>
-      <c r="PI49" s="0"/>
-      <c r="PJ49" s="0"/>
-      <c r="PK49" s="0"/>
-      <c r="PL49" s="0"/>
-      <c r="PM49" s="0"/>
-      <c r="PN49" s="0"/>
-      <c r="PO49" s="0"/>
-      <c r="PP49" s="0"/>
-      <c r="PQ49" s="0"/>
-      <c r="PR49" s="0"/>
-      <c r="PS49" s="0"/>
-      <c r="PT49" s="0"/>
-      <c r="PU49" s="0"/>
-      <c r="PV49" s="0"/>
-      <c r="PW49" s="0"/>
-      <c r="PX49" s="0"/>
-      <c r="PY49" s="0"/>
-      <c r="PZ49" s="0"/>
-      <c r="QA49" s="0"/>
-      <c r="QB49" s="0"/>
-      <c r="QC49" s="0"/>
-      <c r="QD49" s="0"/>
-      <c r="QE49" s="0"/>
-      <c r="QF49" s="0"/>
-      <c r="QG49" s="0"/>
-      <c r="QH49" s="0"/>
-      <c r="QI49" s="0"/>
-      <c r="QJ49" s="0"/>
-      <c r="QK49" s="0"/>
-      <c r="QL49" s="0"/>
-      <c r="QM49" s="0"/>
-      <c r="QN49" s="0"/>
-      <c r="QO49" s="0"/>
-      <c r="QP49" s="0"/>
-      <c r="QQ49" s="0"/>
-      <c r="QR49" s="0"/>
-      <c r="QS49" s="0"/>
-      <c r="QT49" s="0"/>
-      <c r="QU49" s="0"/>
-      <c r="QV49" s="0"/>
-      <c r="QW49" s="0"/>
-      <c r="QX49" s="0"/>
-      <c r="QY49" s="0"/>
-      <c r="QZ49" s="0"/>
-      <c r="RA49" s="0"/>
-      <c r="RB49" s="0"/>
-      <c r="RC49" s="0"/>
-      <c r="RD49" s="0"/>
-      <c r="RE49" s="0"/>
-      <c r="RF49" s="0"/>
-      <c r="RG49" s="0"/>
-      <c r="RH49" s="0"/>
-      <c r="RI49" s="0"/>
-      <c r="RJ49" s="0"/>
-      <c r="RK49" s="0"/>
-      <c r="RL49" s="0"/>
-      <c r="RM49" s="0"/>
-      <c r="RN49" s="0"/>
-      <c r="RO49" s="0"/>
-      <c r="RP49" s="0"/>
-      <c r="RQ49" s="0"/>
-      <c r="RR49" s="0"/>
-      <c r="RS49" s="0"/>
-      <c r="RT49" s="0"/>
-      <c r="RU49" s="0"/>
-      <c r="RV49" s="0"/>
-      <c r="RW49" s="0"/>
-      <c r="RX49" s="0"/>
-      <c r="RY49" s="0"/>
-      <c r="RZ49" s="0"/>
-      <c r="SA49" s="0"/>
-      <c r="SB49" s="0"/>
-      <c r="SC49" s="0"/>
-      <c r="SD49" s="0"/>
-      <c r="SE49" s="0"/>
-      <c r="SF49" s="0"/>
-      <c r="SG49" s="0"/>
-      <c r="SH49" s="0"/>
-      <c r="SI49" s="0"/>
-      <c r="SJ49" s="0"/>
-      <c r="SK49" s="0"/>
-      <c r="SL49" s="0"/>
-      <c r="SM49" s="0"/>
-      <c r="SN49" s="0"/>
-      <c r="SO49" s="0"/>
-      <c r="SP49" s="0"/>
-      <c r="SQ49" s="0"/>
-      <c r="SR49" s="0"/>
-      <c r="SS49" s="0"/>
-      <c r="ST49" s="0"/>
-      <c r="SU49" s="0"/>
-      <c r="SV49" s="0"/>
-      <c r="SW49" s="0"/>
-      <c r="SX49" s="0"/>
-      <c r="SY49" s="0"/>
-      <c r="SZ49" s="0"/>
-      <c r="TA49" s="0"/>
-      <c r="TB49" s="0"/>
-      <c r="TC49" s="0"/>
-      <c r="TD49" s="0"/>
-      <c r="TE49" s="0"/>
-      <c r="TF49" s="0"/>
-      <c r="TG49" s="0"/>
-      <c r="TH49" s="0"/>
-      <c r="TI49" s="0"/>
-      <c r="TJ49" s="0"/>
-      <c r="TK49" s="0"/>
-      <c r="TL49" s="0"/>
-      <c r="TM49" s="0"/>
-      <c r="TN49" s="0"/>
-      <c r="TO49" s="0"/>
-      <c r="TP49" s="0"/>
-      <c r="TQ49" s="0"/>
-      <c r="TR49" s="0"/>
-      <c r="TS49" s="0"/>
-      <c r="TT49" s="0"/>
-      <c r="TU49" s="0"/>
-      <c r="TV49" s="0"/>
-      <c r="TW49" s="0"/>
-      <c r="TX49" s="0"/>
-      <c r="TY49" s="0"/>
-      <c r="TZ49" s="0"/>
-      <c r="UA49" s="0"/>
-      <c r="UB49" s="0"/>
-      <c r="UC49" s="0"/>
-      <c r="UD49" s="0"/>
-      <c r="UE49" s="0"/>
-      <c r="UF49" s="0"/>
-      <c r="UG49" s="0"/>
-      <c r="UH49" s="0"/>
-      <c r="UI49" s="0"/>
-      <c r="UJ49" s="0"/>
-      <c r="UK49" s="0"/>
-      <c r="UL49" s="0"/>
-      <c r="UM49" s="0"/>
-      <c r="UN49" s="0"/>
-      <c r="UO49" s="0"/>
-      <c r="UP49" s="0"/>
-      <c r="UQ49" s="0"/>
-      <c r="UR49" s="0"/>
-      <c r="US49" s="0"/>
-      <c r="UT49" s="0"/>
-      <c r="UU49" s="0"/>
-      <c r="UV49" s="0"/>
-      <c r="UW49" s="0"/>
-      <c r="UX49" s="0"/>
-      <c r="UY49" s="0"/>
-      <c r="UZ49" s="0"/>
-      <c r="VA49" s="0"/>
-      <c r="VB49" s="0"/>
-      <c r="VC49" s="0"/>
-      <c r="VD49" s="0"/>
-      <c r="VE49" s="0"/>
-      <c r="VF49" s="0"/>
-      <c r="VG49" s="0"/>
-      <c r="VH49" s="0"/>
-      <c r="VI49" s="0"/>
-      <c r="VJ49" s="0"/>
-      <c r="VK49" s="0"/>
-      <c r="VL49" s="0"/>
-      <c r="VM49" s="0"/>
-      <c r="VN49" s="0"/>
-      <c r="VO49" s="0"/>
-      <c r="VP49" s="0"/>
-      <c r="VQ49" s="0"/>
-      <c r="VR49" s="0"/>
-      <c r="VS49" s="0"/>
-      <c r="VT49" s="0"/>
-      <c r="VU49" s="0"/>
-      <c r="VV49" s="0"/>
-      <c r="VW49" s="0"/>
-      <c r="VX49" s="0"/>
-      <c r="VY49" s="0"/>
-      <c r="VZ49" s="0"/>
-      <c r="WA49" s="0"/>
-      <c r="WB49" s="0"/>
-      <c r="WC49" s="0"/>
-      <c r="WD49" s="0"/>
-      <c r="WE49" s="0"/>
-      <c r="WF49" s="0"/>
-      <c r="WG49" s="0"/>
-      <c r="WH49" s="0"/>
-      <c r="WI49" s="0"/>
-      <c r="WJ49" s="0"/>
-      <c r="WK49" s="0"/>
-      <c r="WL49" s="0"/>
-      <c r="WM49" s="0"/>
-      <c r="WN49" s="0"/>
-      <c r="WO49" s="0"/>
-      <c r="WP49" s="0"/>
-      <c r="WQ49" s="0"/>
-      <c r="WR49" s="0"/>
-      <c r="WS49" s="0"/>
-      <c r="WT49" s="0"/>
-      <c r="WU49" s="0"/>
-      <c r="WV49" s="0"/>
-      <c r="WW49" s="0"/>
-      <c r="WX49" s="0"/>
-      <c r="WY49" s="0"/>
-      <c r="WZ49" s="0"/>
-      <c r="XA49" s="0"/>
-      <c r="XB49" s="0"/>
-      <c r="XC49" s="0"/>
-      <c r="XD49" s="0"/>
-      <c r="XE49" s="0"/>
-      <c r="XF49" s="0"/>
-      <c r="XG49" s="0"/>
-      <c r="XH49" s="0"/>
-      <c r="XI49" s="0"/>
-      <c r="XJ49" s="0"/>
-      <c r="XK49" s="0"/>
-      <c r="XL49" s="0"/>
-      <c r="XM49" s="0"/>
-      <c r="XN49" s="0"/>
-      <c r="XO49" s="0"/>
-      <c r="XP49" s="0"/>
-      <c r="XQ49" s="0"/>
-      <c r="XR49" s="0"/>
-      <c r="XS49" s="0"/>
-      <c r="XT49" s="0"/>
-      <c r="XU49" s="0"/>
-      <c r="XV49" s="0"/>
-      <c r="XW49" s="0"/>
-      <c r="XX49" s="0"/>
-      <c r="XY49" s="0"/>
-      <c r="XZ49" s="0"/>
-      <c r="YA49" s="0"/>
-      <c r="YB49" s="0"/>
-      <c r="YC49" s="0"/>
-      <c r="YD49" s="0"/>
-      <c r="YE49" s="0"/>
-      <c r="YF49" s="0"/>
-      <c r="YG49" s="0"/>
-      <c r="YH49" s="0"/>
-      <c r="YI49" s="0"/>
-      <c r="YJ49" s="0"/>
-      <c r="YK49" s="0"/>
-      <c r="YL49" s="0"/>
-      <c r="YM49" s="0"/>
-      <c r="YN49" s="0"/>
-      <c r="YO49" s="0"/>
-      <c r="YP49" s="0"/>
-      <c r="YQ49" s="0"/>
-      <c r="YR49" s="0"/>
-      <c r="YS49" s="0"/>
-      <c r="YT49" s="0"/>
-      <c r="YU49" s="0"/>
-      <c r="YV49" s="0"/>
-      <c r="YW49" s="0"/>
-      <c r="YX49" s="0"/>
-      <c r="YY49" s="0"/>
-      <c r="YZ49" s="0"/>
-      <c r="ZA49" s="0"/>
-      <c r="ZB49" s="0"/>
-      <c r="ZC49" s="0"/>
-      <c r="ZD49" s="0"/>
-      <c r="ZE49" s="0"/>
-      <c r="ZF49" s="0"/>
-      <c r="ZG49" s="0"/>
-      <c r="ZH49" s="0"/>
-      <c r="ZI49" s="0"/>
-      <c r="ZJ49" s="0"/>
-      <c r="ZK49" s="0"/>
-      <c r="ZL49" s="0"/>
-      <c r="ZM49" s="0"/>
-      <c r="ZN49" s="0"/>
-      <c r="ZO49" s="0"/>
-      <c r="ZP49" s="0"/>
-      <c r="ZQ49" s="0"/>
-      <c r="ZR49" s="0"/>
-      <c r="ZS49" s="0"/>
-      <c r="ZT49" s="0"/>
-      <c r="ZU49" s="0"/>
-      <c r="ZV49" s="0"/>
-      <c r="ZW49" s="0"/>
-      <c r="ZX49" s="0"/>
-      <c r="ZY49" s="0"/>
-      <c r="ZZ49" s="0"/>
-      <c r="AAA49" s="0"/>
-      <c r="AAB49" s="0"/>
-      <c r="AAC49" s="0"/>
-      <c r="AAD49" s="0"/>
-      <c r="AAE49" s="0"/>
-      <c r="AAF49" s="0"/>
-      <c r="AAG49" s="0"/>
-      <c r="AAH49" s="0"/>
-      <c r="AAI49" s="0"/>
-      <c r="AAJ49" s="0"/>
-      <c r="AAK49" s="0"/>
-      <c r="AAL49" s="0"/>
-      <c r="AAM49" s="0"/>
-      <c r="AAN49" s="0"/>
-      <c r="AAO49" s="0"/>
-      <c r="AAP49" s="0"/>
-      <c r="AAQ49" s="0"/>
-      <c r="AAR49" s="0"/>
-      <c r="AAS49" s="0"/>
-      <c r="AAT49" s="0"/>
-      <c r="AAU49" s="0"/>
-      <c r="AAV49" s="0"/>
-      <c r="AAW49" s="0"/>
-      <c r="AAX49" s="0"/>
-      <c r="AAY49" s="0"/>
-      <c r="AAZ49" s="0"/>
-      <c r="ABA49" s="0"/>
-      <c r="ABB49" s="0"/>
-      <c r="ABC49" s="0"/>
-      <c r="ABD49" s="0"/>
-      <c r="ABE49" s="0"/>
-      <c r="ABF49" s="0"/>
-      <c r="ABG49" s="0"/>
-      <c r="ABH49" s="0"/>
-      <c r="ABI49" s="0"/>
-      <c r="ABJ49" s="0"/>
-      <c r="ABK49" s="0"/>
-      <c r="ABL49" s="0"/>
-      <c r="ABM49" s="0"/>
-      <c r="ABN49" s="0"/>
-      <c r="ABO49" s="0"/>
-      <c r="ABP49" s="0"/>
-      <c r="ABQ49" s="0"/>
-      <c r="ABR49" s="0"/>
-      <c r="ABS49" s="0"/>
-      <c r="ABT49" s="0"/>
-      <c r="ABU49" s="0"/>
-      <c r="ABV49" s="0"/>
-      <c r="ABW49" s="0"/>
-      <c r="ABX49" s="0"/>
-      <c r="ABY49" s="0"/>
-      <c r="ABZ49" s="0"/>
-      <c r="ACA49" s="0"/>
-      <c r="ACB49" s="0"/>
-      <c r="ACC49" s="0"/>
-      <c r="ACD49" s="0"/>
-      <c r="ACE49" s="0"/>
-      <c r="ACF49" s="0"/>
-      <c r="ACG49" s="0"/>
-      <c r="ACH49" s="0"/>
-      <c r="ACI49" s="0"/>
-      <c r="ACJ49" s="0"/>
-      <c r="ACK49" s="0"/>
-      <c r="ACL49" s="0"/>
-      <c r="ACM49" s="0"/>
-      <c r="ACN49" s="0"/>
-      <c r="ACO49" s="0"/>
-      <c r="ACP49" s="0"/>
-      <c r="ACQ49" s="0"/>
-      <c r="ACR49" s="0"/>
-      <c r="ACS49" s="0"/>
-      <c r="ACT49" s="0"/>
-      <c r="ACU49" s="0"/>
-      <c r="ACV49" s="0"/>
-      <c r="ACW49" s="0"/>
-      <c r="ACX49" s="0"/>
-      <c r="ACY49" s="0"/>
-      <c r="ACZ49" s="0"/>
-      <c r="ADA49" s="0"/>
-      <c r="ADB49" s="0"/>
-      <c r="ADC49" s="0"/>
-      <c r="ADD49" s="0"/>
-      <c r="ADE49" s="0"/>
-      <c r="ADF49" s="0"/>
-      <c r="ADG49" s="0"/>
-      <c r="ADH49" s="0"/>
-      <c r="ADI49" s="0"/>
-      <c r="ADJ49" s="0"/>
-      <c r="ADK49" s="0"/>
-      <c r="ADL49" s="0"/>
-      <c r="ADM49" s="0"/>
-      <c r="ADN49" s="0"/>
-      <c r="ADO49" s="0"/>
-      <c r="ADP49" s="0"/>
-      <c r="ADQ49" s="0"/>
-      <c r="ADR49" s="0"/>
-      <c r="ADS49" s="0"/>
-      <c r="ADT49" s="0"/>
-      <c r="ADU49" s="0"/>
-      <c r="ADV49" s="0"/>
-      <c r="ADW49" s="0"/>
-      <c r="ADX49" s="0"/>
-      <c r="ADY49" s="0"/>
-      <c r="ADZ49" s="0"/>
-      <c r="AEA49" s="0"/>
-      <c r="AEB49" s="0"/>
-      <c r="AEC49" s="0"/>
-      <c r="AED49" s="0"/>
-      <c r="AEE49" s="0"/>
-      <c r="AEF49" s="0"/>
-      <c r="AEG49" s="0"/>
-      <c r="AEH49" s="0"/>
-      <c r="AEI49" s="0"/>
-      <c r="AEJ49" s="0"/>
-      <c r="AEK49" s="0"/>
-      <c r="AEL49" s="0"/>
-      <c r="AEM49" s="0"/>
-      <c r="AEN49" s="0"/>
-      <c r="AEO49" s="0"/>
-      <c r="AEP49" s="0"/>
-      <c r="AEQ49" s="0"/>
-      <c r="AER49" s="0"/>
-      <c r="AES49" s="0"/>
-      <c r="AET49" s="0"/>
-      <c r="AEU49" s="0"/>
-      <c r="AEV49" s="0"/>
-      <c r="AEW49" s="0"/>
-      <c r="AEX49" s="0"/>
-      <c r="AEY49" s="0"/>
-      <c r="AEZ49" s="0"/>
-      <c r="AFA49" s="0"/>
-      <c r="AFB49" s="0"/>
-      <c r="AFC49" s="0"/>
-      <c r="AFD49" s="0"/>
-      <c r="AFE49" s="0"/>
-      <c r="AFF49" s="0"/>
-      <c r="AFG49" s="0"/>
-      <c r="AFH49" s="0"/>
-      <c r="AFI49" s="0"/>
-      <c r="AFJ49" s="0"/>
-      <c r="AFK49" s="0"/>
-      <c r="AFL49" s="0"/>
-      <c r="AFM49" s="0"/>
-      <c r="AFN49" s="0"/>
-      <c r="AFO49" s="0"/>
-      <c r="AFP49" s="0"/>
-      <c r="AFQ49" s="0"/>
-      <c r="AFR49" s="0"/>
-      <c r="AFS49" s="0"/>
-      <c r="AFT49" s="0"/>
-      <c r="AFU49" s="0"/>
-      <c r="AFV49" s="0"/>
-      <c r="AFW49" s="0"/>
-      <c r="AFX49" s="0"/>
-      <c r="AFY49" s="0"/>
-      <c r="AFZ49" s="0"/>
-      <c r="AGA49" s="0"/>
-      <c r="AGB49" s="0"/>
-      <c r="AGC49" s="0"/>
-      <c r="AGD49" s="0"/>
-      <c r="AGE49" s="0"/>
-      <c r="AGF49" s="0"/>
-      <c r="AGG49" s="0"/>
-      <c r="AGH49" s="0"/>
-      <c r="AGI49" s="0"/>
-      <c r="AGJ49" s="0"/>
-      <c r="AGK49" s="0"/>
-      <c r="AGL49" s="0"/>
-      <c r="AGM49" s="0"/>
-      <c r="AGN49" s="0"/>
-      <c r="AGO49" s="0"/>
-      <c r="AGP49" s="0"/>
-      <c r="AGQ49" s="0"/>
-      <c r="AGR49" s="0"/>
-      <c r="AGS49" s="0"/>
-      <c r="AGT49" s="0"/>
-      <c r="AGU49" s="0"/>
-      <c r="AGV49" s="0"/>
-      <c r="AGW49" s="0"/>
-      <c r="AGX49" s="0"/>
-      <c r="AGY49" s="0"/>
-      <c r="AGZ49" s="0"/>
-      <c r="AHA49" s="0"/>
-      <c r="AHB49" s="0"/>
-      <c r="AHC49" s="0"/>
-      <c r="AHD49" s="0"/>
-      <c r="AHE49" s="0"/>
-      <c r="AHF49" s="0"/>
-      <c r="AHG49" s="0"/>
-      <c r="AHH49" s="0"/>
-      <c r="AHI49" s="0"/>
-      <c r="AHJ49" s="0"/>
-      <c r="AHK49" s="0"/>
-      <c r="AHL49" s="0"/>
-      <c r="AHM49" s="0"/>
-      <c r="AHN49" s="0"/>
-      <c r="AHO49" s="0"/>
-      <c r="AHP49" s="0"/>
-      <c r="AHQ49" s="0"/>
-      <c r="AHR49" s="0"/>
-      <c r="AHS49" s="0"/>
-      <c r="AHT49" s="0"/>
-      <c r="AHU49" s="0"/>
-      <c r="AHV49" s="0"/>
-      <c r="AHW49" s="0"/>
-      <c r="AHX49" s="0"/>
-      <c r="AHY49" s="0"/>
-      <c r="AHZ49" s="0"/>
-      <c r="AIA49" s="0"/>
-      <c r="AIB49" s="0"/>
-      <c r="AIC49" s="0"/>
-      <c r="AID49" s="0"/>
-      <c r="AIE49" s="0"/>
-      <c r="AIF49" s="0"/>
-      <c r="AIG49" s="0"/>
-      <c r="AIH49" s="0"/>
-      <c r="AII49" s="0"/>
-      <c r="AIJ49" s="0"/>
-      <c r="AIK49" s="0"/>
-      <c r="AIL49" s="0"/>
-      <c r="AIM49" s="0"/>
-      <c r="AIN49" s="0"/>
-      <c r="AIO49" s="0"/>
-      <c r="AIP49" s="0"/>
-      <c r="AIQ49" s="0"/>
-      <c r="AIR49" s="0"/>
-      <c r="AIS49" s="0"/>
-      <c r="AIT49" s="0"/>
-      <c r="AIU49" s="0"/>
-      <c r="AIV49" s="0"/>
-      <c r="AIW49" s="0"/>
-      <c r="AIX49" s="0"/>
-      <c r="AIY49" s="0"/>
-      <c r="AIZ49" s="0"/>
-      <c r="AJA49" s="0"/>
-      <c r="AJB49" s="0"/>
-      <c r="AJC49" s="0"/>
-      <c r="AJD49" s="0"/>
-      <c r="AJE49" s="0"/>
-      <c r="AJF49" s="0"/>
-      <c r="AJG49" s="0"/>
-      <c r="AJH49" s="0"/>
-      <c r="AJI49" s="0"/>
-      <c r="AJJ49" s="0"/>
-      <c r="AJK49" s="0"/>
-      <c r="AJL49" s="0"/>
-      <c r="AJM49" s="0"/>
-      <c r="AJN49" s="0"/>
-      <c r="AJO49" s="0"/>
-      <c r="AJP49" s="0"/>
-      <c r="AJQ49" s="0"/>
-      <c r="AJR49" s="0"/>
-      <c r="AJS49" s="0"/>
-      <c r="AJT49" s="0"/>
-      <c r="AJU49" s="0"/>
-      <c r="AJV49" s="0"/>
-      <c r="AJW49" s="0"/>
-      <c r="AJX49" s="0"/>
-      <c r="AJY49" s="0"/>
-      <c r="AJZ49" s="0"/>
-      <c r="AKA49" s="0"/>
-      <c r="AKB49" s="0"/>
-      <c r="AKC49" s="0"/>
-      <c r="AKD49" s="0"/>
-      <c r="AKE49" s="0"/>
-      <c r="AKF49" s="0"/>
-      <c r="AKG49" s="0"/>
-      <c r="AKH49" s="0"/>
-      <c r="AKI49" s="0"/>
-      <c r="AKJ49" s="0"/>
-      <c r="AKK49" s="0"/>
-      <c r="AKL49" s="0"/>
-      <c r="AKM49" s="0"/>
-      <c r="AKN49" s="0"/>
-      <c r="AKO49" s="0"/>
-      <c r="AKP49" s="0"/>
-      <c r="AKQ49" s="0"/>
-      <c r="AKR49" s="0"/>
-      <c r="AKS49" s="0"/>
-      <c r="AKT49" s="0"/>
-      <c r="AKU49" s="0"/>
-      <c r="AKV49" s="0"/>
-      <c r="AKW49" s="0"/>
-      <c r="AKX49" s="0"/>
-      <c r="AKY49" s="0"/>
-      <c r="AKZ49" s="0"/>
-      <c r="ALA49" s="0"/>
-      <c r="ALB49" s="0"/>
-      <c r="ALC49" s="0"/>
-      <c r="ALD49" s="0"/>
-      <c r="ALE49" s="0"/>
-      <c r="ALF49" s="0"/>
-      <c r="ALG49" s="0"/>
-      <c r="ALH49" s="0"/>
-      <c r="ALI49" s="0"/>
-      <c r="ALJ49" s="0"/>
-      <c r="ALK49" s="0"/>
-      <c r="ALL49" s="0"/>
-      <c r="ALM49" s="0"/>
-      <c r="ALN49" s="0"/>
-      <c r="ALO49" s="0"/>
-      <c r="ALP49" s="0"/>
-      <c r="ALQ49" s="0"/>
-      <c r="ALR49" s="0"/>
-      <c r="ALS49" s="0"/>
-      <c r="ALT49" s="0"/>
-      <c r="ALU49" s="0"/>
-      <c r="ALV49" s="0"/>
-      <c r="ALW49" s="0"/>
-      <c r="ALX49" s="0"/>
-      <c r="ALY49" s="0"/>
-      <c r="ALZ49" s="0"/>
-      <c r="AMA49" s="0"/>
-      <c r="AMB49" s="0"/>
-      <c r="AMC49" s="0"/>
-      <c r="AMD49" s="0"/>
-      <c r="AME49" s="0"/>
-      <c r="AMF49" s="0"/>
-      <c r="AMG49" s="0"/>
-      <c r="AMH49" s="0"/>
-      <c r="AMI49" s="0"/>
-      <c r="AMJ49" s="0"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D568">
+  <conditionalFormatting sqref="D567">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D568">
+  <conditionalFormatting sqref="D567">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
@@ -51005,7 +49942,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D568">
+  <conditionalFormatting sqref="D567">
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
@@ -51013,12 +49950,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D568">
+  <conditionalFormatting sqref="D567">
     <cfRule type="duplicateValues" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D568">
+  <conditionalFormatting sqref="D567">
     <cfRule type="duplicateValues" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>0</formula>
     </cfRule>
@@ -51026,17 +49963,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D568">
+  <conditionalFormatting sqref="D567">
     <cfRule type="duplicateValues" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D568">
+  <conditionalFormatting sqref="D567">
     <cfRule type="duplicateValues" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D568">
+  <conditionalFormatting sqref="D567">
     <cfRule type="duplicateValues" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
@@ -51044,7 +49981,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D354">
+  <conditionalFormatting sqref="D353">
     <cfRule type="duplicateValues" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>0</formula>
     </cfRule>
@@ -51052,12 +49989,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D354">
+  <conditionalFormatting sqref="D353">
     <cfRule type="duplicateValues" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D354">
+  <conditionalFormatting sqref="D353">
     <cfRule type="duplicateValues" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>0</formula>
     </cfRule>
@@ -51065,12 +50002,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D354">
+  <conditionalFormatting sqref="D353">
     <cfRule type="duplicateValues" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D354">
+  <conditionalFormatting sqref="D353">
     <cfRule type="duplicateValues" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
@@ -51078,17 +50015,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D354">
+  <conditionalFormatting sqref="D353">
     <cfRule type="duplicateValues" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D354">
+  <conditionalFormatting sqref="D353">
     <cfRule type="duplicateValues" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D354">
+  <conditionalFormatting sqref="D353">
     <cfRule type="duplicateValues" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>0</formula>
     </cfRule>
@@ -51097,7 +50034,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F49" r:id="rId1" display="ADMIN@XBRAIN.COM.BR"/>
+    <hyperlink ref="F48" r:id="rId1" display="ADMIN@XBRAIN.COM.BR"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -51122,16 +50059,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>9</v>
@@ -51139,50 +50073,50 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CRIAÇÃO DE USUARIO CONEXAO" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t xml:space="preserve">NIVEL/CANAL</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">RECEPTIVO</t>
   </si>
   <si>
-    <t xml:space="preserve">VENDEDOR</t>
+    <t xml:space="preserve">               VENDEDOR RECEPTIVO</t>
   </si>
   <si>
     <t xml:space="preserve">AGENTE_AUTORIZADO</t>
@@ -65,7 +65,13 @@
     <t xml:space="preserve">n.adaide.santos@aec.com.br</t>
   </si>
   <si>
+    <t xml:space="preserve">(51) 3322-1010</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGENTE AUTORIZADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENDEDOR</t>
   </si>
   <si>
     <t xml:space="preserve">COMERCIAL</t>
@@ -80,10 +86,16 @@
     <t xml:space="preserve">RECEPTIVA</t>
   </si>
   <si>
+    <t xml:space="preserve">VENDEDOR RECEPTIVO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADRIANA DE LIMA BEZERRA</t>
   </si>
   <si>
     <t xml:space="preserve">n.adriana.lbezerra@aec.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENDEDOR RECEPTIVO                </t>
   </si>
   <si>
     <t xml:space="preserve">ALAN DAVISON BARROS SILVA</t>
@@ -102,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">n.amanda.gouveia@aec.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(51) 99810-8030</t>
   </si>
   <si>
     <t xml:space="preserve">AMANDA CAROLINA DE OLIVEIRA ANDRADE</t>
@@ -125,6 +140,9 @@
     <t xml:space="preserve">ANA CRISTINA FERREIRA DE MEDEIROS</t>
   </si>
   <si>
+    <t xml:space="preserve">101.440.347-27</t>
+  </si>
+  <si>
     <t xml:space="preserve">n.ana.fmedeiros@aec.com.br</t>
   </si>
   <si>
@@ -137,10 +155,16 @@
     <t xml:space="preserve">ANA KAROLINE DA COSTA SANTOS</t>
   </si>
   <si>
+    <t xml:space="preserve">700.289.864-74</t>
+  </si>
+  <si>
     <t xml:space="preserve">n.ana.csantos@aec.com.br</t>
   </si>
   <si>
     <t xml:space="preserve">ANA PAULA BARBOSA TOMAZ SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286.675.825-06</t>
   </si>
   <si>
     <t xml:space="preserve">n.ana.tsantos@aec.com.br</t>
@@ -448,19 +472,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:49"/>
+  <dimension ref="A1:AMJ49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="2:3"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="2" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="2" width="6.20918367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="33.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="2" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="9.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="2" width="6.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1527,8 +1551,8 @@
       <c r="G2" s="9" t="n">
         <v>34218</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>51991301817</v>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
@@ -2549,20 +2573,20 @@
     </row>
     <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="9" t="n">
         <v>31944</v>
@@ -3589,22 +3613,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>70159931479</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>34436</v>
@@ -4634,19 +4658,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>2917600403</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="9" t="n">
         <v>27678</v>
@@ -5676,19 +5700,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>9249138431</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>32373</v>
@@ -6718,25 +6742,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>12532343451</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G7" s="9" t="n">
         <v>35926</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>51991301817</v>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -7760,19 +7784,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>11523845465</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G8" s="9" t="n">
         <v>34705</v>
@@ -8802,19 +8826,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>1581072414</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G9" s="9" t="n">
         <v>32575</v>
@@ -9844,19 +9868,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>10161857400</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>33127</v>
@@ -16016,19 +16040,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
-      <c r="E16" s="7" t="n">
-        <v>10144034727</v>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>31722</v>
@@ -17058,19 +17082,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>5985368416</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>31827</v>
@@ -18100,19 +18124,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
-      <c r="E18" s="7" t="n">
-        <v>70028986474</v>
+      <c r="E18" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>34532</v>
@@ -19142,19 +19166,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
-      <c r="E19" s="7" t="n">
-        <v>28667582506</v>
+      <c r="E19" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G19" s="9" t="n">
         <v>31751</v>
@@ -20184,19 +20208,19 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>2131</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>30749</v>
@@ -49954,19 +49978,19 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>9460873421</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>34055</v>
@@ -51101,7 +51125,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -51116,58 +51140,58 @@
   </sheetPr>
   <dimension ref="D4:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="1" sqref="2:3 E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51177,18 +51201,18 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/test/resources/arquivo_usuario/planilha.xlsx
+++ b/src/test/resources/arquivo_usuario/planilha.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t xml:space="preserve">NIVEL/CANAL</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t xml:space="preserve">n.adenildo.oliveira@aec.com.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTIVA</t>
   </si>
   <si>
     <t xml:space="preserve">VENDEDOR RECEPTIVO</t>
@@ -474,8 +471,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3613,22 +3610,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="n">
         <v>70159931479</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="9" t="n">
         <v>34436</v>
@@ -4658,19 +4655,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>2917600403</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="9" t="n">
         <v>27678</v>
@@ -5700,19 +5697,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="n">
         <v>9249138431</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>32373</v>
@@ -6742,25 +6739,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>12532343451</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="9" t="n">
         <v>35926</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -7784,19 +7781,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7" t="n">
         <v>11523845465</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="9" t="n">
         <v>34705</v>
@@ -8826,19 +8823,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>1581072414</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="9" t="n">
         <v>32575</v>
@@ -9868,19 +9865,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>10161857400</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>33127</v>
@@ -16040,19 +16037,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>31722</v>
@@ -17082,19 +17079,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="n">
         <v>5985368416</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>31827</v>
@@ -18124,19 +18121,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>34532</v>
@@ -19166,19 +19163,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G19" s="9" t="n">
         <v>31751</v>
@@ -20208,19 +20205,19 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>2131</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>30749</v>
@@ -49984,13 +49981,13 @@
         <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>9460873421</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>34055</v>
@@ -51155,7 +51152,7 @@
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>15</v>
@@ -51163,35 +51160,35 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51201,12 +51198,12 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
